--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -1898,7 +1898,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="1039">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -2029,7 +2029,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>128?</t>
+    <t>Slight Hover Anti-chatter + Hover/Drag Smoothing</t>
   </si>
   <si>
     <t>Detachable USB C to USB A</t>
@@ -5598,8 +5598,8 @@
       <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>41</v>
+      <c r="L4" s="6">
+        <v>240.0</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>42</v>
@@ -5607,11 +5607,11 @@
       <c r="N4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="6">
+        <v>128.0</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>44</v>
@@ -5705,8 +5705,8 @@
       <c r="K5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>41</v>
+      <c r="L5" s="6">
+        <v>240.0</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>42</v>
@@ -5714,11 +5714,11 @@
       <c r="N5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="6">
+        <v>128.0</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>44</v>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -2029,7 +2029,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Slight Hover Anti-chatter + Hover/Drag Smoothing + Interpolated Pressure Resolution</t>
+    <t>Slight Hover Anti-chatter + Hover/Drag Smoothing + Glitchy Pressure Filtering</t>
   </si>
   <si>
     <t>Detachable USB C to USB A</t>
@@ -5421,7 +5421,7 @@
     <col customWidth="1" min="13" max="13" width="15.86"/>
     <col customWidth="1" min="14" max="14" width="17.14"/>
     <col customWidth="1" min="15" max="15" width="14.0"/>
-    <col customWidth="1" min="16" max="16" width="73.86"/>
+    <col customWidth="1" min="16" max="16" width="67.0"/>
     <col customWidth="1" min="17" max="17" width="36.57"/>
     <col customWidth="1" min="18" max="18" width="100.29"/>
     <col customWidth="1" min="19" max="19" width="21.0"/>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -1898,7 +1898,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1041">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -3448,7 +3448,7 @@
     <t>162.5 x 17.5 x 32.6 mm</t>
   </si>
   <si>
-    <t>1270/100</t>
+    <t>1270/50</t>
   </si>
   <si>
     <t>GP-110</t>
@@ -4148,9 +4148,6 @@
   </si>
   <si>
     <t>SD-420E</t>
-  </si>
-  <si>
-    <t>1270/50</t>
   </si>
   <si>
     <t>420 x 420 x 70 mm</t>
@@ -15736,19 +15733,19 @@
         <v>658</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>659</v>
       </c>
       <c r="F124" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="H124" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="I124" s="6">
         <v>0.0</v>
@@ -15803,25 +15800,25 @@
     </row>
     <row r="125">
       <c r="B125" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>658</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>659</v>
       </c>
       <c r="F125" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="G125" s="6" t="s">
+      <c r="H125" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="I125" s="6">
         <v>0.0</v>
@@ -15876,25 +15873,25 @@
     </row>
     <row r="126">
       <c r="B126" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>658</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>659</v>
       </c>
       <c r="F126" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="G126" s="6" t="s">
+      <c r="H126" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="I126" s="6">
         <v>0.0</v>
@@ -15949,25 +15946,25 @@
     </row>
     <row r="127">
       <c r="B127" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>658</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E127" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F127" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="G127" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="G127" s="6" t="s">
+      <c r="H127" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>760</v>
       </c>
       <c r="I127" s="6">
         <v>0.0</v>
@@ -16022,25 +16019,25 @@
     </row>
     <row r="128">
       <c r="B128" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>658</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E128" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F128" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="G128" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="G128" s="6" t="s">
+      <c r="H128" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>760</v>
       </c>
       <c r="I128" s="6">
         <v>0.0</v>
@@ -16095,25 +16092,25 @@
     </row>
     <row r="129">
       <c r="B129" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>658</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E129" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F129" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="G129" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="G129" s="6" t="s">
+      <c r="H129" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>760</v>
       </c>
       <c r="I129" s="6">
         <v>0.0</v>
@@ -16168,25 +16165,25 @@
     </row>
     <row r="130">
       <c r="B130" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>729</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>730</v>
       </c>
       <c r="F130" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="G130" s="6" t="s">
+      <c r="H130" s="6" t="s">
         <v>765</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="I130" s="6">
         <v>0.0</v>
@@ -16241,25 +16238,25 @@
     </row>
     <row r="131">
       <c r="B131" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>729</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>730</v>
       </c>
       <c r="F131" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="G131" s="6" t="s">
+      <c r="H131" s="6" t="s">
         <v>765</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="I131" s="6">
         <v>0.0</v>
@@ -16314,25 +16311,25 @@
     </row>
     <row r="132">
       <c r="B132" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>729</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>730</v>
       </c>
       <c r="F132" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="G132" s="6" t="s">
+      <c r="H132" s="6" t="s">
         <v>765</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="I132" s="6">
         <v>0.0</v>
@@ -16379,25 +16376,25 @@
     </row>
     <row r="133">
       <c r="B133" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>736</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>750</v>
+        <v>516</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>737</v>
       </c>
       <c r="F133" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="H133" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="I133" s="6">
         <v>0.0</v>
@@ -16444,25 +16441,25 @@
     </row>
     <row r="134">
       <c r="B134" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="D134" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="D134" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="E134" s="6" t="s">
+      <c r="F134" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="G134" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="G134" s="6" t="s">
+      <c r="H134" s="6" t="s">
         <v>777</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>778</v>
       </c>
       <c r="I134" s="6">
         <v>0.0</v>
@@ -16495,30 +16492,30 @@
         <v>748</v>
       </c>
       <c r="S134" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C135" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="E135" s="6" t="s">
+      <c r="F135" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="G135" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="H135" s="6" t="s">
         <v>777</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>778</v>
       </c>
       <c r="I135" s="6">
         <v>0.0</v>
@@ -16551,7 +16548,7 @@
         <v>748</v>
       </c>
       <c r="S135" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -16588,17 +16585,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4">
@@ -16609,42 +16606,42 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -16690,7 +16687,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -16705,7 +16702,7 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -16720,1242 +16717,1242 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="20" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="20" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="20" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="20" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="20" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="20" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="20" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="20" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="20" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="20" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="20" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="20" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="20" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="20" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="20" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="20" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="20" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="20" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="20" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="20" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="20" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="20" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="20" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="20" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="20" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="20" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="20" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="20" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="20" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="20" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="20" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="20" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="20" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="20" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="20" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="20" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="20" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="20" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="20" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="20" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="20" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="20" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="20" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="20" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="20" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="20" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="20" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="20" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="20" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="20" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="20" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="20" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="20" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="20" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="20" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="20" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="20" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="20" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="20" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="20" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="20" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="20" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="20" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -1785,6 +1785,26 @@
         <t xml:space="preserve">(Standard Stylus Red)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B78">
+      <text>
+        <t xml:space="preserve">(Slim Stylus Gray)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B79">
+      <text>
+        <t xml:space="preserve">(Slim Stylus Magenta)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B80">
+      <text>
+        <t xml:space="preserve">(Pressure Stylus Blue)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B81">
+      <text>
+        <t xml:space="preserve">(Pressure Stylus Red)</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1900,7 +1920,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1047">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -4038,6 +4058,42 @@
     <t>0.9mm</t>
   </si>
   <si>
+    <t>SP-200A</t>
+  </si>
+  <si>
+    <t>8.4g</t>
+  </si>
+  <si>
+    <t>142.5 x 11 mm</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.2mm</t>
+  </si>
+  <si>
+    <t>(PLD-4)</t>
+  </si>
+  <si>
+    <t>SP-210A</t>
+  </si>
+  <si>
+    <t>SP-300</t>
+  </si>
+  <si>
+    <t>11g or 10g</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SP-310</t>
+  </si>
+  <si>
     <t>Mice</t>
   </si>
   <si>
@@ -4234,6 +4290,9 @@
   </si>
   <si>
     <t>Kuuube's Wacom Pen Nib Guide</t>
+  </si>
+  <si>
+    <t>Kuuube's Wacom Pen Nib Compatibility Mastersheet</t>
   </si>
   <si>
     <t>Info</t>
@@ -5008,7 +5067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -5074,6 +5133,18 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="15.0"/>
       <color rgb="FFFF1600"/>
@@ -5098,7 +5169,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5157,6 +5228,12 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -12848,10 +12925,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A4:A62"/>
     <mergeCell ref="A65:A135"/>
-    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -12873,7 +12950,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.86"/>
     <col customWidth="1" min="2" max="2" width="15.71"/>
-    <col customWidth="1" min="3" max="3" width="9.14"/>
+    <col customWidth="1" min="3" max="3" width="10.14"/>
     <col customWidth="1" min="4" max="4" width="26.0"/>
     <col customWidth="1" min="5" max="5" width="89.57"/>
     <col customWidth="1" min="6" max="6" width="18.71"/>
@@ -14860,11 +14937,115 @@
         <v>709</v>
       </c>
     </row>
+    <row r="78">
+      <c r="B78" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A34"/>
-    <mergeCell ref="A37:A77"/>
+    <mergeCell ref="A37:A81"/>
   </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -14893,7 +15074,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2">
@@ -14910,13 +15091,13 @@
         <v>525</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>530</v>
@@ -14924,16 +15105,16 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="E3" s="6">
         <v>3.0</v>
@@ -14942,10 +15123,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4">
@@ -14953,10 +15134,10 @@
         <v>192</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="E4" s="6">
         <v>3.0</v>
@@ -14965,10 +15146,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5">
@@ -14976,10 +15157,10 @@
         <v>213</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="E5" s="6">
         <v>3.0</v>
@@ -14988,10 +15169,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6">
@@ -14999,10 +15180,10 @@
         <v>252</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="E6" s="6">
         <v>3.0</v>
@@ -15011,21 +15192,21 @@
         <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="E7" s="6">
         <v>3.0</v>
@@ -15034,10 +15215,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8">
@@ -15051,13 +15232,13 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E9" s="6">
         <v>5.0</v>
@@ -15066,21 +15247,21 @@
         <v>677</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="E10" s="6">
         <v>5.0</v>
@@ -15092,18 +15273,18 @@
         <v>31</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="E11" s="6">
         <v>5.0</v>
@@ -15112,21 +15293,21 @@
         <v>560</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="6" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E12" s="6">
         <v>5.0</v>
@@ -15138,18 +15319,18 @@
         <v>31</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="6" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="E13" s="6">
         <v>3.0</v>
@@ -15158,21 +15339,21 @@
         <v>620</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="E14" s="6">
         <v>5.0</v>
@@ -15181,21 +15362,21 @@
         <v>560</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E15" s="6">
         <v>5.0</v>
@@ -15207,21 +15388,21 @@
         <v>31</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="6" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>560</v>
@@ -15230,18 +15411,18 @@
         <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="E17" s="6">
         <v>5.0</v>
@@ -15253,7 +15434,7 @@
         <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18">
@@ -15276,12 +15457,12 @@
         <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="6" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
@@ -15299,7 +15480,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20">
@@ -15307,10 +15488,10 @@
         <v>496</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="E20" s="6">
         <v>4.0</v>
@@ -15322,7 +15503,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21">
@@ -15330,10 +15511,10 @@
         <v>491</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="E21" s="6">
         <v>4.0</v>
@@ -15350,13 +15531,13 @@
     </row>
     <row r="22">
       <c r="B22" s="6" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="E22" s="6">
         <v>4.0</v>
@@ -15368,18 +15549,18 @@
         <v>31</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="6" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="E23" s="6">
         <v>16.0</v>
@@ -15391,7 +15572,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -15419,17 +15600,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4">
@@ -15440,69 +15621,76 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>777</v>
+      <c r="A6" s="18" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>778</v>
+      <c r="A7" s="19" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>779</v>
+      <c r="A8" s="16" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
-        <v>780</v>
+      <c r="A9" s="20" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>783</v>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A8:K8"/>
+  <mergeCells count="13">
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A3"/>
     <hyperlink r:id="rId2" ref="A5"/>
     <hyperlink r:id="rId3" ref="A6"/>
-    <hyperlink r:id="rId4" ref="A9"/>
+    <hyperlink r:id="rId4" ref="A7"/>
     <hyperlink r:id="rId5" ref="A10"/>
     <hyperlink r:id="rId6" ref="A11"/>
     <hyperlink r:id="rId7" ref="A12"/>
+    <hyperlink r:id="rId8" ref="A13"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -15521,7 +15709,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -15535,1258 +15723,1258 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
-        <v>786</v>
+      <c r="A3" s="21" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>787</v>
+      <c r="A4" s="21" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>788</v>
+      <c r="A5" s="21" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>789</v>
+      <c r="A6" s="21" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>790</v>
+      <c r="A7" s="21" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>791</v>
+      <c r="A8" s="21" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>792</v>
+      <c r="A9" s="21" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>793</v>
+      <c r="A10" s="21" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>794</v>
+      <c r="A11" s="21" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>795</v>
+      <c r="A12" s="21" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>796</v>
+      <c r="A13" s="21" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>797</v>
+      <c r="A14" s="21" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
-        <v>798</v>
+      <c r="A15" s="21" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>799</v>
+      <c r="A16" s="21" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
-        <v>800</v>
+      <c r="A17" s="21" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>801</v>
+      <c r="A18" s="21" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>802</v>
+      <c r="A19" s="21" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>803</v>
+      <c r="A20" s="21" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>804</v>
+      <c r="A21" s="21" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
-        <v>805</v>
+      <c r="A22" s="21" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
-        <v>806</v>
+      <c r="A23" s="21" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>807</v>
+      <c r="A24" s="21" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>808</v>
+      <c r="A25" s="21" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>809</v>
+      <c r="A26" s="21" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
-        <v>810</v>
+      <c r="A27" s="21" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
-        <v>811</v>
+      <c r="A28" s="21" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>812</v>
+      <c r="A29" s="21" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
-        <v>813</v>
+      <c r="A30" s="21" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
-        <v>814</v>
+      <c r="A31" s="21" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
-        <v>815</v>
+      <c r="A32" s="21" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
-        <v>816</v>
+      <c r="A33" s="21" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
-        <v>817</v>
+      <c r="A34" s="21" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
-        <v>818</v>
+      <c r="A35" s="21" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
-        <v>819</v>
+      <c r="A36" s="21" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="19" t="s">
-        <v>820</v>
+      <c r="A37" s="21" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="s">
-        <v>821</v>
+      <c r="A38" s="21" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="19" t="s">
-        <v>822</v>
+      <c r="A39" s="21" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="s">
-        <v>823</v>
+      <c r="A40" s="21" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="s">
-        <v>824</v>
+      <c r="A41" s="21" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="s">
-        <v>825</v>
+      <c r="A42" s="21" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="s">
-        <v>826</v>
+      <c r="A43" s="21" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="19" t="s">
-        <v>827</v>
+      <c r="A44" s="21" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="19" t="s">
-        <v>828</v>
+      <c r="A45" s="21" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="19" t="s">
-        <v>829</v>
+      <c r="A46" s="21" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="19" t="s">
-        <v>830</v>
+      <c r="A47" s="21" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="19" t="s">
-        <v>831</v>
+      <c r="A48" s="21" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="19" t="s">
-        <v>832</v>
+      <c r="A49" s="21" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="19" t="s">
-        <v>833</v>
+      <c r="A50" s="21" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="19" t="s">
-        <v>834</v>
+      <c r="A51" s="21" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="19" t="s">
-        <v>835</v>
+      <c r="A52" s="21" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="19" t="s">
-        <v>836</v>
+      <c r="A53" s="21" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="19" t="s">
-        <v>837</v>
+      <c r="A54" s="21" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="19" t="s">
-        <v>838</v>
+      <c r="A55" s="21" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="19" t="s">
-        <v>839</v>
+      <c r="A56" s="21" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="19" t="s">
-        <v>840</v>
+      <c r="A57" s="21" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="19" t="s">
-        <v>841</v>
+      <c r="A58" s="21" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="19" t="s">
-        <v>842</v>
+      <c r="A59" s="21" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="19" t="s">
-        <v>843</v>
+      <c r="A60" s="21" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="19" t="s">
-        <v>844</v>
+      <c r="A61" s="21" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="19" t="s">
-        <v>845</v>
+      <c r="A62" s="21" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="19" t="s">
-        <v>846</v>
+      <c r="A63" s="21" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="19" t="s">
-        <v>847</v>
+      <c r="A64" s="21" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="19" t="s">
-        <v>848</v>
+      <c r="A65" s="21" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="19" t="s">
-        <v>849</v>
+      <c r="A66" s="21" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="19" t="s">
-        <v>850</v>
+      <c r="A67" s="21" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="19" t="s">
-        <v>851</v>
+      <c r="A68" s="21" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="19" t="s">
-        <v>852</v>
+      <c r="A69" s="21" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="19" t="s">
-        <v>853</v>
+      <c r="A70" s="21" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="19" t="s">
-        <v>854</v>
+      <c r="A71" s="21" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="19" t="s">
-        <v>855</v>
+      <c r="A72" s="21" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="19" t="s">
-        <v>856</v>
+      <c r="A73" s="21" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="19" t="s">
-        <v>857</v>
+      <c r="A74" s="21" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="19" t="s">
-        <v>858</v>
+      <c r="A75" s="21" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="19" t="s">
-        <v>859</v>
+      <c r="A76" s="21" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="19" t="s">
-        <v>860</v>
+      <c r="A77" s="21" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="19" t="s">
-        <v>861</v>
+      <c r="A78" s="21" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="19" t="s">
-        <v>862</v>
+      <c r="A79" s="21" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="19" t="s">
-        <v>863</v>
+      <c r="A80" s="21" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="19" t="s">
-        <v>864</v>
+      <c r="A81" s="21" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="19" t="s">
-        <v>865</v>
+      <c r="A82" s="21" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="19" t="s">
-        <v>866</v>
+      <c r="A83" s="21" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="19" t="s">
-        <v>867</v>
+      <c r="A84" s="21" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="19" t="s">
-        <v>868</v>
+      <c r="A85" s="21" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="19" t="s">
-        <v>869</v>
+      <c r="A86" s="21" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="19" t="s">
-        <v>870</v>
+      <c r="A87" s="21" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="19" t="s">
-        <v>871</v>
+      <c r="A88" s="21" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="19" t="s">
-        <v>872</v>
+      <c r="A89" s="21" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="19" t="s">
-        <v>873</v>
+      <c r="A90" s="21" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="19" t="s">
-        <v>874</v>
+      <c r="A91" s="21" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="19" t="s">
-        <v>875</v>
+      <c r="A92" s="21" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="19" t="s">
-        <v>876</v>
+      <c r="A93" s="21" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="19" t="s">
-        <v>877</v>
+      <c r="A94" s="21" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="19" t="s">
-        <v>878</v>
+      <c r="A95" s="21" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="19" t="s">
-        <v>879</v>
+      <c r="A96" s="21" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="19" t="s">
-        <v>880</v>
+      <c r="A97" s="21" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="19" t="s">
-        <v>881</v>
+      <c r="A98" s="21" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="19" t="s">
-        <v>882</v>
+      <c r="A99" s="21" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="19" t="s">
-        <v>883</v>
+      <c r="A100" s="21" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="19" t="s">
-        <v>884</v>
+      <c r="A101" s="21" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="19" t="s">
-        <v>885</v>
+      <c r="A102" s="21" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="19" t="s">
-        <v>886</v>
+      <c r="A103" s="21" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="19" t="s">
-        <v>887</v>
+      <c r="A104" s="21" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="19" t="s">
-        <v>888</v>
+      <c r="A105" s="21" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="19" t="s">
-        <v>889</v>
+      <c r="A106" s="21" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="19" t="s">
-        <v>890</v>
+      <c r="A107" s="21" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="19" t="s">
-        <v>891</v>
+      <c r="A108" s="21" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="19" t="s">
-        <v>892</v>
+      <c r="A109" s="21" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="19" t="s">
-        <v>893</v>
+      <c r="A110" s="21" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="19" t="s">
-        <v>894</v>
+      <c r="A111" s="21" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="19" t="s">
-        <v>895</v>
+      <c r="A112" s="21" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="19" t="s">
-        <v>896</v>
+      <c r="A113" s="21" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="19" t="s">
-        <v>897</v>
+      <c r="A114" s="21" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="19" t="s">
-        <v>898</v>
+      <c r="A115" s="21" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="19" t="s">
-        <v>899</v>
+      <c r="A116" s="21" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="19" t="s">
-        <v>900</v>
+      <c r="A117" s="21" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="19" t="s">
-        <v>901</v>
+      <c r="A118" s="21" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="19" t="s">
-        <v>902</v>
+      <c r="A119" s="21" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="19" t="s">
-        <v>903</v>
+      <c r="A120" s="21" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="19" t="s">
-        <v>904</v>
+      <c r="A121" s="21" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="19" t="s">
-        <v>905</v>
+      <c r="A122" s="21" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="19" t="s">
-        <v>906</v>
+      <c r="A123" s="21" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="19" t="s">
-        <v>907</v>
+      <c r="A124" s="21" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="19" t="s">
-        <v>908</v>
+      <c r="A125" s="21" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="19" t="s">
-        <v>909</v>
+      <c r="A126" s="21" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="19" t="s">
-        <v>910</v>
+      <c r="A127" s="21" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="19" t="s">
-        <v>911</v>
+      <c r="A128" s="21" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="19" t="s">
-        <v>912</v>
+      <c r="A129" s="21" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="19" t="s">
-        <v>913</v>
+      <c r="A130" s="21" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="19" t="s">
-        <v>914</v>
+      <c r="A131" s="21" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="19" t="s">
-        <v>915</v>
+      <c r="A132" s="21" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="19" t="s">
-        <v>916</v>
+      <c r="A133" s="21" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="19" t="s">
-        <v>917</v>
+      <c r="A134" s="21" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="19" t="s">
-        <v>918</v>
+      <c r="A135" s="21" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="19" t="s">
-        <v>919</v>
+      <c r="A136" s="21" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="19" t="s">
-        <v>920</v>
+      <c r="A137" s="21" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="19" t="s">
-        <v>921</v>
+      <c r="A138" s="21" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="19" t="s">
-        <v>922</v>
+      <c r="A139" s="21" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="19" t="s">
-        <v>923</v>
+      <c r="A140" s="21" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="19" t="s">
-        <v>924</v>
+      <c r="A141" s="21" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="19" t="s">
-        <v>925</v>
+      <c r="A142" s="21" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="19" t="s">
-        <v>926</v>
+      <c r="A143" s="21" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="19" t="s">
-        <v>927</v>
+      <c r="A144" s="21" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="19" t="s">
-        <v>928</v>
+      <c r="A145" s="21" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="19" t="s">
-        <v>929</v>
+      <c r="A146" s="21" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="19" t="s">
-        <v>930</v>
+      <c r="A147" s="21" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="19" t="s">
-        <v>931</v>
+      <c r="A148" s="21" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="19" t="s">
-        <v>932</v>
+      <c r="A149" s="21" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="19" t="s">
-        <v>933</v>
+      <c r="A150" s="21" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="19" t="s">
-        <v>934</v>
+      <c r="A151" s="21" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="19" t="s">
-        <v>935</v>
+      <c r="A152" s="21" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="19" t="s">
-        <v>936</v>
+      <c r="A153" s="21" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="19" t="s">
-        <v>937</v>
+      <c r="A154" s="21" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="19" t="s">
-        <v>938</v>
+      <c r="A155" s="21" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="19" t="s">
-        <v>939</v>
+      <c r="A156" s="21" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="19" t="s">
-        <v>940</v>
+      <c r="A157" s="21" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="19" t="s">
-        <v>941</v>
+      <c r="A158" s="21" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="19" t="s">
-        <v>942</v>
+      <c r="A159" s="21" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="19" t="s">
-        <v>943</v>
+      <c r="A160" s="21" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="19" t="s">
-        <v>944</v>
+      <c r="A161" s="21" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="19" t="s">
-        <v>945</v>
+      <c r="A162" s="21" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="19" t="s">
-        <v>946</v>
+      <c r="A163" s="21" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="19" t="s">
-        <v>947</v>
+      <c r="A164" s="21" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="19" t="s">
-        <v>948</v>
+      <c r="A165" s="21" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="19" t="s">
-        <v>949</v>
+      <c r="A166" s="21" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="19" t="s">
-        <v>950</v>
+      <c r="A167" s="21" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="19" t="s">
-        <v>951</v>
+      <c r="A168" s="21" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="19" t="s">
-        <v>952</v>
+      <c r="A169" s="21" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="19" t="s">
-        <v>953</v>
+      <c r="A170" s="21" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="19" t="s">
-        <v>954</v>
+      <c r="A171" s="21" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="19" t="s">
-        <v>955</v>
+      <c r="A172" s="21" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="19" t="s">
-        <v>956</v>
+      <c r="A173" s="21" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="19" t="s">
-        <v>957</v>
+      <c r="A174" s="21" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="19" t="s">
-        <v>958</v>
+      <c r="A175" s="21" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="19" t="s">
-        <v>959</v>
+      <c r="A176" s="21" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="19" t="s">
-        <v>960</v>
+      <c r="A177" s="21" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="19" t="s">
-        <v>961</v>
+      <c r="A178" s="21" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="19" t="s">
-        <v>962</v>
+      <c r="A179" s="21" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="19" t="s">
-        <v>963</v>
+      <c r="A180" s="21" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="19" t="s">
-        <v>964</v>
+      <c r="A181" s="21" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="19" t="s">
-        <v>965</v>
+      <c r="A182" s="21" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="19" t="s">
-        <v>966</v>
+      <c r="A183" s="21" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="19" t="s">
-        <v>967</v>
+      <c r="A184" s="21" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="19" t="s">
-        <v>968</v>
+      <c r="A185" s="21" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="19" t="s">
-        <v>969</v>
+      <c r="A186" s="21" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="19" t="s">
-        <v>970</v>
+      <c r="A187" s="21" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="19" t="s">
-        <v>971</v>
+      <c r="A188" s="21" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="19" t="s">
-        <v>972</v>
+      <c r="A189" s="21" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="19" t="s">
-        <v>973</v>
+      <c r="A190" s="21" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="19" t="s">
-        <v>974</v>
+      <c r="A191" s="21" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="19" t="s">
-        <v>975</v>
+      <c r="A192" s="21" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="19" t="s">
-        <v>976</v>
+      <c r="A193" s="21" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="19" t="s">
-        <v>977</v>
+      <c r="A194" s="21" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="19" t="s">
-        <v>978</v>
+      <c r="A195" s="21" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="19" t="s">
-        <v>979</v>
+      <c r="A196" s="21" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="19" t="s">
-        <v>980</v>
+      <c r="A197" s="21" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="19" t="s">
-        <v>981</v>
+      <c r="A198" s="21" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="19" t="s">
-        <v>982</v>
+      <c r="A199" s="21" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="19" t="s">
-        <v>983</v>
+      <c r="A200" s="21" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="19" t="s">
-        <v>984</v>
+      <c r="A201" s="21" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="19" t="s">
-        <v>985</v>
+      <c r="A202" s="21" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="19" t="s">
-        <v>986</v>
+      <c r="A203" s="21" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="19" t="s">
-        <v>987</v>
+      <c r="A204" s="21" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="19" t="s">
-        <v>988</v>
+      <c r="A205" s="21" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="19" t="s">
-        <v>989</v>
+      <c r="A206" s="21" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="19" t="s">
-        <v>990</v>
+      <c r="A207" s="21" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="19" t="s">
-        <v>991</v>
+      <c r="A208" s="21" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="19" t="s">
-        <v>992</v>
+      <c r="A209" s="21" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="19" t="s">
-        <v>993</v>
+      <c r="A210" s="21" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="19" t="s">
-        <v>994</v>
+      <c r="A211" s="21" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="19" t="s">
-        <v>995</v>
+      <c r="A212" s="21" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="19" t="s">
-        <v>996</v>
+      <c r="A213" s="21" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="19" t="s">
-        <v>997</v>
+      <c r="A214" s="21" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="19" t="s">
-        <v>998</v>
+      <c r="A215" s="21" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="19" t="s">
-        <v>999</v>
+      <c r="A216" s="21" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="19" t="s">
-        <v>1000</v>
+      <c r="A217" s="21" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="19" t="s">
-        <v>1001</v>
+      <c r="A218" s="21" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="19" t="s">
-        <v>1002</v>
+      <c r="A219" s="21" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="19" t="s">
-        <v>1003</v>
+      <c r="A220" s="21" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="19" t="s">
-        <v>1004</v>
+      <c r="A221" s="21" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="19" t="s">
-        <v>1005</v>
+      <c r="A222" s="21" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="19" t="s">
-        <v>1006</v>
+      <c r="A223" s="21" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="19" t="s">
-        <v>1007</v>
+      <c r="A224" s="21" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="19" t="s">
-        <v>1008</v>
+      <c r="A225" s="21" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="19" t="s">
-        <v>1009</v>
+      <c r="A226" s="21" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="19" t="s">
-        <v>1010</v>
+      <c r="A227" s="21" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="19" t="s">
-        <v>1011</v>
+      <c r="A228" s="21" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="19" t="s">
-        <v>1012</v>
+      <c r="A229" s="21" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="19" t="s">
-        <v>1013</v>
+      <c r="A230" s="21" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="19" t="s">
-        <v>1014</v>
+      <c r="A231" s="21" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="19" t="s">
-        <v>1015</v>
+      <c r="A232" s="21" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="19" t="s">
-        <v>1016</v>
+      <c r="A233" s="21" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="19" t="s">
-        <v>1017</v>
+      <c r="A234" s="21" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="19" t="s">
-        <v>1018</v>
+      <c r="A235" s="21" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="19" t="s">
-        <v>1019</v>
+      <c r="A236" s="21" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="19" t="s">
-        <v>1020</v>
+      <c r="A237" s="21" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="19" t="s">
-        <v>1021</v>
+      <c r="A238" s="21" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="19" t="s">
-        <v>1022</v>
+      <c r="A239" s="21" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="19" t="s">
-        <v>1023</v>
+      <c r="A240" s="21" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="19" t="s">
-        <v>1024</v>
+      <c r="A241" s="21" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="19" t="s">
-        <v>1025</v>
+      <c r="A242" s="21" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="19" t="s">
-        <v>1026</v>
+      <c r="A243" s="21" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="19" t="s">
-        <v>1027</v>
+      <c r="A244" s="21" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="19" t="s">
-        <v>1028</v>
+      <c r="A245" s="21" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="19" t="s">
-        <v>1029</v>
+      <c r="A246" s="21" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="19" t="s">
-        <v>1030</v>
+      <c r="A247" s="21" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="19" t="s">
-        <v>1031</v>
+      <c r="A248" s="21" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="19" t="s">
-        <v>1032</v>
+      <c r="A249" s="21" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="19" t="s">
-        <v>1033</v>
+      <c r="A250" s="21" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -1252,329 +1252,344 @@
     </comment>
     <comment authorId="0" ref="H9">
       <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10">
+      <text>
+        <t xml:space="preserve">(Wacom Pen 2K)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H10">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11">
+      <text>
+        <t xml:space="preserve">(Wacom Pen 2K)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H11">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H12">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H13">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H14">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H15">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H16">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17">
+      <text>
+        <t xml:space="preserve">(Bamboo Fun CTH Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H17">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18">
+      <text>
+        <t xml:space="preserve">(Bamboo CTL Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H18">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19">
+      <text>
+        <t xml:space="preserve">(Bamboo CTH Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H19">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20">
+      <text>
+        <t xml:space="preserve">(Bamboo One Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H20">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21">
+      <text>
+        <t xml:space="preserve">(Bamboo Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H21">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22">
+      <text>
+        <t xml:space="preserve">(Bamboo Fun Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H22">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23">
+      <text>
+        <t xml:space="preserve">(Graphire4 Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H23">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24">
+      <text>
+        <t xml:space="preserve">(Bamboo One Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H24">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H25">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26">
+      <text>
+        <t xml:space="preserve">(Graphire3 Inking Pen) (Graphire2 Inking Pen) (Graphire Inking Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H26">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B27">
+      <text>
+        <t xml:space="preserve">(Graphire Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H27">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B28">
+      <text>
+        <t xml:space="preserve">(Graphire3 Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H28">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H29">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B30">
+      <text>
+        <t xml:space="preserve">(LLC Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H30">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31">
+      <text>
+        <t xml:space="preserve">(Graphire2 Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H31">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B32">
+      <text>
+        <t xml:space="preserve">(Graphire Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H32">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H33">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34">
+      <text>
+        <t xml:space="preserve">(PenPartner Pen) (UltraPen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H34">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B37">
+      <text>
+        <t xml:space="preserve">(Wacom Pro Pen 2)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B38">
+      <text>
+        <t xml:space="preserve">(Wacom Pro Pen Slim)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B39">
+      <text>
+        <t xml:space="preserve">(Wacom Pro Pen 3d)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B40">
+      <text>
+        <t xml:space="preserve">(Wacom Finetip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H40">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B41">
+      <text>
+        <t xml:space="preserve">(Wacom Ballpoint Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H41">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B42">
+      <text>
+        <t xml:space="preserve">(Intuos4 Grip Pen) (Intuos5 Grip Pen) (Wacom Grip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H42">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B43">
+      <text>
+        <t xml:space="preserve">(Intuos4 Grip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H43">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B44">
+      <text>
+        <t xml:space="preserve">(Wacom Pro Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H44">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B45">
+      <text>
+        <t xml:space="preserve">(Intuos4 Airbrush) (Intuos5 Airbrush) (Wacom Airbrush)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H45">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B46">
+      <text>
+        <t xml:space="preserve">(Intuos4 Inking Pen) (Intuos5 Inking Pen) (Wacom Inking Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H46">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B47">
+      <text>
+        <t xml:space="preserve">(Intuos4 Art Pen) (Intuos5 Art Pen) (Wacom Art Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H47">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B48">
+      <text>
+        <t xml:space="preserve">(Intuos4 Classic Pen) (Intuos5 Classic Pen) (Wacom Classic Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H48">
+      <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10">
-      <text>
-        <t xml:space="preserve">(Wacom Pen 2K)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H10">
+    <comment authorId="0" ref="B49">
+      <text>
+        <t xml:space="preserve">(Intuos3 Grip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H49">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11">
-      <text>
-        <t xml:space="preserve">(Wacom Pen 2K)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H11">
+    <comment authorId="0" ref="B50">
+      <text>
+        <t xml:space="preserve">(Intuos3 Airbrush)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H50">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H12">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H13">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H14">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H15">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H16">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17">
-      <text>
-        <t xml:space="preserve">(Bamboo Fun CTH Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H17">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B18">
-      <text>
-        <t xml:space="preserve">(Bamboo CTL Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H18">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19">
-      <text>
-        <t xml:space="preserve">(Bamboo CTH Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H19">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20">
-      <text>
-        <t xml:space="preserve">(Bamboo One Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H20">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B21">
-      <text>
-        <t xml:space="preserve">(Bamboo Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H21">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22">
-      <text>
-        <t xml:space="preserve">(Bamboo Fun Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H22">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23">
-      <text>
-        <t xml:space="preserve">(Graphire4 Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H23">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B24">
-      <text>
-        <t xml:space="preserve">(Bamboo One Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H24">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H25">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B26">
-      <text>
-        <t xml:space="preserve">(Graphire3 Inking Pen) (Graphire2 Inking Pen) (Graphire Inking Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H26">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B27">
-      <text>
-        <t xml:space="preserve">(Graphire Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H27">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B28">
-      <text>
-        <t xml:space="preserve">(Graphire3 Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H28">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H29">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B30">
-      <text>
-        <t xml:space="preserve">(LLC Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H30">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B31">
-      <text>
-        <t xml:space="preserve">(Graphire2 Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H31">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B32">
-      <text>
-        <t xml:space="preserve">(Graphire Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H32">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H33">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B34">
-      <text>
-        <t xml:space="preserve">(PenPartner Pen) (UltraPen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H34">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B37">
-      <text>
-        <t xml:space="preserve">(Wacom Pro Pen 2)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B38">
-      <text>
-        <t xml:space="preserve">(Wacom Pro Pen Slim)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B39">
-      <text>
-        <t xml:space="preserve">(Wacom Pro Pen 3d)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B40">
-      <text>
-        <t xml:space="preserve">(Wacom Finetip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B41">
-      <text>
-        <t xml:space="preserve">(Wacom Ballpoint Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B42">
-      <text>
-        <t xml:space="preserve">(Intuos4 Grip Pen) (Intuos5 Grip Pen) (Wacom Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H42">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B43">
-      <text>
-        <t xml:space="preserve">(Intuos4 Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H43">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B44">
-      <text>
-        <t xml:space="preserve">(Wacom Pro Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H44">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B45">
-      <text>
-        <t xml:space="preserve">(Intuos4 Airbrush) (Intuos5 Airbrush) (Wacom Airbrush)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H45">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B46">
-      <text>
-        <t xml:space="preserve">(Intuos4 Inking Pen) (Intuos5 Inking Pen) (Wacom Inking Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B47">
-      <text>
-        <t xml:space="preserve">(Intuos4 Art Pen) (Intuos5 Art Pen) (Wacom Art Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H47">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B48">
-      <text>
-        <t xml:space="preserve">(Intuos4 Classic Pen) (Intuos5 Classic Pen) (Wacom Classic Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H48">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B49">
-      <text>
-        <t xml:space="preserve">(Intuos3 Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H49">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B50">
-      <text>
-        <t xml:space="preserve">(Intuos3 Airbrush)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H50">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B51">
       <text>
         <t xml:space="preserve">(Intuos3 Art Pen)</t>
@@ -1585,6 +1600,11 @@
         <t xml:space="preserve">(Intuos3 Ink Pen)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="H52">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B53">
       <text>
         <t xml:space="preserve">(Intuos3 Classic Pen)</t>
@@ -1592,7 +1612,7 @@
     </comment>
     <comment authorId="0" ref="H53">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B54">
@@ -1602,7 +1622,7 @@
     </comment>
     <comment authorId="0" ref="H54">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B55">
@@ -1612,7 +1632,7 @@
     </comment>
     <comment authorId="0" ref="H55">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B56">
@@ -1622,7 +1642,7 @@
     </comment>
     <comment authorId="0" ref="H56">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B57">
@@ -1630,11 +1650,21 @@
         <t xml:space="preserve">(Intuos2 Ink Pen)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="H57">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B58">
       <text>
         <t xml:space="preserve">(Intuos2 Stroke Pen)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="H58">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B59">
       <text>
         <t xml:space="preserve">(Intuos Pen)</t>
@@ -1642,7 +1672,7 @@
     </comment>
     <comment authorId="0" ref="H59">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B60">
@@ -1652,7 +1682,7 @@
     </comment>
     <comment authorId="0" ref="H60">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B61">
@@ -1660,14 +1690,24 @@
         <t xml:space="preserve">(Intuos Inking Pen)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="H61">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B62">
       <text>
         <t xml:space="preserve">(Intuos Stroke Pen)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="H62">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="H63">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B64">
@@ -1677,12 +1717,12 @@
     </comment>
     <comment authorId="0" ref="H64">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="H65">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B66">
@@ -1692,7 +1732,7 @@
     </comment>
     <comment authorId="0" ref="H66">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B67">
@@ -1702,7 +1742,7 @@
     </comment>
     <comment authorId="0" ref="H67">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B68">
@@ -1712,7 +1752,7 @@
     </comment>
     <comment authorId="0" ref="H69">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B70">
@@ -1722,7 +1762,7 @@
     </comment>
     <comment authorId="0" ref="H70">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B71">
@@ -1732,7 +1772,7 @@
     </comment>
     <comment authorId="0" ref="H71">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B72">
@@ -1742,7 +1782,7 @@
     </comment>
     <comment authorId="0" ref="H72">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B73">
@@ -1752,7 +1792,7 @@
     </comment>
     <comment authorId="0" ref="H73">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B74">
@@ -1762,7 +1802,7 @@
     </comment>
     <comment authorId="0" ref="H74">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B75">
@@ -1772,7 +1812,7 @@
     </comment>
     <comment authorId="0" ref="H75">
       <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B76">
@@ -1920,7 +1960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1045">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -3530,7 +3570,7 @@
     <t>0.1mm</t>
   </si>
   <si>
-    <t>ACK24911Z, ACK24918Z, ACK24919Z</t>
+    <t>ACK24911Z, ACK24918Z, ACK24919Z, ACK24501Z</t>
   </si>
   <si>
     <t>CTC-4110WL, CTC-6110WL</t>
@@ -3548,9 +3588,6 @@
     <t>4096 (≈5gf, 28gf, 43gf, 95gf, 151gf, 358gf)</t>
   </si>
   <si>
-    <t>ACK24501Z</t>
-  </si>
-  <si>
     <t>CP-202</t>
   </si>
   <si>
@@ -3849,9 +3886,6 @@
   </si>
   <si>
     <t>0.2mm</t>
-  </si>
-  <si>
-    <t>(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023)</t>
   </si>
   <si>
     <t>KP-701E</t>
@@ -12955,7 +12989,7 @@
     <col customWidth="1" min="5" max="5" width="89.57"/>
     <col customWidth="1" min="6" max="6" width="18.71"/>
     <col customWidth="1" min="7" max="7" width="26.0"/>
-    <col customWidth="1" min="8" max="8" width="74.0"/>
+    <col customWidth="1" min="8" max="8" width="79.86"/>
     <col customWidth="1" min="9" max="9" width="211.14"/>
   </cols>
   <sheetData>
@@ -13042,7 +13076,7 @@
         <v>535</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>537</v>
@@ -13050,25 +13084,25 @@
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="E5" s="6">
         <v>4096.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>537</v>
@@ -13076,7 +13110,7 @@
     </row>
     <row r="6">
       <c r="B6" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>40</v>
@@ -13094,7 +13128,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>537</v>
@@ -13102,13 +13136,13 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="E7" s="6">
         <v>4096.0</v>
@@ -13120,7 +13154,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>537</v>
@@ -13128,13 +13162,13 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="E8" s="6">
         <v>4096.0</v>
@@ -13146,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>537</v>
@@ -13157,25 +13191,25 @@
         <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="F9" s="6">
         <v>2.0</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="10">
@@ -13183,25 +13217,25 @@
         <v>91</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="F10" s="6">
         <v>2.0</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11">
@@ -13209,25 +13243,25 @@
         <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F11" s="6">
         <v>2.0</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12">
@@ -13235,25 +13269,25 @@
         <v>74</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="F12" s="6">
         <v>2.0</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13">
@@ -13261,25 +13295,25 @@
         <v>80</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="14">
@@ -13287,25 +13321,25 @@
         <v>100</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="F14" s="6">
         <v>2.0</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15">
@@ -13313,25 +13347,25 @@
         <v>111</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="F15" s="6">
         <v>2.0</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16">
@@ -13339,25 +13373,25 @@
         <v>122</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>582</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>575</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17">
@@ -13365,25 +13399,25 @@
         <v>138</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>584</v>
-      </c>
       <c r="F17" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>575</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18">
@@ -13391,25 +13425,25 @@
         <v>147</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="F18" s="6">
         <v>2.0</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19">
@@ -13417,25 +13451,25 @@
         <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>575</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20">
@@ -13443,10 +13477,10 @@
         <v>127</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E20" s="6">
         <v>1024.0</v>
@@ -13458,10 +13492,10 @@
         <v>535</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21">
@@ -13469,25 +13503,25 @@
         <v>165</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>591</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22">
@@ -13495,25 +13529,25 @@
         <v>171</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E22" s="6">
         <v>512.0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="23">
@@ -13521,25 +13555,25 @@
         <v>191</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E23" s="6">
         <v>512.0</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24">
@@ -13547,10 +13581,10 @@
         <v>225</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E24" s="6">
         <v>512.0</v>
@@ -13562,10 +13596,10 @@
         <v>535</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25">
@@ -13573,10 +13607,10 @@
         <v>233</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E25" s="6">
         <v>512.0</v>
@@ -13585,24 +13619,24 @@
         <v>2.0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="E26" s="6">
         <v>512.0</v>
@@ -13614,10 +13648,10 @@
         <v>535</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
@@ -13625,25 +13659,25 @@
         <v>217</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E27" s="6">
         <v>512.0</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28">
@@ -13651,25 +13685,25 @@
         <v>211</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E28" s="6">
         <v>512.0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -13692,10 +13726,10 @@
         <v>40</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30">
@@ -13703,10 +13737,10 @@
         <v>245</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E30" s="6">
         <v>512.0</v>
@@ -13715,13 +13749,13 @@
         <v>2.0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31">
@@ -13729,25 +13763,25 @@
         <v>251</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E31" s="6">
         <v>512.0</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32">
@@ -13755,25 +13789,25 @@
         <v>263</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33">
@@ -13790,13 +13824,13 @@
         <v>512.0</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>177</v>
@@ -13807,25 +13841,25 @@
         <v>272</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="E34" s="6">
         <v>256.0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="35">
@@ -13870,68 +13904,68 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>300</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>618</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E39" s="6">
         <v>8192.0</v>
@@ -13940,24 +13974,24 @@
         <v>3.0</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="E40" s="6">
         <v>8192.0</v>
@@ -13966,24 +14000,24 @@
         <v>31</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H40" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="E41" s="6">
         <v>8192.0</v>
@@ -13992,13 +14026,13 @@
         <v>31</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="42">
@@ -14006,25 +14040,25 @@
         <v>323</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>630</v>
-      </c>
       <c r="H42" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43">
@@ -14032,88 +14066,88 @@
         <v>323</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>629</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="E45" s="6">
         <v>2048.0</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E46" s="6">
         <v>2048.0</v>
@@ -14122,65 +14156,65 @@
         <v>31</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>646</v>
       </c>
       <c r="E47" s="6">
         <v>2048.0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E48" s="6">
         <v>2048.0</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49">
@@ -14188,88 +14222,88 @@
         <v>373</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="H49" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E50" s="6">
         <v>1024.0</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="G51" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>661</v>
-      </c>
       <c r="I51" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E52" s="6">
         <v>1024.0</v>
@@ -14278,39 +14312,39 @@
         <v>31</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E53" s="6">
         <v>1024.0</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54">
@@ -14318,88 +14352,88 @@
         <v>413</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="H54" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>672</v>
       </c>
       <c r="E55" s="6">
         <v>1024.0</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E56" s="6">
         <v>1024.0</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E57" s="6">
         <v>1024.0</v>
@@ -14411,21 +14445,21 @@
         <v>535</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E58" s="6">
         <v>1024.0</v>
@@ -14434,13 +14468,13 @@
         <v>31</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="59">
@@ -14448,62 +14482,62 @@
         <v>444</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E60" s="6">
         <v>1024.0</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E61" s="6">
         <v>1024.0</v>
@@ -14515,21 +14549,21 @@
         <v>535</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E62" s="6">
         <v>1024.0</v>
@@ -14538,24 +14572,24 @@
         <v>31</v>
       </c>
       <c r="G62" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="I62" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="E63" s="6">
         <v>256.0</v>
@@ -14567,10 +14601,10 @@
         <v>535</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="64">
@@ -14578,62 +14612,62 @@
         <v>280</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E65" s="6">
         <v>256.0</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E66" s="6">
         <v>256.0</v>
@@ -14645,21 +14679,21 @@
         <v>40</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E67" s="6">
         <v>256.0</v>
@@ -14671,21 +14705,21 @@
         <v>535</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E68" s="6">
         <v>256.0</v>
@@ -14697,21 +14731,21 @@
         <v>535</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E69" s="6">
         <v>256.0</v>
@@ -14723,47 +14757,47 @@
         <v>535</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>699</v>
-      </c>
       <c r="F70" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E71" s="6">
         <v>512.0</v>
@@ -14772,50 +14806,50 @@
         <v>2.0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E72" s="6">
         <v>512.0</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E73" s="6">
         <v>512.0</v>
@@ -14827,21 +14861,21 @@
         <v>535</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E74" s="6">
         <v>256.0</v>
@@ -14853,21 +14887,21 @@
         <v>535</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E75" s="6">
         <v>256.0</v>
@@ -14879,21 +14913,21 @@
         <v>535</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E76" s="6">
         <v>2.0</v>
@@ -14902,24 +14936,24 @@
         <v>1.0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E77" s="6">
         <v>2.0</v>
@@ -14928,117 +14962,117 @@
         <v>1.0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>712</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>714</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F78" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="H78" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="I78" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F79" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="I79" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="F80" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="G80" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="I80" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C81" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="G81" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -15074,7 +15108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2">
@@ -15091,13 +15125,13 @@
         <v>525</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>530</v>
@@ -15105,16 +15139,16 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E3" s="6">
         <v>3.0</v>
@@ -15123,10 +15157,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4">
@@ -15134,10 +15168,10 @@
         <v>192</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E4" s="6">
         <v>3.0</v>
@@ -15146,10 +15180,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5">
@@ -15157,10 +15191,10 @@
         <v>213</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E5" s="6">
         <v>3.0</v>
@@ -15169,10 +15203,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6">
@@ -15180,10 +15214,10 @@
         <v>252</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E6" s="6">
         <v>3.0</v>
@@ -15192,21 +15226,21 @@
         <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>740</v>
       </c>
       <c r="E7" s="6">
         <v>3.0</v>
@@ -15215,10 +15249,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8">
@@ -15232,209 +15266,209 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="E9" s="6">
         <v>5.0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="E10" s="6">
         <v>5.0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="E11" s="6">
         <v>5.0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E12" s="6">
         <v>5.0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>759</v>
       </c>
       <c r="E13" s="6">
         <v>3.0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>761</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>763</v>
       </c>
       <c r="E14" s="6">
         <v>5.0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E15" s="6">
         <v>5.0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="E17" s="6">
         <v>5.0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18">
@@ -15457,12 +15491,12 @@
         <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
@@ -15480,7 +15514,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20">
@@ -15488,10 +15522,10 @@
         <v>496</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E20" s="6">
         <v>4.0</v>
@@ -15503,7 +15537,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21">
@@ -15511,10 +15545,10 @@
         <v>491</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E21" s="6">
         <v>4.0</v>
@@ -15531,13 +15565,13 @@
     </row>
     <row r="22">
       <c r="B22" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="E22" s="6">
         <v>4.0</v>
@@ -15549,18 +15583,18 @@
         <v>31</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E23" s="6">
         <v>16.0</v>
@@ -15572,7 +15606,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -15600,17 +15634,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4">
@@ -15621,47 +15655,47 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -15709,7 +15743,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -15724,7 +15758,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -15739,1242 +15773,1242 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="21" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="21" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="21" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="21" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="21" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="21" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="21" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="21" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="21" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="21" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="21" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="21" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="21" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="21" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="21" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="21" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="21" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="21" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="21" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="21" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="21" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="21" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="21" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="21" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="21" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="21" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="21" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="21" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="21" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="21" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="21" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="21" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="21" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="21" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="21" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="21" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="21" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="21" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="21" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="21" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="21" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="21" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="21" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="21" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="21" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="21" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="21" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="21" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="21" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="21" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="21" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="21" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="21" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="21" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="21" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="21" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="21" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="21" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="21" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="21" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="21" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="21" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="21" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="21" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="21" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="21" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="21" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="21" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="21" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="21" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="21" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="21" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="21" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="21" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="21" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="21" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="21" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="21" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="21" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="21" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="21" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="21" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="21" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="21" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="21" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="21" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="21" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="21" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="21" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="21" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="21" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="21" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="21" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="21" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="21" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="21" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="21" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="21" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="21" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="21" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="21" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="21" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="21" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="21" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="21" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="21" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="21" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="21" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="21" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="21" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="21" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="21" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="21" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="21" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="21" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="21" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="21" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="21" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="21" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="21" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="21" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="21" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="21" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="21" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="21" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="21" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="21" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="21" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="21" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="21" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="21" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="21" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="21" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="21" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="21" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="21" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="21" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="21" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="21" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="21" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="21" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="21" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="21" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="21" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="21" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="21" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="21" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="21" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="21" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="21" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="21" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="21" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="21" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="21" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="21" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="21" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="21" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="21" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="21" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="21" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="21" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="21" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="21" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="21" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="21" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="21" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="21" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="21" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="21" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="21" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="21" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="21" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="21" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="21" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="21" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="21" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="21" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="21" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="21" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="21" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="21" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="21" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="21" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="21" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="21" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="21" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="21" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="21" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="21" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="21" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="21" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="21" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="21" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="21" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="21" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="21" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="21" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="21" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="21" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="21" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="21" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="21" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="21" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="21" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="21" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="21" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -1850,7 +1850,7 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -15700,6 +15700,7 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
@@ -15711,7 +15712,6 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -1960,7 +1960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1054">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -3819,7 +3819,7 @@
     <t>160 x 8.4mm</t>
   </si>
   <si>
-    <t>ACK-24801Z, ACK24819Z</t>
+    <t>ACK-22211, ACK-22213, ACK-24801Z, ACK-24819Z</t>
   </si>
   <si>
     <t>157 x 15 mm</t>
@@ -3829,9 +3829,6 @@
   </si>
   <si>
     <t>1mm? (1.5mm?)</t>
-  </si>
-  <si>
-    <t>ACK-22211, ACK-22213</t>
   </si>
   <si>
     <t>PTH-460, PTH-660, PTH-860</t>
@@ -14178,24 +14175,24 @@
         <v>622</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>582</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>577</v>
@@ -14204,15 +14201,15 @@
         <v>622</v>
       </c>
       <c r="H40" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>547</v>
@@ -14227,24 +14224,24 @@
         <v>3.0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>632</v>
       </c>
       <c r="E42" s="6">
         <v>8192.0</v>
@@ -14253,24 +14250,24 @@
         <v>31</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H42" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>632</v>
       </c>
       <c r="E43" s="6">
         <v>8192.0</v>
@@ -14279,13 +14276,13 @@
         <v>31</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="44">
@@ -14293,25 +14290,25 @@
         <v>327</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>577</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45">
@@ -14319,39 +14316,39 @@
         <v>327</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>577</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>644</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>577</v>
@@ -14363,38 +14360,38 @@
         <v>564</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>648</v>
       </c>
       <c r="E47" s="6">
         <v>2048.0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>582</v>
@@ -14409,50 +14406,50 @@
         <v>31</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="E49" s="6">
         <v>2048.0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>582</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E50" s="6">
         <v>2048.0</v>
@@ -14461,13 +14458,13 @@
         <v>577</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51">
@@ -14475,36 +14472,36 @@
         <v>377</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>577</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>664</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E52" s="6">
         <v>1024.0</v>
@@ -14513,50 +14510,50 @@
         <v>577</v>
       </c>
       <c r="G52" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>584</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>669</v>
-      </c>
       <c r="I53" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>582</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E54" s="6">
         <v>1024.0</v>
@@ -14565,24 +14562,24 @@
         <v>31</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>582</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E55" s="6">
         <v>1024.0</v>
@@ -14591,13 +14588,13 @@
         <v>577</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="56">
@@ -14605,62 +14602,62 @@
         <v>417</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>675</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>577</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>680</v>
       </c>
       <c r="E57" s="6">
         <v>1024.0</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>579</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E58" s="6">
         <v>1024.0</v>
@@ -14669,18 +14666,18 @@
         <v>577</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>582</v>
@@ -14698,15 +14695,15 @@
         <v>539</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>582</v>
@@ -14721,13 +14718,13 @@
         <v>31</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="61">
@@ -14738,53 +14735,53 @@
         <v>579</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>577</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="E62" s="6">
         <v>1024.0</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>582</v>
@@ -14802,15 +14799,15 @@
         <v>539</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>582</v>
@@ -14825,24 +14822,24 @@
         <v>31</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>694</v>
       </c>
       <c r="E65" s="6">
         <v>256.0</v>
@@ -14857,7 +14854,7 @@
         <v>564</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66">
@@ -14868,10 +14865,10 @@
         <v>566</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>697</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>577</v>
@@ -14883,18 +14880,18 @@
         <v>564</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>566</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E67" s="6">
         <v>256.0</v>
@@ -14909,18 +14906,18 @@
         <v>564</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>694</v>
       </c>
       <c r="E68" s="6">
         <v>256.0</v>
@@ -14935,18 +14932,18 @@
         <v>564</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>560</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E69" s="6">
         <v>256.0</v>
@@ -14961,18 +14958,18 @@
         <v>564</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>560</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E70" s="6">
         <v>256.0</v>
@@ -14984,21 +14981,21 @@
         <v>539</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>694</v>
       </c>
       <c r="E71" s="6">
         <v>256.0</v>
@@ -15013,21 +15010,21 @@
         <v>564</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>707</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>577</v>
@@ -15039,18 +15036,18 @@
         <v>564</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>582</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E73" s="6">
         <v>512.0</v>
@@ -15059,18 +15056,18 @@
         <v>2.0</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>582</v>
@@ -15091,18 +15088,18 @@
         <v>564</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E75" s="6">
         <v>512.0</v>
@@ -15117,18 +15114,18 @@
         <v>564</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E76" s="6">
         <v>256.0</v>
@@ -15143,18 +15140,18 @@
         <v>564</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>560</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E77" s="6">
         <v>256.0</v>
@@ -15169,18 +15166,18 @@
         <v>564</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>560</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E78" s="6">
         <v>2.0</v>
@@ -15189,24 +15186,24 @@
         <v>1.0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H78" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>560</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E79" s="6">
         <v>2.0</v>
@@ -15215,117 +15212,117 @@
         <v>1.0</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H79" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I79" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>722</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F80" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="H80" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>725</v>
-      </c>
       <c r="I80" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C81" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>722</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F81" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>725</v>
-      </c>
       <c r="I81" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="E82" s="10" t="s">
+      <c r="F82" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="F82" s="10" t="s">
-        <v>730</v>
-      </c>
       <c r="G82" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="F83" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>730</v>
-      </c>
       <c r="G83" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -15361,7 +15358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2">
@@ -15378,13 +15375,13 @@
         <v>529</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>735</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>534</v>
@@ -15392,16 +15389,16 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>736</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>737</v>
       </c>
       <c r="E3" s="6">
         <v>3.0</v>
@@ -15410,10 +15407,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="4">
@@ -15421,10 +15418,10 @@
         <v>192</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E4" s="6">
         <v>3.0</v>
@@ -15433,10 +15430,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
@@ -15444,10 +15441,10 @@
         <v>213</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E5" s="6">
         <v>3.0</v>
@@ -15456,10 +15453,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6">
@@ -15467,10 +15464,10 @@
         <v>252</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E6" s="6">
         <v>3.0</v>
@@ -15479,21 +15476,21 @@
         <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="E7" s="6">
         <v>3.0</v>
@@ -15502,10 +15499,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8">
@@ -15519,59 +15516,59 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>751</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="E9" s="6">
         <v>5.0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>756</v>
       </c>
       <c r="E10" s="6">
         <v>5.0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>760</v>
       </c>
       <c r="E11" s="6">
         <v>5.0</v>
@@ -15580,21 +15577,21 @@
         <v>563</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>762</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>763</v>
       </c>
       <c r="E12" s="6">
         <v>5.0</v>
@@ -15606,41 +15603,41 @@
         <v>31</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>766</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>767</v>
       </c>
       <c r="E13" s="6">
         <v>3.0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>771</v>
       </c>
       <c r="E14" s="6">
         <v>5.0</v>
@@ -15649,21 +15646,21 @@
         <v>563</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E15" s="6">
         <v>5.0</v>
@@ -15675,21 +15672,21 @@
         <v>31</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>776</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>563</v>
@@ -15698,18 +15695,18 @@
         <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>780</v>
       </c>
       <c r="E17" s="6">
         <v>5.0</v>
@@ -15721,7 +15718,7 @@
         <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18">
@@ -15744,12 +15741,12 @@
         <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
@@ -15767,7 +15764,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20">
@@ -15775,10 +15772,10 @@
         <v>500</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="E20" s="6">
         <v>4.0</v>
@@ -15790,7 +15787,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21">
@@ -15798,10 +15795,10 @@
         <v>495</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="E21" s="6">
         <v>4.0</v>
@@ -15818,13 +15815,13 @@
     </row>
     <row r="22">
       <c r="B22" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>789</v>
       </c>
       <c r="E22" s="6">
         <v>4.0</v>
@@ -15836,18 +15833,18 @@
         <v>31</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E23" s="6">
         <v>16.0</v>
@@ -15859,7 +15856,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -15887,17 +15884,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4">
@@ -15908,47 +15905,47 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -15996,7 +15993,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -16011,7 +16008,7 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -16026,1242 +16023,1242 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="22" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="22" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="22" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="22" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="22" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="22" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="22" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="22" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="22" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="22" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="22" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="22" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="22" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="22" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="22" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="22" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="22" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="22" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="22" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="22" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="22" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="22" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="22" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="22" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="22" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="22" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="22" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="22" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="22" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="22" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="22" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="22" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="22" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="22" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="22" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="22" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="22" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="22" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="22" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="22" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="22" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="22" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="22" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="22" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="22" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="22" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="22" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="22" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="22" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="22" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="22" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="22" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="22" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="22" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="22" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="22" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="22" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="22" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="22" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="22" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="22" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="22" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="22" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="22" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="22" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="22" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="22" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="22" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="22" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="22" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="22" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="22" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="22" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="22" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="22" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="22" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="22" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="22" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="22" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="22" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="22" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="22" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="22" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="22" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="22" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="22" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="22" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="22" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="22" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="22" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="22" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="22" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="22" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="22" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="22" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="22" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="22" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="22" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="22" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="22" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="22" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="22" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="22" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="22" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="22" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="22" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="22" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="22" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="22" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="22" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="22" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="22" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="22" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="22" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="22" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="22" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="22" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="22" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="22" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="22" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="22" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="22" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="22" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -510,6 +510,21 @@
         <t xml:space="preserve">(UltraPen Eraser) (Erasing UltraPen)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B65">
+      <text>
+        <t xml:space="preserve">(Intuos Pro 2025 Small)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B66">
+      <text>
+        <t xml:space="preserve">(Intuos Pro 2025 Medium)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B67">
+      <text>
+        <t xml:space="preserve">(Intuos Pro 2025 Large)</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B68">
       <text>
         <t xml:space="preserve">(Intuos Pro Small) (Wacom Intuos Pro)</t>
@@ -1465,6 +1480,11 @@
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B38">
+      <text>
+        <t xml:space="preserve">(Wacom Pro Pen 3)</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B39">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen 2)</t>
@@ -1960,7 +1980,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1071">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -2844,21 +2864,75 @@
     <t>PTK-470</t>
   </si>
   <si>
+    <t>16 : 8.98</t>
+  </si>
+  <si>
+    <t>5080/200</t>
+  </si>
+  <si>
+    <t>187 x 105 mm</t>
+  </si>
+  <si>
+    <t>215 x 163 x 4-7 mm</t>
+  </si>
+  <si>
+    <t>1.78:1 (1.15:1) (1.55:1)</t>
+  </si>
+  <si>
+    <t>240g</t>
+  </si>
+  <si>
+    <t>10 + 2 Wheels</t>
+  </si>
+  <si>
+    <t>ACP-500</t>
+  </si>
+  <si>
+    <t>128?</t>
+  </si>
+  <si>
     <t>ACP-500, ACP-501E, CP-923, ???</t>
   </si>
   <si>
     <t>PTK-670</t>
   </si>
   <si>
+    <t>16 : 9</t>
+  </si>
+  <si>
+    <t>263 x 148 mm</t>
+  </si>
+  <si>
+    <t>291 x 206 x 4-7 mm</t>
+  </si>
+  <si>
+    <t>1.54:1 (1.10:1) (1.39:1)</t>
+  </si>
+  <si>
+    <t>411g</t>
+  </si>
+  <si>
     <t>PTK-870</t>
   </si>
   <si>
+    <t>16 : 8.93</t>
+  </si>
+  <si>
+    <t>349 x 195 mm</t>
+  </si>
+  <si>
+    <t>377 x 253 x 4-7 mm</t>
+  </si>
+  <si>
+    <t>1.4:1 (1.08:1) (1.29:1)</t>
+  </si>
+  <si>
+    <t>660g</t>
+  </si>
+  <si>
     <t>PTH-460</t>
   </si>
   <si>
-    <t>5080/200</t>
-  </si>
-  <si>
     <t>159.6 x 99.75 mm</t>
   </si>
   <si>
@@ -2938,9 +3012,6 @@
   </si>
   <si>
     <t>4.29:1 (2.03:1) (2.11:1)</t>
-  </si>
-  <si>
-    <t>660g</t>
   </si>
   <si>
     <t>KP-501E</t>
@@ -9016,28 +9087,28 @@
         <v>293</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>40</v>
@@ -9046,54 +9117,54 @@
         <v>40</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E66" s="6" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>40</v>
@@ -9102,54 +9173,54 @@
         <v>40</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>40</v>
@@ -9158,57 +9229,57 @@
         <v>40</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="L68" s="6">
         <v>200.0</v>
@@ -9223,13 +9294,13 @@
         <v>128.0</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="Q68" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="S68" s="6" t="s">
         <v>31</v>
@@ -9237,31 +9308,31 @@
     </row>
     <row r="69">
       <c r="B69" s="5" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>40</v>
@@ -9279,13 +9350,13 @@
         <v>128.0</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="Q69" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="S69" s="6" t="s">
         <v>31</v>
@@ -9293,31 +9364,31 @@
     </row>
     <row r="70">
       <c r="B70" s="5" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>40</v>
@@ -9335,13 +9406,13 @@
         <v>128.0</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="Q70" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="S70" s="6" t="s">
         <v>31</v>
@@ -9349,31 +9420,31 @@
     </row>
     <row r="71">
       <c r="B71" s="5" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>40</v>
@@ -9397,7 +9468,7 @@
         <v>166</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S71" s="6" t="s">
         <v>31</v>
@@ -9405,31 +9476,31 @@
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="J72" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>40</v>
@@ -9453,7 +9524,7 @@
         <v>166</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S72" s="6" t="s">
         <v>31</v>
@@ -9461,31 +9532,31 @@
     </row>
     <row r="73">
       <c r="B73" s="5" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>40</v>
@@ -9509,7 +9580,7 @@
         <v>166</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S73" s="6" t="s">
         <v>31</v>
@@ -9517,31 +9588,31 @@
     </row>
     <row r="74">
       <c r="B74" s="5" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>40</v>
@@ -9565,7 +9636,7 @@
         <v>166</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S74" s="6" t="s">
         <v>31</v>
@@ -9573,31 +9644,31 @@
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>40</v>
@@ -9621,7 +9692,7 @@
         <v>166</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S75" s="6" t="s">
         <v>31</v>
@@ -9629,31 +9700,31 @@
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J76" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>40</v>
@@ -9677,7 +9748,7 @@
         <v>166</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S76" s="6" t="s">
         <v>31</v>
@@ -9685,31 +9756,31 @@
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>40</v>
@@ -9733,7 +9804,7 @@
         <v>166</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S77" s="6" t="s">
         <v>31</v>
@@ -9741,31 +9812,31 @@
     </row>
     <row r="78">
       <c r="B78" s="5" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>40</v>
@@ -9789,7 +9860,7 @@
         <v>166</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S78" s="6" t="s">
         <v>31</v>
@@ -9797,34 +9868,34 @@
     </row>
     <row r="79">
       <c r="B79" s="5" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="L79" s="6">
         <v>200.0</v>
@@ -9845,39 +9916,39 @@
         <v>166</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S79" s="6" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="5" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>286</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>40</v>
@@ -9901,39 +9972,39 @@
         <v>166</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="5" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>40</v>
@@ -9957,39 +10028,39 @@
         <v>166</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="5" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>40</v>
@@ -10013,39 +10084,39 @@
         <v>166</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="5" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>92</v>
@@ -10069,39 +10140,39 @@
         <v>128</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>159</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>40</v>
@@ -10125,42 +10196,42 @@
         <v>128</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="5" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>221</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="L85" s="6">
         <v>200.0</v>
@@ -10181,39 +10252,39 @@
         <v>128</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="5" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>178</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>40</v>
@@ -10237,39 +10308,39 @@
         <v>128</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="5" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="H87" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="J87" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>40</v>
@@ -10293,39 +10364,39 @@
         <v>128</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="5" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>178</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>40</v>
@@ -10349,39 +10420,39 @@
         <v>128</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="5" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>40</v>
@@ -10405,39 +10476,39 @@
         <v>128</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="5" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>40</v>
@@ -10461,15 +10532,15 @@
         <v>128</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="6" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>178</v>
@@ -10496,7 +10567,7 @@
         <v>31</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="L91" s="6">
         <v>100.0</v>
@@ -10525,22 +10596,22 @@
     </row>
     <row r="92">
       <c r="B92" s="5" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>86</v>
@@ -10549,10 +10620,10 @@
         <v>0.0</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="L92" s="6">
         <v>200.0</v>
@@ -10573,30 +10644,30 @@
         <v>128</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="5" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>86</v>
@@ -10605,10 +10676,10 @@
         <v>0.0</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="L93" s="6">
         <v>200.0</v>
@@ -10629,30 +10700,30 @@
         <v>266</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="5" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>286</v>
@@ -10661,7 +10732,7 @@
         <v>0.0</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>40</v>
@@ -10685,30 +10756,30 @@
         <v>128</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="5" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>286</v>
@@ -10717,7 +10788,7 @@
         <v>0.0</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>40</v>
@@ -10741,39 +10812,39 @@
         <v>266</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S95" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="5" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="I96" s="6">
         <v>0.0</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K96" s="6" t="s">
         <v>40</v>
@@ -10797,39 +10868,39 @@
         <v>128</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S96" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="5" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="I97" s="6">
         <v>0.0</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>40</v>
@@ -10853,39 +10924,39 @@
         <v>266</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S97" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="5" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="I98" s="6">
         <v>0.0</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>40</v>
@@ -10909,39 +10980,39 @@
         <v>128</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S98" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="5" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="I99" s="6">
         <v>0.0</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>40</v>
@@ -10965,39 +11036,39 @@
         <v>266</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="5" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="I100" s="6">
         <v>0.0</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>40</v>
@@ -11021,39 +11092,39 @@
         <v>128</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S100" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="5" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="I101" s="6">
         <v>0.0</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>40</v>
@@ -11077,30 +11148,30 @@
         <v>266</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="S101" s="6" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="5" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>86</v>
@@ -11109,10 +11180,10 @@
         <v>0.0</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="L102" s="6">
         <v>200.0</v>
@@ -11133,30 +11204,30 @@
         <v>128</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="5" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>86</v>
@@ -11165,10 +11236,10 @@
         <v>0.0</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="L103" s="6">
         <v>200.0</v>
@@ -11189,30 +11260,30 @@
         <v>266</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S103" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="5" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>86</v>
@@ -11221,7 +11292,7 @@
         <v>0.0</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>40</v>
@@ -11245,30 +11316,30 @@
         <v>289</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S104" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="5" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>286</v>
@@ -11277,7 +11348,7 @@
         <v>0.0</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>40</v>
@@ -11301,30 +11372,30 @@
         <v>128</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S105" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="5" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>286</v>
@@ -11333,7 +11404,7 @@
         <v>0.0</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>40</v>
@@ -11357,30 +11428,30 @@
         <v>266</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S106" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="5" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>286</v>
@@ -11389,7 +11460,7 @@
         <v>0.0</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>40</v>
@@ -11413,39 +11484,39 @@
         <v>289</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="5" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="I108" s="6">
         <v>0.0</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>40</v>
@@ -11469,39 +11540,39 @@
         <v>128</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="5" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="I109" s="6">
         <v>0.0</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>40</v>
@@ -11525,39 +11596,39 @@
         <v>266</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S109" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="5" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="I110" s="6">
         <v>0.0</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>40</v>
@@ -11581,39 +11652,39 @@
         <v>289</v>
       </c>
       <c r="R110" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S110" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="5" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="I111" s="6">
         <v>0.0</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>40</v>
@@ -11637,39 +11708,39 @@
         <v>128</v>
       </c>
       <c r="R111" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S111" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="5" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="I112" s="6">
         <v>0.0</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>40</v>
@@ -11693,39 +11764,39 @@
         <v>266</v>
       </c>
       <c r="R112" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S112" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="5" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="I113" s="6">
         <v>0.0</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>40</v>
@@ -11749,39 +11820,39 @@
         <v>128</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S113" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="5" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="I114" s="6">
         <v>0.0</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>40</v>
@@ -11805,15 +11876,15 @@
         <v>266</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="S114" s="6" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="5" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>178</v>
@@ -11864,12 +11935,12 @@
         <v>273</v>
       </c>
       <c r="S115" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="5" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>178</v>
@@ -11920,30 +11991,30 @@
         <v>273</v>
       </c>
       <c r="S116" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="5" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="I117" s="6">
         <v>0.0</v>
@@ -11976,30 +12047,30 @@
         <v>273</v>
       </c>
       <c r="S117" s="6" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="5" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="I118" s="6">
         <v>0.0</v>
@@ -12032,30 +12103,30 @@
         <v>273</v>
       </c>
       <c r="S118" s="6" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="5" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="I119" s="6">
         <v>0.0</v>
@@ -12088,30 +12159,30 @@
         <v>273</v>
       </c>
       <c r="S119" s="6" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="5" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="I120" s="6">
         <v>0.0</v>
@@ -12144,12 +12215,12 @@
         <v>273</v>
       </c>
       <c r="S120" s="6" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="5" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>178</v>
@@ -12200,12 +12271,12 @@
         <v>273</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="5" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>178</v>
@@ -12256,30 +12327,30 @@
         <v>273</v>
       </c>
       <c r="S122" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="5" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="I123" s="6">
         <v>0.0</v>
@@ -12312,30 +12383,30 @@
         <v>273</v>
       </c>
       <c r="S123" s="6" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="5" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="I124" s="6">
         <v>0.0</v>
@@ -12368,30 +12439,30 @@
         <v>273</v>
       </c>
       <c r="S124" s="6" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="5" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="I125" s="6">
         <v>0.0</v>
@@ -12424,39 +12495,39 @@
         <v>273</v>
       </c>
       <c r="S125" s="6" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="5" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>200</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="I126" s="6">
         <v>0.0</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="L126" s="6">
         <v>200.0</v>
@@ -12477,39 +12548,39 @@
         <v>266</v>
       </c>
       <c r="R126" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S126" s="6" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="5" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="I127" s="6">
         <v>0.0</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>40</v>
@@ -12533,39 +12604,39 @@
         <v>266</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S127" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="5" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="I128" s="6">
         <v>0.0</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>40</v>
@@ -12589,39 +12660,39 @@
         <v>266</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S128" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="5" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="I129" s="6">
         <v>0.0</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>40</v>
@@ -12645,39 +12716,39 @@
         <v>266</v>
       </c>
       <c r="R129" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S129" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="5" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="I130" s="6">
         <v>0.0</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K130" s="6" t="s">
         <v>40</v>
@@ -12701,39 +12772,39 @@
         <v>266</v>
       </c>
       <c r="R130" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S130" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="5" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="I131" s="6">
         <v>0.0</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K131" s="6" t="s">
         <v>40</v>
@@ -12757,39 +12828,39 @@
         <v>266</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S131" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="5" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="I132" s="6">
         <v>0.0</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>40</v>
@@ -12813,39 +12884,39 @@
         <v>266</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S132" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="5" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="I133" s="6">
         <v>0.0</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K133" s="6" t="s">
         <v>40</v>
@@ -12869,39 +12940,39 @@
         <v>266</v>
       </c>
       <c r="R133" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S133" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="5" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="I134" s="6">
         <v>0.0</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K134" s="6" t="s">
         <v>40</v>
@@ -12925,39 +12996,39 @@
         <v>266</v>
       </c>
       <c r="R134" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S134" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="5" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="I135" s="6">
         <v>0.0</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K135" s="6" t="s">
         <v>40</v>
@@ -12981,39 +13052,39 @@
         <v>266</v>
       </c>
       <c r="R135" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S135" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="5" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="I136" s="6">
         <v>0.0</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>40</v>
@@ -13037,39 +13108,39 @@
         <v>266</v>
       </c>
       <c r="R136" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S136" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" s="5" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="I137" s="6">
         <v>0.0</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>40</v>
@@ -13093,39 +13164,39 @@
         <v>266</v>
       </c>
       <c r="R137" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S137" s="6" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="5" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="I138" s="6">
         <v>0.0</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="K138" s="6" t="s">
         <v>40</v>
@@ -13149,10 +13220,10 @@
         <v>266</v>
       </c>
       <c r="R138" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="S138" s="6" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -13184,16 +13255,16 @@
     <col customWidth="1" min="2" max="2" width="27.0"/>
     <col customWidth="1" min="3" max="3" width="18.14"/>
     <col customWidth="1" min="4" max="4" width="26.0"/>
-    <col customWidth="1" min="5" max="5" width="89.57"/>
+    <col customWidth="1" min="5" max="5" width="91.57"/>
     <col customWidth="1" min="6" max="6" width="18.71"/>
-    <col customWidth="1" min="7" max="7" width="26.0"/>
+    <col customWidth="1" min="7" max="7" width="26.57"/>
     <col customWidth="1" min="8" max="8" width="79.86"/>
     <col customWidth="1" min="9" max="9" width="211.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2">
@@ -13207,108 +13278,108 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="F3" s="6">
         <v>2.0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="F4" s="6">
         <v>1.0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="E5" s="6">
         <v>4096.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="13" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>40</v>
@@ -13326,21 +13397,21 @@
         <v>40</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="E7" s="6">
         <v>4096.0</v>
@@ -13352,21 +13423,21 @@
         <v>40</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="E8" s="6">
         <v>4096.0</v>
@@ -13378,10 +13449,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9">
@@ -13389,25 +13460,25 @@
         <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="F9" s="6">
         <v>2.0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10">
@@ -13415,25 +13486,25 @@
         <v>91</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="F10" s="6">
         <v>2.0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11">
@@ -13441,25 +13512,25 @@
         <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="F11" s="6">
         <v>2.0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12">
@@ -13467,25 +13538,25 @@
         <v>74</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="F12" s="6">
         <v>2.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13">
@@ -13493,25 +13564,25 @@
         <v>80</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14">
@@ -13519,25 +13590,25 @@
         <v>100</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="F14" s="6">
         <v>2.0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15">
@@ -13545,25 +13616,25 @@
         <v>111</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="F15" s="6">
         <v>2.0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16">
@@ -13571,25 +13642,25 @@
         <v>122</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17">
@@ -13597,25 +13668,25 @@
         <v>138</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18">
@@ -13623,25 +13694,25 @@
         <v>147</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="F18" s="6">
         <v>2.0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19">
@@ -13649,25 +13720,25 @@
         <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20">
@@ -13675,10 +13746,10 @@
         <v>127</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="E20" s="6">
         <v>1024.0</v>
@@ -13687,13 +13758,13 @@
         <v>2.0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21">
@@ -13701,25 +13772,25 @@
         <v>165</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22">
@@ -13727,25 +13798,25 @@
         <v>171</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="E22" s="6">
         <v>512.0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23">
@@ -13753,25 +13824,25 @@
         <v>191</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="E23" s="6">
         <v>512.0</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24">
@@ -13779,10 +13850,10 @@
         <v>225</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="E24" s="6">
         <v>512.0</v>
@@ -13791,13 +13862,13 @@
         <v>2.0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25">
@@ -13805,10 +13876,10 @@
         <v>233</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="E25" s="6">
         <v>512.0</v>
@@ -13817,24 +13888,24 @@
         <v>2.0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E26" s="6">
         <v>512.0</v>
@@ -13843,13 +13914,13 @@
         <v>31</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27">
@@ -13857,25 +13928,25 @@
         <v>217</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="E27" s="6">
         <v>512.0</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28">
@@ -13883,25 +13954,25 @@
         <v>211</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="E28" s="6">
         <v>512.0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29">
@@ -13924,10 +13995,10 @@
         <v>40</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30">
@@ -13935,10 +14006,10 @@
         <v>245</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="E30" s="6">
         <v>512.0</v>
@@ -13947,13 +14018,13 @@
         <v>2.0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31">
@@ -13961,25 +14032,25 @@
         <v>251</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="E31" s="6">
         <v>512.0</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32">
@@ -13987,25 +14058,25 @@
         <v>263</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="33">
@@ -14022,13 +14093,13 @@
         <v>512.0</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>177</v>
@@ -14039,25 +14110,25 @@
         <v>272</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="E34" s="6">
         <v>256.0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35">
@@ -14082,30 +14153,30 @@
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>40</v>
@@ -14126,18 +14197,18 @@
         <v>40</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="5" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="E38" s="6">
         <v>8192.0</v>
@@ -14146,76 +14217,76 @@
         <v>2.0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="5" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="5" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="E41" s="6">
         <v>8192.0</v>
@@ -14224,24 +14295,24 @@
         <v>3.0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="5" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="E42" s="6">
         <v>8192.0</v>
@@ -14250,24 +14321,24 @@
         <v>31</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="5" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="E43" s="6">
         <v>8192.0</v>
@@ -14276,128 +14347,128 @@
         <v>31</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="5" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="5" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="E47" s="6">
         <v>2048.0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="5" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E48" s="6">
         <v>2048.0</v>
@@ -14406,154 +14477,154 @@
         <v>31</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="5" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E49" s="6">
         <v>2048.0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="5" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="E50" s="6">
         <v>2048.0</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="5" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="E52" s="6">
         <v>1024.0</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="5" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>650</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="5" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="E54" s="6">
         <v>1024.0</v>
@@ -14562,128 +14633,128 @@
         <v>31</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="5" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="E55" s="6">
         <v>1024.0</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="5" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="5" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="E57" s="6">
         <v>1024.0</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="E58" s="6">
         <v>1024.0</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="5" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E59" s="6">
         <v>1024.0</v>
@@ -14692,24 +14763,24 @@
         <v>31</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="5" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E60" s="6">
         <v>1024.0</v>
@@ -14718,76 +14789,76 @@
         <v>31</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="5" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="5" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="E62" s="6">
         <v>1024.0</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="5" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E63" s="6">
         <v>1024.0</v>
@@ -14796,24 +14867,24 @@
         <v>31</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E64" s="6">
         <v>1024.0</v>
@@ -14822,24 +14893,24 @@
         <v>31</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="6" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="E65" s="6">
         <v>256.0</v>
@@ -14848,13 +14919,13 @@
         <v>2.0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="66">
@@ -14862,62 +14933,62 @@
         <v>280</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="E67" s="6">
         <v>256.0</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="E68" s="6">
         <v>256.0</v>
@@ -14929,21 +15000,21 @@
         <v>40</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="5" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="E69" s="6">
         <v>256.0</v>
@@ -14952,24 +15023,24 @@
         <v>1.0</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="5" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="E70" s="6">
         <v>256.0</v>
@@ -14978,24 +15049,24 @@
         <v>1.0</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="6" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="E71" s="6">
         <v>256.0</v>
@@ -15004,50 +15075,50 @@
         <v>2.0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="5" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="E73" s="6">
         <v>512.0</v>
@@ -15056,50 +15127,50 @@
         <v>2.0</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="5" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="E74" s="6">
         <v>512.0</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="E75" s="6">
         <v>512.0</v>
@@ -15108,24 +15179,24 @@
         <v>1.0</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="E76" s="6">
         <v>256.0</v>
@@ -15134,24 +15205,24 @@
         <v>1.0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="E77" s="6">
         <v>256.0</v>
@@ -15160,24 +15231,24 @@
         <v>1.0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="5" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="E78" s="6">
         <v>2.0</v>
@@ -15186,24 +15257,24 @@
         <v>1.0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="5" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="E79" s="6">
         <v>2.0</v>
@@ -15212,117 +15283,117 @@
         <v>1.0</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="9" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="9" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="9" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="9" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -15358,7 +15429,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2">
@@ -15372,33 +15443,33 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="E3" s="6">
         <v>3.0</v>
@@ -15407,10 +15478,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4">
@@ -15418,10 +15489,10 @@
         <v>192</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="E4" s="6">
         <v>3.0</v>
@@ -15430,10 +15501,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5">
@@ -15441,10 +15512,10 @@
         <v>213</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="E5" s="6">
         <v>3.0</v>
@@ -15453,10 +15524,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6">
@@ -15464,10 +15535,10 @@
         <v>252</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="E6" s="6">
         <v>3.0</v>
@@ -15476,21 +15547,21 @@
         <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="E7" s="6">
         <v>3.0</v>
@@ -15499,10 +15570,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
@@ -15516,214 +15587,214 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="E9" s="6">
         <v>5.0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="E10" s="6">
         <v>5.0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="E11" s="6">
         <v>5.0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="6" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="E12" s="6">
         <v>5.0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="6" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="E13" s="6">
         <v>3.0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="E14" s="6">
         <v>5.0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="E15" s="6">
         <v>5.0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="6" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="E17" s="6">
         <v>5.0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>40</v>
@@ -15741,12 +15812,12 @@
         <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="6" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
@@ -15764,18 +15835,18 @@
         <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="6" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="E20" s="6">
         <v>4.0</v>
@@ -15787,18 +15858,18 @@
         <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="6" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="E21" s="6">
         <v>4.0</v>
@@ -15810,18 +15881,18 @@
         <v>31</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="6" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E22" s="6">
         <v>4.0</v>
@@ -15833,18 +15904,18 @@
         <v>31</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="6" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E23" s="6">
         <v>16.0</v>
@@ -15856,7 +15927,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -15884,17 +15955,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4">
@@ -15905,47 +15976,47 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -15993,7 +16064,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -16008,7 +16079,7 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -16023,1242 +16094,1242 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="22" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="22" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="22" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="22" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="22" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="22" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="22" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="22" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="22" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="22" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="22" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="22" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
-        <v>860</v>
+        <v>877</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="22" t="s">
-        <v>861</v>
+        <v>878</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="22" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="22" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="22" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="22" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="22" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="22" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="22" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="22" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="22" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="22" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="22" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="22" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="22" t="s">
-        <v>874</v>
+        <v>891</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="22" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="22" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="22" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="22" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="22" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="22" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="22" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="22" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="22" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="22" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="22" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="22" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="22" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="22" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="22" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="22" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="22" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="22" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="22" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="22" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="22" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="22" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="22" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="22" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="22" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="22" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="22" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="22" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="22" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="22" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="22" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="22" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="22" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="22" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="22" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="22" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="22" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="22" t="s">
-        <v>912</v>
+        <v>929</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="22" t="s">
-        <v>913</v>
+        <v>930</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="22" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="22" t="s">
-        <v>915</v>
+        <v>932</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="22" t="s">
-        <v>916</v>
+        <v>933</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="22" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="22" t="s">
-        <v>918</v>
+        <v>935</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="22" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="22" t="s">
-        <v>920</v>
+        <v>937</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="22" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="22" t="s">
-        <v>922</v>
+        <v>939</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="22" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="22" t="s">
-        <v>924</v>
+        <v>941</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="22" t="s">
-        <v>925</v>
+        <v>942</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="22" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="22" t="s">
-        <v>927</v>
+        <v>944</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="22" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="22" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="22" t="s">
-        <v>930</v>
+        <v>947</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="22" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="22" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="22" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="22" t="s">
-        <v>934</v>
+        <v>951</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="22" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="22" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="22" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="22" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="22" t="s">
-        <v>939</v>
+        <v>956</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="22" t="s">
-        <v>940</v>
+        <v>957</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="22" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="22" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="22" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="22" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="22" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="22" t="s">
-        <v>946</v>
+        <v>963</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="22" t="s">
-        <v>947</v>
+        <v>964</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="22" t="s">
-        <v>948</v>
+        <v>965</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="22" t="s">
-        <v>949</v>
+        <v>966</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="22" t="s">
-        <v>950</v>
+        <v>967</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="22" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="22" t="s">
-        <v>952</v>
+        <v>969</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="22" t="s">
-        <v>953</v>
+        <v>970</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="22" t="s">
-        <v>954</v>
+        <v>971</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="22" t="s">
-        <v>955</v>
+        <v>972</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="22" t="s">
-        <v>956</v>
+        <v>973</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="22" t="s">
-        <v>957</v>
+        <v>974</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="22" t="s">
-        <v>958</v>
+        <v>975</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="22" t="s">
-        <v>959</v>
+        <v>976</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="22" t="s">
-        <v>960</v>
+        <v>977</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="22" t="s">
-        <v>961</v>
+        <v>978</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="22" t="s">
-        <v>962</v>
+        <v>979</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="22" t="s">
-        <v>963</v>
+        <v>980</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="22" t="s">
-        <v>964</v>
+        <v>981</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="22" t="s">
-        <v>965</v>
+        <v>982</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="22" t="s">
-        <v>966</v>
+        <v>983</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="22" t="s">
-        <v>967</v>
+        <v>984</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="22" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="22" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="22" t="s">
-        <v>970</v>
+        <v>987</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="22" t="s">
-        <v>971</v>
+        <v>988</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="22" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="22" t="s">
-        <v>973</v>
+        <v>990</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="22" t="s">
-        <v>974</v>
+        <v>991</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="22" t="s">
-        <v>975</v>
+        <v>992</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="22" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="22" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="22" t="s">
-        <v>978</v>
+        <v>995</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="22" t="s">
-        <v>979</v>
+        <v>996</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="22" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="22" t="s">
-        <v>981</v>
+        <v>998</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="22" t="s">
-        <v>982</v>
+        <v>999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="22" t="s">
-        <v>983</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="22" t="s">
-        <v>984</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="22" t="s">
-        <v>985</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="22" t="s">
-        <v>986</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="22" t="s">
-        <v>987</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="22" t="s">
-        <v>988</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="22" t="s">
-        <v>989</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="22" t="s">
-        <v>990</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="22" t="s">
-        <v>991</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="22" t="s">
-        <v>992</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="22" t="s">
-        <v>993</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="22" t="s">
-        <v>994</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="22" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="22" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="22" t="s">
-        <v>997</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="22" t="s">
-        <v>998</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="22" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="22" t="s">
-        <v>1000</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="22" t="s">
-        <v>1001</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="22" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="22" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="22" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="22" t="s">
-        <v>1005</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="22" t="s">
-        <v>1006</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="22" t="s">
-        <v>1007</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="22" t="s">
-        <v>1008</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="22" t="s">
-        <v>1009</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="22" t="s">
-        <v>1010</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="22" t="s">
-        <v>1011</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="22" t="s">
-        <v>1012</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="22" t="s">
-        <v>1013</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="22" t="s">
-        <v>1014</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="22" t="s">
-        <v>1015</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="22" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="22" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="22" t="s">
-        <v>1018</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="22" t="s">
-        <v>1019</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="22" t="s">
-        <v>1020</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="22" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="22" t="s">
-        <v>1022</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="22" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="22" t="s">
-        <v>1024</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="22" t="s">
-        <v>1025</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="22" t="s">
-        <v>1026</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="22" t="s">
-        <v>1027</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="22" t="s">
-        <v>1028</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="22" t="s">
-        <v>1029</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="22" t="s">
-        <v>1030</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="22" t="s">
-        <v>1031</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="22" t="s">
-        <v>1032</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="22" t="s">
-        <v>1033</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="22" t="s">
-        <v>1034</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="22" t="s">
-        <v>1035</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="22" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="22" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="22" t="s">
-        <v>1038</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="22" t="s">
-        <v>1039</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="22" t="s">
-        <v>1040</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="22" t="s">
-        <v>1041</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="22" t="s">
-        <v>1042</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="22" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="22" t="s">
-        <v>1044</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="22" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="22" t="s">
-        <v>1046</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="22" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="22" t="s">
-        <v>1048</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="22" t="s">
-        <v>1049</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="22" t="s">
-        <v>1050</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="22" t="s">
-        <v>1051</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="22" t="s">
-        <v>1052</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="22" t="s">
-        <v>1053</v>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -1480,29 +1480,39 @@
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B37">
+      <text>
+        <t xml:space="preserve">(Wacom Pro Pen 3)</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B38">
       <text>
-        <t xml:space="preserve">(Wacom Pro Pen 3)</t>
+        <t xml:space="preserve">(Wacom Pro Pen 2)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B39">
       <text>
-        <t xml:space="preserve">(Wacom Pro Pen 2)</t>
+        <t xml:space="preserve">(Wacom Pro Pen Slim)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B40">
       <text>
-        <t xml:space="preserve">(Wacom Pro Pen Slim)</t>
+        <t xml:space="preserve">(Wacom Pro Pen 3d)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B41">
       <text>
-        <t xml:space="preserve">(Wacom Pro Pen 3d)</t>
+        <t xml:space="preserve">(Wacom Finetip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H41">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B42">
       <text>
-        <t xml:space="preserve">(Wacom Finetip Pen)</t>
+        <t xml:space="preserve">(Wacom Ballpoint Pen)</t>
       </text>
     </comment>
     <comment authorId="0" ref="H42">
@@ -1512,355 +1522,345 @@
     </comment>
     <comment authorId="0" ref="B43">
       <text>
-        <t xml:space="preserve">(Wacom Ballpoint Pen)</t>
+        <t xml:space="preserve">(Intuos4 Grip Pen) (Intuos5 Grip Pen) (Wacom Grip Pen)</t>
       </text>
     </comment>
     <comment authorId="0" ref="H43">
       <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B44">
+      <text>
+        <t xml:space="preserve">(Intuos4 Grip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H44">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B45">
+      <text>
+        <t xml:space="preserve">(Wacom Pro Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H45">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B46">
+      <text>
+        <t xml:space="preserve">(Intuos4 Airbrush) (Intuos5 Airbrush) (Wacom Airbrush)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H46">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B47">
+      <text>
+        <t xml:space="preserve">(Intuos4 Inking Pen) (Intuos5 Inking Pen) (Wacom Inking Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H47">
+      <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B44">
-      <text>
-        <t xml:space="preserve">(Intuos4 Grip Pen) (Intuos5 Grip Pen) (Wacom Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H44">
+    <comment authorId="0" ref="B48">
+      <text>
+        <t xml:space="preserve">(Intuos4 Art Pen) (Intuos5 Art Pen) (Wacom Art Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H48">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B45">
-      <text>
-        <t xml:space="preserve">(Intuos4 Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H45">
+    <comment authorId="0" ref="B49">
+      <text>
+        <t xml:space="preserve">(Intuos4 Classic Pen) (Intuos5 Classic Pen) (Wacom Classic Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H49">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B50">
+      <text>
+        <t xml:space="preserve">(Intuos3 Grip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H50">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B51">
+      <text>
+        <t xml:space="preserve">(Intuos3 Airbrush)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H51">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B52">
+      <text>
+        <t xml:space="preserve">(Intuos3 Art Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B53">
+      <text>
+        <t xml:space="preserve">(Intuos3 Ink Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H53">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B54">
+      <text>
+        <t xml:space="preserve">(Intuos3 Classic Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H54">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B46">
-      <text>
-        <t xml:space="preserve">(Wacom Pro Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H46">
+    <comment authorId="0" ref="B55">
+      <text>
+        <t xml:space="preserve">(Intuos2 Grip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H55">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B47">
-      <text>
-        <t xml:space="preserve">(Intuos4 Airbrush) (Intuos5 Airbrush) (Wacom Airbrush)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H47">
+    <comment authorId="0" ref="B56">
+      <text>
+        <t xml:space="preserve">(Intuos2 Airbrush)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H56">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B48">
-      <text>
-        <t xml:space="preserve">(Intuos4 Inking Pen) (Intuos5 Inking Pen) (Wacom Inking Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H48">
+    <comment authorId="0" ref="B57">
+      <text>
+        <t xml:space="preserve">(Intuos2 Classic Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H57">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B58">
+      <text>
+        <t xml:space="preserve">(Intuos2 Ink Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H58">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B49">
-      <text>
-        <t xml:space="preserve">(Intuos4 Art Pen) (Intuos5 Art Pen) (Wacom Art Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H49">
+    <comment authorId="0" ref="B59">
+      <text>
+        <t xml:space="preserve">(Intuos2 Stroke Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H59">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B60">
+      <text>
+        <t xml:space="preserve">(Intuos Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H60">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B50">
-      <text>
-        <t xml:space="preserve">(Intuos4 Classic Pen) (Intuos5 Classic Pen) (Wacom Classic Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H50">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B51">
-      <text>
-        <t xml:space="preserve">(Intuos3 Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H51">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B52">
-      <text>
-        <t xml:space="preserve">(Intuos3 Airbrush)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H52">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B53">
-      <text>
-        <t xml:space="preserve">(Intuos3 Art Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B54">
-      <text>
-        <t xml:space="preserve">(Intuos3 Ink Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H54">
+    <comment authorId="0" ref="B61">
+      <text>
+        <t xml:space="preserve">(Intuos Airbrush)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H61">
+      <text>
+        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B62">
+      <text>
+        <t xml:space="preserve">(Intuos Inking Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H62">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B55">
-      <text>
-        <t xml:space="preserve">(Intuos3 Classic Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H55">
+    <comment authorId="0" ref="B63">
+      <text>
+        <t xml:space="preserve">(Intuos Stroke Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H63">
+      <text>
+        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H64">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B56">
-      <text>
-        <t xml:space="preserve">(Intuos2 Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H56">
+    <comment authorId="0" ref="B65">
+      <text>
+        <t xml:space="preserve">(UltraPen Eraser) (Erasing UltraPen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H65">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B57">
-      <text>
-        <t xml:space="preserve">(Intuos2 Airbrush)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H57">
+    <comment authorId="0" ref="H66">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B58">
-      <text>
-        <t xml:space="preserve">(Intuos2 Classic Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H58">
+    <comment authorId="0" ref="B67">
+      <text>
+        <t xml:space="preserve">Click pen</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H67">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B59">
-      <text>
-        <t xml:space="preserve">(Intuos2 Ink Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H59">
-      <text>
-        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B60">
-      <text>
-        <t xml:space="preserve">(Intuos2 Stroke Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H60">
-      <text>
-        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B61">
-      <text>
-        <t xml:space="preserve">(Intuos Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H61">
+    <comment authorId="0" ref="B68">
+      <text>
+        <t xml:space="preserve">(UltraPen Brush)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H68">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B62">
-      <text>
-        <t xml:space="preserve">(Intuos Airbrush)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H62">
+    <comment authorId="0" ref="B69">
+      <text>
+        <t xml:space="preserve">(UltraPen Pencil)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H70">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B63">
-      <text>
-        <t xml:space="preserve">(Intuos Inking Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H63">
-      <text>
-        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B64">
-      <text>
-        <t xml:space="preserve">(Intuos Stroke Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H64">
-      <text>
-        <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H65">
+    <comment authorId="0" ref="B71">
+      <text>
+        <t xml:space="preserve">(Grip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H71">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B66">
-      <text>
-        <t xml:space="preserve">(UltraPen Eraser) (Erasing UltraPen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H66">
+    <comment authorId="0" ref="B72">
+      <text>
+        <t xml:space="preserve">(Grip Pen)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H72">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H67">
+    <comment authorId="0" ref="B73">
+      <text>
+        <t xml:space="preserve">(UltraPen 813E)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H73">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B68">
-      <text>
-        <t xml:space="preserve">Click pen</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H68">
+    <comment authorId="0" ref="B74">
+      <text>
+        <t xml:space="preserve">(UltraPen Write)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H74">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B69">
-      <text>
-        <t xml:space="preserve">(UltraPen Brush)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H69">
+    <comment authorId="0" ref="B75">
+      <text>
+        <t xml:space="preserve">(UltraPen Write)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H75">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B70">
-      <text>
-        <t xml:space="preserve">(UltraPen Pencil)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H71">
+    <comment authorId="0" ref="B76">
+      <text>
+        <t xml:space="preserve">(UltraPen Ink)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H76">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B72">
-      <text>
-        <t xml:space="preserve">(Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H72">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B73">
-      <text>
-        <t xml:space="preserve">(Grip Pen)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H73">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B74">
-      <text>
-        <t xml:space="preserve">(UltraPen 813E)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H74">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B75">
-      <text>
-        <t xml:space="preserve">(UltraPen Write)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H75">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B76">
-      <text>
-        <t xml:space="preserve">(UltraPen Write)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H76">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B77">
       <text>
-        <t xml:space="preserve">(UltraPen Ink)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H77">
-      <text>
-        <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
+        <t xml:space="preserve">(Standard Stylus Gray)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B78">
       <text>
-        <t xml:space="preserve">(Standard Stylus Gray)</t>
+        <t xml:space="preserve">(Standard Stylus Red)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B79">
       <text>
-        <t xml:space="preserve">(Standard Stylus Red)</t>
+        <t xml:space="preserve">(Slim Stylus Gray)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B80">
       <text>
-        <t xml:space="preserve">(Slim Stylus Gray)</t>
+        <t xml:space="preserve">(Slim Stylus Magenta)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B81">
       <text>
-        <t xml:space="preserve">(Slim Stylus Magenta)</t>
+        <t xml:space="preserve">(Pressure Stylus Blue)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B82">
-      <text>
-        <t xml:space="preserve">(Pressure Stylus Blue)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B83">
       <text>
         <t xml:space="preserve">(Pressure Stylus Red)</t>
       </text>
@@ -1980,7 +1980,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1071">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -2882,36 +2882,39 @@
     <t>240g</t>
   </si>
   <si>
+    <t>5 + Wheels</t>
+  </si>
+  <si>
+    <t>ACP-500</t>
+  </si>
+  <si>
+    <t>128?</t>
+  </si>
+  <si>
+    <t>ACP-500, KP-504E, KP-301E, KP-505, KP-503E, KP-501E, KP-701E, KP-300E, KP-400E, KP-130, CP-923, CP-913, CP-202, L471-2, 180 22-1, 180J 22-1</t>
+  </si>
+  <si>
+    <t>PTK-670</t>
+  </si>
+  <si>
+    <t>16 : 9</t>
+  </si>
+  <si>
+    <t>263 x 148 mm</t>
+  </si>
+  <si>
+    <t>291 x 206 x 4-7 mm</t>
+  </si>
+  <si>
+    <t>1.54:1 (1.10:1) (1.39:1)</t>
+  </si>
+  <si>
+    <t>411g</t>
+  </si>
+  <si>
     <t>10 + 2 Wheels</t>
   </si>
   <si>
-    <t>ACP-500</t>
-  </si>
-  <si>
-    <t>128?</t>
-  </si>
-  <si>
-    <t>ACP-500, ACP-501E, CP-923, ???</t>
-  </si>
-  <si>
-    <t>PTK-670</t>
-  </si>
-  <si>
-    <t>16 : 9</t>
-  </si>
-  <si>
-    <t>263 x 148 mm</t>
-  </si>
-  <si>
-    <t>291 x 206 x 4-7 mm</t>
-  </si>
-  <si>
-    <t>1.54:1 (1.10:1) (1.39:1)</t>
-  </si>
-  <si>
-    <t>411g</t>
-  </si>
-  <si>
     <t>PTK-870</t>
   </si>
   <si>
@@ -3656,7 +3659,7 @@
     <t>ACK24911Z, ACK24918Z, ACK24919Z, ACK24501Z</t>
   </si>
   <si>
-    <t>CTC-4110WL, CTC-6110WL</t>
+    <t>PTK-470, PTK-670, PTK-870, CTC-4110WL, CTC-6110WL</t>
   </si>
   <si>
     <t>CP-913</t>
@@ -3875,24 +3878,21 @@
     <t>Professional</t>
   </si>
   <si>
-    <t>ACP-501E</t>
+    <t>ACP-500 [w/ weight] [w/ grip]</t>
+  </si>
+  <si>
+    <t>9.1g [12.6g] [14.4g]</t>
+  </si>
+  <si>
+    <t>160 x 8.4mm</t>
+  </si>
+  <si>
+    <t>ACK-22211, ACK-22213, ACK-24801Z, ACK-24819Z, ACK253010Z</t>
   </si>
   <si>
     <t>PTK-470, PTK-670, PTK-870</t>
   </si>
   <si>
-    <t>ACP-500 [w/ weight] [w/ grip]</t>
-  </si>
-  <si>
-    <t>9.1g [12.6g] [14.4g]</t>
-  </si>
-  <si>
-    <t>160 x 8.4mm</t>
-  </si>
-  <si>
-    <t>ACK-22211, ACK-22213, ACK-24801Z, ACK-24819Z</t>
-  </si>
-  <si>
     <t>157 x 15 mm</t>
   </si>
   <si>
@@ -3902,7 +3902,7 @@
     <t>1mm? (1.5mm?)</t>
   </si>
   <si>
-    <t>PTH-460, PTH-660, PTH-860</t>
+    <t>PTK-470, PTK-670, PTK-870, PTH-460, PTH-660, PTH-860</t>
   </si>
   <si>
     <t>KP-301E</t>
@@ -3965,7 +3965,7 @@
     <t>2048 (≈&lt;1gf, &lt;1gf, 13gf, 53gf, 133gf, 299gf)</t>
   </si>
   <si>
-    <t>PTH-460, PTH-660, PTH-860, PTH-460, PTH-660, PTH-860, PTH-451, PTH-651, PTH-851, PTH-450, PTK-450, PTH-650, PTK-650, PTH-850, PTK-440, PTK-540WL, PTK-640, PTK-840, PTK-1240</t>
+    <t>PTK-470, PTK-670, PTK-870, PTH-460, PTH-660, PTH-860, PTH-460, PTH-660, PTH-860, PTH-451, PTH-651, PTH-851, PTH-450, PTK-450, PTH-650, PTK-650, PTH-850, PTK-440, PTK-540WL, PTK-640, PTK-840, PTK-1240</t>
   </si>
   <si>
     <t>KP-400E</t>
@@ -5347,7 +5347,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5620,8 +5620,8 @@
     <col customWidth="1" min="14" max="14" width="17.14"/>
     <col customWidth="1" min="15" max="15" width="14.0"/>
     <col customWidth="1" min="16" max="16" width="67.0"/>
-    <col customWidth="1" min="17" max="17" width="36.57"/>
-    <col customWidth="1" min="18" max="18" width="100.29"/>
+    <col customWidth="1" min="17" max="17" width="37.29"/>
+    <col customWidth="1" min="18" max="18" width="126.0"/>
     <col customWidth="1" min="19" max="19" width="21.0"/>
   </cols>
   <sheetData>
@@ -9113,8 +9113,8 @@
       <c r="K65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L65" s="6" t="s">
-        <v>40</v>
+      <c r="L65" s="6">
+        <v>300.0</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>31</v>
@@ -9161,7 +9161,7 @@
         <v>309</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>301</v>
@@ -9169,8 +9169,8 @@
       <c r="K66" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="6" t="s">
-        <v>40</v>
+      <c r="L66" s="6">
+        <v>300.0</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>31</v>
@@ -9196,28 +9196,28 @@
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>295</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>301</v>
@@ -9225,8 +9225,8 @@
       <c r="K67" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L67" s="6" t="s">
-        <v>40</v>
+      <c r="L67" s="6">
+        <v>300.0</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>31</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>23</v>
@@ -9261,25 +9261,25 @@
         <v>295</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L68" s="6">
         <v>200.0</v>
@@ -9294,13 +9294,13 @@
         <v>128.0</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q68" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S68" s="6" t="s">
         <v>31</v>
@@ -9308,31 +9308,31 @@
     </row>
     <row r="69">
       <c r="B69" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>295</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>40</v>
@@ -9350,13 +9350,13 @@
         <v>128.0</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q69" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S69" s="6" t="s">
         <v>31</v>
@@ -9364,31 +9364,31 @@
     </row>
     <row r="70">
       <c r="B70" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>295</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>40</v>
@@ -9406,13 +9406,13 @@
         <v>128.0</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q70" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S70" s="6" t="s">
         <v>31</v>
@@ -9420,7 +9420,7 @@
     </row>
     <row r="71">
       <c r="B71" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>23</v>
@@ -9429,22 +9429,22 @@
         <v>295</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>40</v>
@@ -9468,7 +9468,7 @@
         <v>166</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S71" s="6" t="s">
         <v>31</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>23</v>
@@ -9485,22 +9485,22 @@
         <v>295</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>40</v>
@@ -9524,7 +9524,7 @@
         <v>166</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S72" s="6" t="s">
         <v>31</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="73">
       <c r="B73" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>23</v>
@@ -9541,22 +9541,22 @@
         <v>295</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>40</v>
@@ -9580,7 +9580,7 @@
         <v>166</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S73" s="6" t="s">
         <v>31</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="74">
       <c r="B74" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>23</v>
@@ -9597,22 +9597,22 @@
         <v>295</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>40</v>
@@ -9636,7 +9636,7 @@
         <v>166</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S74" s="6" t="s">
         <v>31</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>23</v>
@@ -9653,22 +9653,22 @@
         <v>295</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>40</v>
@@ -9692,7 +9692,7 @@
         <v>166</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S75" s="6" t="s">
         <v>31</v>
@@ -9700,7 +9700,7 @@
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>23</v>
@@ -9709,22 +9709,22 @@
         <v>295</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>40</v>
@@ -9748,7 +9748,7 @@
         <v>166</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S76" s="6" t="s">
         <v>31</v>
@@ -9756,7 +9756,7 @@
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>23</v>
@@ -9765,22 +9765,22 @@
         <v>295</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>40</v>
@@ -9804,7 +9804,7 @@
         <v>166</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S77" s="6" t="s">
         <v>31</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="78">
       <c r="B78" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>23</v>
@@ -9821,22 +9821,22 @@
         <v>295</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>40</v>
@@ -9860,7 +9860,7 @@
         <v>166</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S78" s="6" t="s">
         <v>31</v>
@@ -9868,7 +9868,7 @@
     </row>
     <row r="79">
       <c r="B79" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>23</v>
@@ -9877,25 +9877,25 @@
         <v>295</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L79" s="6">
         <v>200.0</v>
@@ -9916,15 +9916,15 @@
         <v>166</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S79" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>23</v>
@@ -9933,22 +9933,22 @@
         <v>295</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>286</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>40</v>
@@ -9972,15 +9972,15 @@
         <v>166</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>23</v>
@@ -9989,22 +9989,22 @@
         <v>295</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>40</v>
@@ -10028,15 +10028,15 @@
         <v>166</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>23</v>
@@ -10045,22 +10045,22 @@
         <v>295</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>40</v>
@@ -10084,15 +10084,15 @@
         <v>166</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>23</v>
@@ -10101,22 +10101,22 @@
         <v>295</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>92</v>
@@ -10140,39 +10140,39 @@
         <v>128</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>295</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>159</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>40</v>
@@ -10196,15 +10196,15 @@
         <v>128</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>23</v>
@@ -10213,25 +10213,25 @@
         <v>295</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>221</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L85" s="6">
         <v>200.0</v>
@@ -10252,15 +10252,15 @@
         <v>128</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>178</v>
@@ -10269,22 +10269,22 @@
         <v>295</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>40</v>
@@ -10308,15 +10308,15 @@
         <v>128</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>23</v>
@@ -10325,22 +10325,22 @@
         <v>295</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>40</v>
@@ -10364,15 +10364,15 @@
         <v>128</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>178</v>
@@ -10381,22 +10381,22 @@
         <v>295</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>40</v>
@@ -10420,39 +10420,39 @@
         <v>128</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>295</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>40</v>
@@ -10476,15 +10476,15 @@
         <v>128</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>23</v>
@@ -10493,22 +10493,22 @@
         <v>295</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>40</v>
@@ -10532,15 +10532,15 @@
         <v>128</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>178</v>
@@ -10567,7 +10567,7 @@
         <v>31</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L91" s="6">
         <v>100.0</v>
@@ -10596,22 +10596,22 @@
     </row>
     <row r="92">
       <c r="B92" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>86</v>
@@ -10620,10 +10620,10 @@
         <v>0.0</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L92" s="6">
         <v>200.0</v>
@@ -10644,30 +10644,30 @@
         <v>128</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>86</v>
@@ -10676,10 +10676,10 @@
         <v>0.0</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L93" s="6">
         <v>200.0</v>
@@ -10700,30 +10700,30 @@
         <v>266</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>286</v>
@@ -10732,7 +10732,7 @@
         <v>0.0</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>40</v>
@@ -10756,30 +10756,30 @@
         <v>128</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>286</v>
@@ -10788,7 +10788,7 @@
         <v>0.0</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>40</v>
@@ -10812,39 +10812,39 @@
         <v>266</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S95" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I96" s="6">
         <v>0.0</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K96" s="6" t="s">
         <v>40</v>
@@ -10868,39 +10868,39 @@
         <v>128</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S96" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I97" s="6">
         <v>0.0</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>40</v>
@@ -10924,39 +10924,39 @@
         <v>266</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S97" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I98" s="6">
         <v>0.0</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>40</v>
@@ -10980,39 +10980,39 @@
         <v>128</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S98" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I99" s="6">
         <v>0.0</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>40</v>
@@ -11036,39 +11036,39 @@
         <v>266</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I100" s="6">
         <v>0.0</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>40</v>
@@ -11092,39 +11092,39 @@
         <v>128</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S100" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I101" s="6">
         <v>0.0</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>40</v>
@@ -11148,30 +11148,30 @@
         <v>266</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S101" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>86</v>
@@ -11180,10 +11180,10 @@
         <v>0.0</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L102" s="6">
         <v>200.0</v>
@@ -11204,30 +11204,30 @@
         <v>128</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>86</v>
@@ -11236,10 +11236,10 @@
         <v>0.0</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L103" s="6">
         <v>200.0</v>
@@ -11260,30 +11260,30 @@
         <v>266</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S103" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>86</v>
@@ -11292,7 +11292,7 @@
         <v>0.0</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>40</v>
@@ -11316,30 +11316,30 @@
         <v>289</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S104" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>286</v>
@@ -11348,7 +11348,7 @@
         <v>0.0</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>40</v>
@@ -11372,30 +11372,30 @@
         <v>128</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S105" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>286</v>
@@ -11404,7 +11404,7 @@
         <v>0.0</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>40</v>
@@ -11428,30 +11428,30 @@
         <v>266</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S106" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>286</v>
@@ -11460,7 +11460,7 @@
         <v>0.0</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>40</v>
@@ -11484,39 +11484,39 @@
         <v>289</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I108" s="6">
         <v>0.0</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>40</v>
@@ -11540,39 +11540,39 @@
         <v>128</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I109" s="6">
         <v>0.0</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>40</v>
@@ -11596,39 +11596,39 @@
         <v>266</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S109" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I110" s="6">
         <v>0.0</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>40</v>
@@ -11652,39 +11652,39 @@
         <v>289</v>
       </c>
       <c r="R110" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S110" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I111" s="6">
         <v>0.0</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>40</v>
@@ -11708,39 +11708,39 @@
         <v>128</v>
       </c>
       <c r="R111" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S111" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I112" s="6">
         <v>0.0</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>40</v>
@@ -11764,39 +11764,39 @@
         <v>266</v>
       </c>
       <c r="R112" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S112" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I113" s="6">
         <v>0.0</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>40</v>
@@ -11820,39 +11820,39 @@
         <v>128</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S113" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I114" s="6">
         <v>0.0</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>40</v>
@@ -11876,15 +11876,15 @@
         <v>266</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S114" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>178</v>
@@ -11935,12 +11935,12 @@
         <v>273</v>
       </c>
       <c r="S115" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>178</v>
@@ -11991,30 +11991,30 @@
         <v>273</v>
       </c>
       <c r="S116" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I117" s="6">
         <v>0.0</v>
@@ -12047,30 +12047,30 @@
         <v>273</v>
       </c>
       <c r="S117" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I118" s="6">
         <v>0.0</v>
@@ -12103,30 +12103,30 @@
         <v>273</v>
       </c>
       <c r="S118" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I119" s="6">
         <v>0.0</v>
@@ -12159,30 +12159,30 @@
         <v>273</v>
       </c>
       <c r="S119" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I120" s="6">
         <v>0.0</v>
@@ -12215,12 +12215,12 @@
         <v>273</v>
       </c>
       <c r="S120" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>178</v>
@@ -12271,12 +12271,12 @@
         <v>273</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>178</v>
@@ -12327,30 +12327,30 @@
         <v>273</v>
       </c>
       <c r="S122" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I123" s="6">
         <v>0.0</v>
@@ -12383,30 +12383,30 @@
         <v>273</v>
       </c>
       <c r="S123" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I124" s="6">
         <v>0.0</v>
@@ -12439,30 +12439,30 @@
         <v>273</v>
       </c>
       <c r="S124" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I125" s="6">
         <v>0.0</v>
@@ -12495,39 +12495,39 @@
         <v>273</v>
       </c>
       <c r="S125" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>200</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I126" s="6">
         <v>0.0</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L126" s="6">
         <v>200.0</v>
@@ -12548,39 +12548,39 @@
         <v>266</v>
       </c>
       <c r="R126" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S126" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I127" s="6">
         <v>0.0</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>40</v>
@@ -12604,39 +12604,39 @@
         <v>266</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S127" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I128" s="6">
         <v>0.0</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>40</v>
@@ -12660,39 +12660,39 @@
         <v>266</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S128" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I129" s="6">
         <v>0.0</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>40</v>
@@ -12716,39 +12716,39 @@
         <v>266</v>
       </c>
       <c r="R129" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S129" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I130" s="6">
         <v>0.0</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K130" s="6" t="s">
         <v>40</v>
@@ -12772,39 +12772,39 @@
         <v>266</v>
       </c>
       <c r="R130" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S130" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I131" s="6">
         <v>0.0</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K131" s="6" t="s">
         <v>40</v>
@@ -12828,39 +12828,39 @@
         <v>266</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S131" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I132" s="6">
         <v>0.0</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>40</v>
@@ -12884,39 +12884,39 @@
         <v>266</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S132" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I133" s="6">
         <v>0.0</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K133" s="6" t="s">
         <v>40</v>
@@ -12940,39 +12940,39 @@
         <v>266</v>
       </c>
       <c r="R133" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S133" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I134" s="6">
         <v>0.0</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K134" s="6" t="s">
         <v>40</v>
@@ -12996,39 +12996,39 @@
         <v>266</v>
       </c>
       <c r="R134" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S134" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I135" s="6">
         <v>0.0</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K135" s="6" t="s">
         <v>40</v>
@@ -13052,39 +13052,39 @@
         <v>266</v>
       </c>
       <c r="R135" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S135" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I136" s="6">
         <v>0.0</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>40</v>
@@ -13108,39 +13108,39 @@
         <v>266</v>
       </c>
       <c r="R136" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S136" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I137" s="6">
         <v>0.0</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>40</v>
@@ -13164,39 +13164,39 @@
         <v>266</v>
       </c>
       <c r="R137" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S137" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I138" s="6">
         <v>0.0</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K138" s="6" t="s">
         <v>40</v>
@@ -13220,10 +13220,10 @@
         <v>266</v>
       </c>
       <c r="R138" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S138" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -13264,7 +13264,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
@@ -13278,108 +13278,108 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F3" s="6">
         <v>2.0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F4" s="6">
         <v>1.0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E5" s="6">
         <v>4096.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>40</v>
@@ -13397,21 +13397,21 @@
         <v>40</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E7" s="6">
         <v>4096.0</v>
@@ -13423,21 +13423,21 @@
         <v>40</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E8" s="6">
         <v>4096.0</v>
@@ -13449,10 +13449,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9">
@@ -13460,25 +13460,25 @@
         <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F9" s="6">
         <v>2.0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10">
@@ -13486,25 +13486,25 @@
         <v>91</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F10" s="6">
         <v>2.0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11">
@@ -13512,25 +13512,25 @@
         <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F11" s="6">
         <v>2.0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12">
@@ -13538,25 +13538,25 @@
         <v>74</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F12" s="6">
         <v>2.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13">
@@ -13564,25 +13564,25 @@
         <v>80</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="14">
@@ -13590,25 +13590,25 @@
         <v>100</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F14" s="6">
         <v>2.0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15">
@@ -13616,25 +13616,25 @@
         <v>111</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F15" s="6">
         <v>2.0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16">
@@ -13642,25 +13642,25 @@
         <v>122</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>600</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17">
@@ -13668,25 +13668,25 @@
         <v>138</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18">
@@ -13694,25 +13694,25 @@
         <v>147</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F18" s="6">
         <v>2.0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19">
@@ -13720,25 +13720,25 @@
         <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20">
@@ -13746,10 +13746,10 @@
         <v>127</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E20" s="6">
         <v>1024.0</v>
@@ -13758,13 +13758,13 @@
         <v>2.0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21">
@@ -13772,25 +13772,25 @@
         <v>165</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="22">
@@ -13798,25 +13798,25 @@
         <v>171</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E22" s="6">
         <v>512.0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23">
@@ -13824,25 +13824,25 @@
         <v>191</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E23" s="6">
         <v>512.0</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24">
@@ -13850,10 +13850,10 @@
         <v>225</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E24" s="6">
         <v>512.0</v>
@@ -13862,13 +13862,13 @@
         <v>2.0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25">
@@ -13876,10 +13876,10 @@
         <v>233</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E25" s="6">
         <v>512.0</v>
@@ -13888,24 +13888,24 @@
         <v>2.0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E26" s="6">
         <v>512.0</v>
@@ -13914,13 +13914,13 @@
         <v>31</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27">
@@ -13928,25 +13928,25 @@
         <v>217</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E27" s="6">
         <v>512.0</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28">
@@ -13954,25 +13954,25 @@
         <v>211</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E28" s="6">
         <v>512.0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29">
@@ -13995,10 +13995,10 @@
         <v>40</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30">
@@ -14006,10 +14006,10 @@
         <v>245</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E30" s="6">
         <v>512.0</v>
@@ -14018,13 +14018,13 @@
         <v>2.0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31">
@@ -14032,25 +14032,25 @@
         <v>251</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E31" s="6">
         <v>512.0</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32">
@@ -14058,25 +14058,25 @@
         <v>263</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33">
@@ -14093,13 +14093,13 @@
         <v>512.0</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>177</v>
@@ -14110,25 +14110,25 @@
         <v>272</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E34" s="6">
         <v>256.0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35">
@@ -14153,100 +14153,100 @@
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>40</v>
+        <v>633</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>40</v>
+        <v>634</v>
+      </c>
+      <c r="E37" s="6">
+        <v>8192.0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2.0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>632</v>
+        <v>557</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="5" t="s">
-        <v>633</v>
+        <v>323</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="E38" s="6">
-        <v>8192.0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>632</v>
+      <c r="I38" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="5" t="s">
-        <v>322</v>
+        <v>641</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>639</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>640</v>
@@ -14254,25 +14254,25 @@
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>594</v>
+        <v>637</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8192.0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3.0</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>640</v>
@@ -14280,33 +14280,33 @@
     </row>
     <row r="41">
       <c r="B41" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="E41" s="6">
         <v>8192.0</v>
       </c>
-      <c r="F41" s="6">
-        <v>3.0</v>
+      <c r="F41" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>645</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="5" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>647</v>
@@ -14332,33 +14332,33 @@
     </row>
     <row r="43">
       <c r="B43" s="5" t="s">
-        <v>651</v>
+        <v>345</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="E43" s="6">
-        <v>8192.0</v>
+        <v>653</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>654</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>31</v>
+        <v>595</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>652</v>
@@ -14370,13 +14370,13 @@
         <v>654</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>640</v>
@@ -14384,51 +14384,51 @@
     </row>
     <row r="45">
       <c r="B45" s="5" t="s">
-        <v>344</v>
+        <v>657</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2048.0</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>661</v>
@@ -14436,25 +14436,25 @@
     </row>
     <row r="47">
       <c r="B47" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>663</v>
+        <v>600</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>664</v>
+        <v>621</v>
       </c>
       <c r="E47" s="6">
         <v>2048.0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>665</v>
+        <v>31</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>661</v>
@@ -14462,25 +14462,25 @@
     </row>
     <row r="48">
       <c r="B48" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="E48" s="6">
         <v>2048.0</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>31</v>
+        <v>671</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>661</v>
@@ -14488,25 +14488,25 @@
     </row>
     <row r="49">
       <c r="B49" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>669</v>
+        <v>600</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E49" s="6">
         <v>2048.0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>671</v>
+        <v>595</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>655</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>581</v>
+        <v>674</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>661</v>
@@ -14514,45 +14514,45 @@
     </row>
     <row r="50">
       <c r="B50" s="5" t="s">
-        <v>672</v>
+        <v>395</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="E50" s="6">
-        <v>2048.0</v>
+        <v>675</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>676</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>674</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="5" t="s">
-        <v>394</v>
+        <v>679</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>676</v>
+        <v>664</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1024.0</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>677</v>
@@ -14566,25 +14566,25 @@
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>680</v>
+        <v>602</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1024.0</v>
+        <v>682</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>594</v>
+        <v>684</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>678</v>
@@ -14592,25 +14592,25 @@
     </row>
     <row r="53">
       <c r="B53" s="5" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>683</v>
+        <v>687</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1024.0</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>684</v>
+        <v>31</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>667</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>678</v>
@@ -14618,25 +14618,25 @@
     </row>
     <row r="54">
       <c r="B54" s="5" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="E54" s="6">
         <v>1024.0</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>31</v>
+        <v>595</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>678</v>
@@ -14644,51 +14644,51 @@
     </row>
     <row r="55">
       <c r="B55" s="5" t="s">
-        <v>688</v>
+        <v>435</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1024.0</v>
+        <v>690</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>691</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="5" t="s">
-        <v>434</v>
+        <v>694</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>691</v>
+        <v>696</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1024.0</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>692</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>693</v>
@@ -14696,25 +14696,25 @@
     </row>
     <row r="57">
       <c r="B57" s="5" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>695</v>
+        <v>597</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E57" s="6">
         <v>1024.0</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>665</v>
+        <v>595</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>692</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>693</v>
@@ -14722,25 +14722,25 @@
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>698</v>
+        <v>621</v>
       </c>
       <c r="E58" s="6">
         <v>1024.0</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>594</v>
+        <v>31</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>692</v>
+        <v>557</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>693</v>
@@ -14748,13 +14748,13 @@
     </row>
     <row r="59">
       <c r="B59" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E59" s="6">
         <v>1024.0</v>
@@ -14763,7 +14763,7 @@
         <v>31</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>556</v>
+        <v>701</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>649</v>
@@ -14774,51 +14774,51 @@
     </row>
     <row r="60">
       <c r="B60" s="5" t="s">
-        <v>700</v>
+        <v>466</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1024.0</v>
+        <v>698</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>31</v>
+        <v>595</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="5" t="s">
-        <v>465</v>
+        <v>704</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>702</v>
+        <v>705</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1024.0</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>689</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>703</v>
@@ -14826,25 +14826,25 @@
     </row>
     <row r="62">
       <c r="B62" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>705</v>
+        <v>621</v>
       </c>
       <c r="E62" s="6">
         <v>1024.0</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>665</v>
+        <v>31</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>689</v>
+        <v>557</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>703</v>
@@ -14852,13 +14852,13 @@
     </row>
     <row r="63">
       <c r="B63" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E63" s="6">
         <v>1024.0</v>
@@ -14867,7 +14867,7 @@
         <v>31</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>556</v>
+        <v>701</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>649</v>
@@ -14877,52 +14877,52 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="5" t="s">
-        <v>707</v>
+      <c r="B64" s="6" t="s">
+        <v>708</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>599</v>
+        <v>709</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>620</v>
+        <v>710</v>
       </c>
       <c r="E64" s="6">
-        <v>1024.0</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>31</v>
+        <v>256.0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2.0</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>701</v>
+        <v>557</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="6" t="s">
-        <v>708</v>
+      <c r="B65" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>709</v>
+        <v>584</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="E65" s="6">
-        <v>256.0</v>
-      </c>
-      <c r="F65" s="6">
-        <v>2.0</v>
+        <v>712</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>711</v>
@@ -14930,25 +14930,25 @@
     </row>
     <row r="66">
       <c r="B66" s="5" t="s">
-        <v>280</v>
+        <v>714</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>713</v>
+      <c r="E66" s="6">
+        <v>256.0</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>711</v>
@@ -14956,25 +14956,25 @@
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>583</v>
+        <v>709</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E67" s="6">
         <v>256.0</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>594</v>
+      <c r="F67" s="6">
+        <v>1.0</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>628</v>
+        <v>40</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>711</v>
@@ -14982,13 +14982,13 @@
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="E68" s="6">
         <v>256.0</v>
@@ -14997,10 +14997,10 @@
         <v>1.0</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>711</v>
@@ -15008,10 +15008,10 @@
     </row>
     <row r="69">
       <c r="B69" s="5" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>717</v>
@@ -15023,62 +15023,62 @@
         <v>1.0</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>581</v>
+        <v>719</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="5" t="s">
-        <v>718</v>
+      <c r="B70" s="6" t="s">
+        <v>720</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>577</v>
+        <v>709</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E70" s="6">
         <v>256.0</v>
       </c>
       <c r="F70" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>719</v>
+        <v>582</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="6" t="s">
-        <v>720</v>
+      <c r="B71" s="5" t="s">
+        <v>721</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="E71" s="6">
-        <v>256.0</v>
-      </c>
-      <c r="F71" s="6">
-        <v>2.0</v>
+        <v>722</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>711</v>
@@ -15086,25 +15086,25 @@
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>658</v>
+        <v>600</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>594</v>
+        <v>725</v>
+      </c>
+      <c r="E72" s="6">
+        <v>512.0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2.0</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>711</v>
@@ -15112,25 +15112,25 @@
     </row>
     <row r="73">
       <c r="B73" s="5" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>725</v>
+        <v>628</v>
       </c>
       <c r="E73" s="6">
         <v>512.0</v>
       </c>
-      <c r="F73" s="6">
-        <v>2.0</v>
+      <c r="F73" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>711</v>
@@ -15138,25 +15138,25 @@
     </row>
     <row r="74">
       <c r="B74" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>599</v>
+        <v>709</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>627</v>
+        <v>712</v>
       </c>
       <c r="E74" s="6">
         <v>512.0</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>594</v>
+      <c r="F74" s="6">
+        <v>1.0</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>628</v>
+        <v>557</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>711</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>709</v>
@@ -15173,16 +15173,16 @@
         <v>712</v>
       </c>
       <c r="E75" s="6">
-        <v>512.0</v>
+        <v>256.0</v>
       </c>
       <c r="F75" s="6">
         <v>1.0</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>711</v>
@@ -15190,13 +15190,13 @@
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="E76" s="6">
         <v>256.0</v>
@@ -15205,10 +15205,10 @@
         <v>1.0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>711</v>
@@ -15216,36 +15216,36 @@
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="E77" s="6">
-        <v>256.0</v>
+        <v>2.0</v>
       </c>
       <c r="F77" s="6">
         <v>1.0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>581</v>
+        <v>732</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="5" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>731</v>
@@ -15257,7 +15257,7 @@
         <v>1.0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>667</v>
+        <v>735</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>732</v>
@@ -15267,34 +15267,34 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="E79" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F79" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="I79" s="6" t="s">
+      <c r="B79" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="I79" s="9" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="9" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>737</v>
@@ -15320,22 +15320,22 @@
     </row>
     <row r="81">
       <c r="B81" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>205</v>
+        <v>745</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>740</v>
+        <v>667</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>741</v>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="82">
       <c r="B82" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>744</v>
@@ -15361,7 +15361,7 @@
         <v>746</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>667</v>
+        <v>735</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>741</v>
@@ -15371,36 +15371,13 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>733</v>
-      </c>
+      <c r="A83" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A34"/>
-    <mergeCell ref="A37:A83"/>
+    <mergeCell ref="A37:A82"/>
   </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -15443,7 +15420,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>749</v>
@@ -15455,7 +15432,7 @@
         <v>751</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
@@ -15645,7 +15622,7 @@
         <v>5.0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>754</v>
@@ -15668,7 +15645,7 @@
         <v>5.0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
@@ -15714,7 +15691,7 @@
         <v>5.0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>788</v>
@@ -15737,7 +15714,7 @@
         <v>5.0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>31</v>
@@ -15760,7 +15737,7 @@
         <v>792</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>31</v>
@@ -15783,7 +15760,7 @@
         <v>5.0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>31</v>
@@ -15794,7 +15771,7 @@
     </row>
     <row r="18">
       <c r="B18" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>40</v>
@@ -15840,7 +15817,7 @@
     </row>
     <row r="20">
       <c r="B20" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>800</v>
@@ -15863,7 +15840,7 @@
     </row>
     <row r="21">
       <c r="B21" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>800</v>
@@ -15881,7 +15858,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22">

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -3950,6 +3950,9 @@
     <t>1mm (1.5mm)</t>
   </si>
   <si>
+    <t>PTK-470, PTK-670, PTK-870, PTH-460, PTH-660, PTH-860, PTH-460, PTH-660, PTH-860, PTH-451, PTH-651, PTH-851, PTH-450, PTK-450, PTH-650, PTK-650, PTH-850, PTK-440, PTK-540WL, PTK-640, PTK-840, PTK-1240</t>
+  </si>
+  <si>
     <t>0.2mm (1.5mm)</t>
   </si>
   <si>
@@ -3963,9 +3966,6 @@
   </si>
   <si>
     <t>2048 (≈&lt;1gf, &lt;1gf, 13gf, 53gf, 133gf, 299gf)</t>
-  </si>
-  <si>
-    <t>PTK-470, PTK-670, PTK-870, PTH-460, PTH-660, PTH-860, PTH-460, PTH-660, PTH-860, PTH-451, PTH-651, PTH-851, PTH-450, PTK-450, PTH-650, PTK-650, PTH-850, PTK-440, PTK-540WL, PTK-640, PTK-840, PTK-1240</t>
   </si>
   <si>
     <t>KP-400E</t>
@@ -14353,7 +14353,7 @@
         <v>582</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44">
@@ -14373,27 +14373,27 @@
         <v>595</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>595</v>
@@ -14405,7 +14405,7 @@
         <v>582</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="46">
@@ -14425,13 +14425,13 @@
         <v>665</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47">
@@ -14457,7 +14457,7 @@
         <v>649</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48">
@@ -14483,7 +14483,7 @@
         <v>582</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49">
@@ -14509,7 +14509,7 @@
         <v>674</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="50">
@@ -15063,7 +15063,7 @@
         <v>721</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>722</v>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -1480,387 +1480,387 @@
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B37">
+    <comment authorId="0" ref="B38">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen 3)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B38">
+    <comment authorId="0" ref="B39">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen 2)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B39">
+    <comment authorId="0" ref="B40">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen Slim)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B40">
+    <comment authorId="0" ref="B41">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen 3d)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B41">
+    <comment authorId="0" ref="B42">
       <text>
         <t xml:space="preserve">(Wacom Finetip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H41">
+    <comment authorId="0" ref="H42">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B42">
+    <comment authorId="0" ref="B43">
       <text>
         <t xml:space="preserve">(Wacom Ballpoint Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H42">
+    <comment authorId="0" ref="H43">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B43">
+    <comment authorId="0" ref="B44">
       <text>
         <t xml:space="preserve">(Intuos4 Grip Pen) (Intuos5 Grip Pen) (Wacom Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H43">
+    <comment authorId="0" ref="H44">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B44">
+    <comment authorId="0" ref="B45">
       <text>
         <t xml:space="preserve">(Intuos4 Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H44">
+    <comment authorId="0" ref="H45">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B45">
+    <comment authorId="0" ref="B46">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H45">
+    <comment authorId="0" ref="H46">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B46">
+    <comment authorId="0" ref="B47">
       <text>
         <t xml:space="preserve">(Intuos4 Airbrush) (Intuos5 Airbrush) (Wacom Airbrush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H46">
+    <comment authorId="0" ref="H47">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B47">
+    <comment authorId="0" ref="B48">
       <text>
         <t xml:space="preserve">(Intuos4 Inking Pen) (Intuos5 Inking Pen) (Wacom Inking Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H47">
+    <comment authorId="0" ref="H48">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B48">
+    <comment authorId="0" ref="B49">
       <text>
         <t xml:space="preserve">(Intuos4 Art Pen) (Intuos5 Art Pen) (Wacom Art Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H48">
+    <comment authorId="0" ref="H49">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B49">
+    <comment authorId="0" ref="B50">
       <text>
         <t xml:space="preserve">(Intuos4 Classic Pen) (Intuos5 Classic Pen) (Wacom Classic Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H49">
+    <comment authorId="0" ref="H50">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B50">
+    <comment authorId="0" ref="B51">
       <text>
         <t xml:space="preserve">(Intuos3 Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H50">
+    <comment authorId="0" ref="H51">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B51">
+    <comment authorId="0" ref="B52">
       <text>
         <t xml:space="preserve">(Intuos3 Airbrush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H51">
+    <comment authorId="0" ref="H52">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B52">
+    <comment authorId="0" ref="B53">
       <text>
         <t xml:space="preserve">(Intuos3 Art Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B53">
+    <comment authorId="0" ref="B54">
       <text>
         <t xml:space="preserve">(Intuos3 Ink Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H53">
+    <comment authorId="0" ref="H54">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B54">
+    <comment authorId="0" ref="B55">
       <text>
         <t xml:space="preserve">(Intuos3 Classic Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H54">
+    <comment authorId="0" ref="H55">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B55">
+    <comment authorId="0" ref="B56">
       <text>
         <t xml:space="preserve">(Intuos2 Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H55">
+    <comment authorId="0" ref="H56">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B56">
+    <comment authorId="0" ref="B57">
       <text>
         <t xml:space="preserve">(Intuos2 Airbrush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H56">
+    <comment authorId="0" ref="H57">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B57">
+    <comment authorId="0" ref="B58">
       <text>
         <t xml:space="preserve">(Intuos2 Classic Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H57">
+    <comment authorId="0" ref="H58">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B58">
+    <comment authorId="0" ref="B59">
       <text>
         <t xml:space="preserve">(Intuos2 Ink Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H58">
+    <comment authorId="0" ref="H59">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B59">
+    <comment authorId="0" ref="B60">
       <text>
         <t xml:space="preserve">(Intuos2 Stroke Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H59">
+    <comment authorId="0" ref="H60">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B60">
+    <comment authorId="0" ref="B61">
       <text>
         <t xml:space="preserve">(Intuos Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H60">
+    <comment authorId="0" ref="H61">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B61">
+    <comment authorId="0" ref="B62">
       <text>
         <t xml:space="preserve">(Intuos Airbrush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H61">
+    <comment authorId="0" ref="H62">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B62">
+    <comment authorId="0" ref="B63">
       <text>
         <t xml:space="preserve">(Intuos Inking Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H62">
+    <comment authorId="0" ref="H63">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B63">
+    <comment authorId="0" ref="B64">
       <text>
         <t xml:space="preserve">(Intuos Stroke Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H63">
+    <comment authorId="0" ref="H64">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H64">
+    <comment authorId="0" ref="H65">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B65">
+    <comment authorId="0" ref="B66">
       <text>
         <t xml:space="preserve">(UltraPen Eraser) (Erasing UltraPen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H65">
+    <comment authorId="0" ref="H66">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H66">
+    <comment authorId="0" ref="H67">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B67">
+    <comment authorId="0" ref="B68">
       <text>
         <t xml:space="preserve">Click pen</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H67">
+    <comment authorId="0" ref="H68">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B68">
+    <comment authorId="0" ref="B69">
       <text>
         <t xml:space="preserve">(UltraPen Brush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H68">
+    <comment authorId="0" ref="H69">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B69">
+    <comment authorId="0" ref="B70">
       <text>
         <t xml:space="preserve">(UltraPen Pencil)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H70">
+    <comment authorId="0" ref="H71">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B71">
+    <comment authorId="0" ref="B72">
       <text>
         <t xml:space="preserve">(Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H71">
+    <comment authorId="0" ref="H72">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B72">
+    <comment authorId="0" ref="B73">
       <text>
         <t xml:space="preserve">(Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H72">
+    <comment authorId="0" ref="H73">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B73">
+    <comment authorId="0" ref="B74">
       <text>
         <t xml:space="preserve">(UltraPen 813E)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H73">
+    <comment authorId="0" ref="H74">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B74">
+    <comment authorId="0" ref="B75">
       <text>
         <t xml:space="preserve">(UltraPen Write)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H74">
+    <comment authorId="0" ref="H75">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B75">
+    <comment authorId="0" ref="B76">
       <text>
         <t xml:space="preserve">(UltraPen Write)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H75">
+    <comment authorId="0" ref="H76">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B76">
+    <comment authorId="0" ref="B77">
       <text>
         <t xml:space="preserve">(UltraPen Ink)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H76">
+    <comment authorId="0" ref="H77">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B77">
+    <comment authorId="0" ref="B78">
       <text>
         <t xml:space="preserve">(Standard Stylus Gray)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B78">
+    <comment authorId="0" ref="B79">
       <text>
         <t xml:space="preserve">(Standard Stylus Red)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B79">
+    <comment authorId="0" ref="B80">
       <text>
         <t xml:space="preserve">(Slim Stylus Gray)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B80">
+    <comment authorId="0" ref="B81">
       <text>
         <t xml:space="preserve">(Slim Stylus Magenta)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B81">
+    <comment authorId="0" ref="B82">
       <text>
         <t xml:space="preserve">(Pressure Stylus Blue)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B82">
+    <comment authorId="0" ref="B83">
       <text>
         <t xml:space="preserve">(Pressure Stylus Red)</t>
       </text>
@@ -1980,7 +1980,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="1076">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -2891,7 +2891,7 @@
     <t>128?</t>
   </si>
   <si>
-    <t>ACP-500, KP-504E, KP-301E, KP-505, KP-503E, KP-501E, KP-701E, KP-300E, KP-400E, KP-130, CP-923, CP-913, CP-202, L471-2, 180 22-1, 180J 22-1</t>
+    <t>ACP-500, ACP-501E, KP-504E, KP-301E, KP-505, KP-503E, KP-501E, KP-701E, KP-300E, KP-400E, KP-130, CP-923, CP-913, CP-202, L471-2, 180 22-1, 180J 22-1</t>
   </si>
   <si>
     <t>PTK-670</t>
@@ -3878,21 +3878,33 @@
     <t>Professional</t>
   </si>
   <si>
+    <t>ACP-501E</t>
+  </si>
+  <si>
+    <t>9.8g</t>
+  </si>
+  <si>
+    <t>160 x 8.4mm</t>
+  </si>
+  <si>
+    <t>3 + Eraser</t>
+  </si>
+  <si>
+    <t>0.1mm? (???)</t>
+  </si>
+  <si>
+    <t>ACK-22211, ACK-22213, ACK-24801Z, ACK-24819Z, ACK253010Z</t>
+  </si>
+  <si>
+    <t>PTK-470, PTK-670, PTK-870</t>
+  </si>
+  <si>
     <t>ACP-500 [w/ weight] [w/ grip]</t>
   </si>
   <si>
     <t>9.1g [12.6g] [14.4g]</t>
   </si>
   <si>
-    <t>160 x 8.4mm</t>
-  </si>
-  <si>
-    <t>ACK-22211, ACK-22213, ACK-24801Z, ACK-24819Z, ACK253010Z</t>
-  </si>
-  <si>
-    <t>PTK-470, PTK-670, PTK-870</t>
-  </si>
-  <si>
     <t>157 x 15 mm</t>
   </si>
   <si>
@@ -4449,6 +4461,9 @@
   </si>
   <si>
     <t>Not all sources are directly listed. Some information may be found in links or media contained in the pages below.</t>
+  </si>
+  <si>
+    <t>https://estore.wacom.jp/ja-JP/products/accessories/acp501e00dz.html</t>
   </si>
   <si>
     <t>https://wcm-cdn.wacom.com/events/-/media/graveyard/wacomdotcom/files/store-manuals/legacy-models/cintiq21ux-manual.pdf</t>
@@ -5199,7 +5214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -5286,6 +5301,10 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5301,7 +5320,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5369,6 +5388,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -5621,7 +5643,7 @@
     <col customWidth="1" min="15" max="15" width="14.0"/>
     <col customWidth="1" min="16" max="16" width="67.0"/>
     <col customWidth="1" min="17" max="17" width="37.29"/>
-    <col customWidth="1" min="18" max="18" width="126.0"/>
+    <col customWidth="1" min="18" max="18" width="135.29"/>
     <col customWidth="1" min="19" max="19" width="21.0"/>
   </cols>
   <sheetData>
@@ -14187,132 +14209,132 @@
       <c r="E37" s="6">
         <v>8192.0</v>
       </c>
-      <c r="F37" s="6">
-        <v>2.0</v>
+      <c r="F37" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="5" t="s">
-        <v>323</v>
+        <v>639</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8192.0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="I38" s="15" t="s">
         <v>638</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>643</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>595</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="E40" s="6">
-        <v>8192.0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>647</v>
+        <v>565</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E41" s="6">
         <v>8192.0</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>31</v>
+      <c r="F41" s="6">
+        <v>3.0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>647</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E42" s="6">
         <v>8192.0</v>
@@ -14321,39 +14343,39 @@
         <v>31</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="5" t="s">
-        <v>345</v>
+        <v>655</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6">
+        <v>8192.0</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="44">
@@ -14361,51 +14383,51 @@
         <v>345</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>595</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>658</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>661</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>595</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="46">
@@ -14418,20 +14440,20 @@
       <c r="D46" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="E46" s="6">
-        <v>2048.0</v>
+      <c r="E46" s="6" t="s">
+        <v>665</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>665</v>
+        <v>595</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47">
@@ -14439,51 +14461,51 @@
         <v>666</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>621</v>
+        <v>668</v>
       </c>
       <c r="E47" s="6">
         <v>2048.0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>31</v>
+        <v>669</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>669</v>
+        <v>600</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>670</v>
+        <v>621</v>
       </c>
       <c r="E48" s="6">
         <v>2048.0</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>655</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49">
@@ -14491,264 +14513,264 @@
         <v>672</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E49" s="6">
         <v>2048.0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>674</v>
+        <v>582</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="5" t="s">
-        <v>395</v>
+        <v>676</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>652</v>
+        <v>600</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2048.0</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>595</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1024.0</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>595</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1024.0</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="H52" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="E53" s="6">
-        <v>1024.0</v>
-      </c>
       <c r="F53" s="6" t="s">
-        <v>31</v>
+        <v>688</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="5" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>600</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="E54" s="6">
         <v>1024.0</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>595</v>
+        <v>31</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="5" t="s">
-        <v>435</v>
+        <v>692</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>652</v>
+        <v>600</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>691</v>
+        <v>677</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1024.0</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>595</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="F56" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1024.0</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>692</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>597</v>
+        <v>699</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E57" s="6">
         <v>1024.0</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="E58" s="6">
         <v>1024.0</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>31</v>
+        <v>595</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>557</v>
+        <v>696</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="5" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>600</v>
@@ -14763,96 +14785,96 @@
         <v>31</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>701</v>
+        <v>557</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="5" t="s">
-        <v>466</v>
+        <v>704</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>702</v>
+        <v>621</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1024.0</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>595</v>
+        <v>31</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="5" t="s">
-        <v>704</v>
+        <v>466</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>695</v>
+        <v>597</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1024.0</v>
+        <v>702</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>665</v>
+        <v>595</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>621</v>
+        <v>709</v>
       </c>
       <c r="E62" s="6">
         <v>1024.0</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>31</v>
+        <v>669</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>557</v>
+        <v>693</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>600</v>
@@ -14867,79 +14889,79 @@
         <v>31</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>701</v>
+        <v>557</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="6" t="s">
-        <v>708</v>
+      <c r="B64" s="5" t="s">
+        <v>711</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>709</v>
+        <v>600</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>710</v>
+        <v>621</v>
       </c>
       <c r="E64" s="6">
+        <v>1024.0</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E65" s="6">
         <v>256.0</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>2.0</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="5" t="s">
-        <v>714</v>
+        <v>280</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>584</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="E66" s="6">
-        <v>256.0</v>
+        <v>716</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>717</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>595</v>
@@ -14951,44 +14973,44 @@
         <v>582</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>709</v>
+        <v>584</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="E67" s="6">
         <v>256.0</v>
       </c>
-      <c r="F67" s="6">
-        <v>1.0</v>
+      <c r="F67" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>40</v>
+        <v>629</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>578</v>
+        <v>713</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E68" s="6">
         <v>256.0</v>
@@ -14997,24 +15019,24 @@
         <v>1.0</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>557</v>
+        <v>40</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>578</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E69" s="6">
         <v>256.0</v>
@@ -15026,154 +15048,154 @@
         <v>557</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>719</v>
+        <v>582</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="6" t="s">
-        <v>720</v>
+      <c r="B70" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="E70" s="6">
         <v>256.0</v>
       </c>
       <c r="F70" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>557</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>582</v>
+        <v>723</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="5" t="s">
-        <v>721</v>
+      <c r="B71" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>659</v>
+        <v>713</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>595</v>
+        <v>714</v>
+      </c>
+      <c r="E71" s="6">
+        <v>256.0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2.0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>629</v>
+        <v>557</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>600</v>
+        <v>663</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="E72" s="6">
-        <v>512.0</v>
-      </c>
-      <c r="F72" s="6">
-        <v>2.0</v>
+        <v>726</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>600</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>628</v>
+        <v>729</v>
       </c>
       <c r="E73" s="6">
         <v>512.0</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>595</v>
+      <c r="F73" s="6">
+        <v>2.0</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="5" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>709</v>
+        <v>600</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>712</v>
+        <v>628</v>
       </c>
       <c r="E74" s="6">
         <v>512.0</v>
       </c>
-      <c r="F74" s="6">
-        <v>1.0</v>
+      <c r="F74" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>582</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E75" s="6">
-        <v>256.0</v>
+        <v>512.0</v>
       </c>
       <c r="F75" s="6">
         <v>1.0</v>
@@ -15185,18 +15207,18 @@
         <v>582</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>578</v>
+        <v>713</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E76" s="6">
         <v>256.0</v>
@@ -15211,33 +15233,33 @@
         <v>582</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>578</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E77" s="6">
-        <v>2.0</v>
+        <v>256.0</v>
       </c>
       <c r="F77" s="6">
         <v>1.0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>667</v>
+        <v>557</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>732</v>
+        <v>582</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78">
@@ -15248,7 +15270,7 @@
         <v>578</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E78" s="6">
         <v>2.0</v>
@@ -15257,91 +15279,91 @@
         <v>1.0</v>
       </c>
       <c r="G78" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="9" t="s">
+      <c r="E79" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F79" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="I79" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>738</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="E81" s="10" t="s">
+      <c r="H81" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="I81" s="9" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="82">
@@ -15349,35 +15371,61 @@
         <v>747</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E82" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="H82" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="F82" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="G82" s="9" t="s">
+      <c r="I82" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="4"/>
+      <c r="E83" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A34"/>
-    <mergeCell ref="A37:A82"/>
+    <mergeCell ref="A37:A83"/>
   </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -15406,7 +15454,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2">
@@ -15423,13 +15471,13 @@
         <v>547</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>552</v>
@@ -15437,16 +15485,16 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E3" s="6">
         <v>3.0</v>
@@ -15455,10 +15503,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4">
@@ -15466,10 +15514,10 @@
         <v>192</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E4" s="6">
         <v>3.0</v>
@@ -15478,10 +15526,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5">
@@ -15489,10 +15537,10 @@
         <v>213</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E5" s="6">
         <v>3.0</v>
@@ -15501,10 +15549,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6">
@@ -15512,10 +15560,10 @@
         <v>252</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E6" s="6">
         <v>3.0</v>
@@ -15524,21 +15572,21 @@
         <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E7" s="6">
         <v>3.0</v>
@@ -15547,10 +15595,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8">
@@ -15564,59 +15612,59 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E9" s="6">
         <v>5.0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E10" s="6">
         <v>5.0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E11" s="6">
         <v>5.0</v>
@@ -15625,21 +15673,21 @@
         <v>581</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="6" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E12" s="6">
         <v>5.0</v>
@@ -15651,41 +15699,41 @@
         <v>31</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="6" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="E13" s="6">
         <v>3.0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="E14" s="6">
         <v>5.0</v>
@@ -15694,21 +15742,21 @@
         <v>581</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E15" s="6">
         <v>5.0</v>
@@ -15720,21 +15768,21 @@
         <v>31</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="6" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>581</v>
@@ -15743,18 +15791,18 @@
         <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E17" s="6">
         <v>5.0</v>
@@ -15766,7 +15814,7 @@
         <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18">
@@ -15789,12 +15837,12 @@
         <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="6" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
@@ -15812,7 +15860,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20">
@@ -15820,10 +15868,10 @@
         <v>518</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E20" s="6">
         <v>4.0</v>
@@ -15835,7 +15883,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21">
@@ -15843,10 +15891,10 @@
         <v>513</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E21" s="6">
         <v>4.0</v>
@@ -15863,13 +15911,13 @@
     </row>
     <row r="22">
       <c r="B22" s="6" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E22" s="6">
         <v>4.0</v>
@@ -15881,18 +15929,18 @@
         <v>31</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="6" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E23" s="6">
         <v>16.0</v>
@@ -15904,7 +15952,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -15932,17 +15980,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4">
@@ -15953,47 +16001,47 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -16041,7 +16089,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -16056,7 +16104,7 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -16071,1242 +16119,1247 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>824</v>
+      <c r="A4" s="23" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>825</v>
+      <c r="A5" s="23" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>826</v>
+      <c r="A6" s="23" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>827</v>
+      <c r="A7" s="23" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
-        <v>828</v>
+      <c r="A8" s="23" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>829</v>
+      <c r="A9" s="23" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>830</v>
+      <c r="A10" s="23" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>831</v>
+      <c r="A11" s="23" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>832</v>
+      <c r="A12" s="23" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>833</v>
+      <c r="A13" s="23" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>834</v>
+      <c r="A14" s="23" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>835</v>
+      <c r="A15" s="23" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="22" t="s">
-        <v>836</v>
+      <c r="A16" s="23" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="s">
-        <v>837</v>
+      <c r="A17" s="23" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="22" t="s">
-        <v>838</v>
+      <c r="A18" s="23" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="22" t="s">
-        <v>839</v>
+      <c r="A19" s="23" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
-        <v>840</v>
+      <c r="A20" s="23" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="22" t="s">
-        <v>841</v>
+      <c r="A21" s="23" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
-        <v>842</v>
+      <c r="A22" s="23" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="22" t="s">
-        <v>843</v>
+      <c r="A23" s="23" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>844</v>
+      <c r="A24" s="23" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="s">
-        <v>845</v>
+      <c r="A25" s="23" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>846</v>
+      <c r="A26" s="23" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>847</v>
+      <c r="A27" s="23" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>848</v>
+      <c r="A28" s="23" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="22" t="s">
-        <v>849</v>
+      <c r="A29" s="23" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="22" t="s">
-        <v>850</v>
+      <c r="A30" s="23" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="22" t="s">
-        <v>851</v>
+      <c r="A31" s="23" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="22" t="s">
-        <v>852</v>
+      <c r="A32" s="23" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="s">
-        <v>853</v>
+      <c r="A33" s="23" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="22" t="s">
-        <v>854</v>
+      <c r="A34" s="23" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="22" t="s">
-        <v>855</v>
+      <c r="A35" s="23" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="22" t="s">
-        <v>856</v>
+      <c r="A36" s="23" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="22" t="s">
-        <v>857</v>
+      <c r="A37" s="23" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
-        <v>858</v>
+      <c r="A38" s="23" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="22" t="s">
-        <v>859</v>
+      <c r="A39" s="23" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="22" t="s">
-        <v>860</v>
+      <c r="A40" s="23" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="22" t="s">
-        <v>861</v>
+      <c r="A41" s="23" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="22" t="s">
-        <v>862</v>
+      <c r="A42" s="23" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="22" t="s">
-        <v>863</v>
+      <c r="A43" s="23" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="22" t="s">
-        <v>864</v>
+      <c r="A44" s="23" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="22" t="s">
-        <v>865</v>
+      <c r="A45" s="23" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="22" t="s">
-        <v>866</v>
+      <c r="A46" s="23" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="22" t="s">
-        <v>867</v>
+      <c r="A47" s="23" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="22" t="s">
-        <v>868</v>
+      <c r="A48" s="23" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="s">
-        <v>869</v>
+      <c r="A49" s="23" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="22" t="s">
-        <v>870</v>
+      <c r="A50" s="23" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="22" t="s">
-        <v>871</v>
+      <c r="A51" s="23" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="22" t="s">
-        <v>872</v>
+      <c r="A52" s="23" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="22" t="s">
-        <v>873</v>
+      <c r="A53" s="23" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="22" t="s">
-        <v>874</v>
+      <c r="A54" s="23" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="22" t="s">
-        <v>875</v>
+      <c r="A55" s="23" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="22" t="s">
-        <v>876</v>
+      <c r="A56" s="23" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="22" t="s">
-        <v>877</v>
+      <c r="A57" s="23" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="22" t="s">
-        <v>878</v>
+      <c r="A58" s="23" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="22" t="s">
-        <v>879</v>
+      <c r="A59" s="23" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="22" t="s">
-        <v>880</v>
+      <c r="A60" s="23" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="22" t="s">
-        <v>881</v>
+      <c r="A61" s="23" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="22" t="s">
-        <v>882</v>
+      <c r="A62" s="23" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="22" t="s">
-        <v>883</v>
+      <c r="A63" s="23" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="22" t="s">
-        <v>884</v>
+      <c r="A64" s="23" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="22" t="s">
-        <v>885</v>
+      <c r="A65" s="23" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="22" t="s">
-        <v>886</v>
+      <c r="A66" s="23" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="22" t="s">
-        <v>887</v>
+      <c r="A67" s="23" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="22" t="s">
-        <v>888</v>
+      <c r="A68" s="23" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="22" t="s">
-        <v>889</v>
+      <c r="A69" s="23" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="22" t="s">
-        <v>890</v>
+      <c r="A70" s="23" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="22" t="s">
-        <v>891</v>
+      <c r="A71" s="23" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="22" t="s">
-        <v>892</v>
+      <c r="A72" s="23" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="22" t="s">
-        <v>893</v>
+      <c r="A73" s="23" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="22" t="s">
-        <v>894</v>
+      <c r="A74" s="23" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="22" t="s">
-        <v>895</v>
+      <c r="A75" s="23" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="22" t="s">
-        <v>896</v>
+      <c r="A76" s="23" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="22" t="s">
-        <v>897</v>
+      <c r="A77" s="23" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="22" t="s">
-        <v>898</v>
+      <c r="A78" s="23" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="22" t="s">
-        <v>899</v>
+      <c r="A79" s="23" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="22" t="s">
-        <v>900</v>
+      <c r="A80" s="23" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="22" t="s">
-        <v>901</v>
+      <c r="A81" s="23" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="22" t="s">
-        <v>902</v>
+      <c r="A82" s="23" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="22" t="s">
-        <v>903</v>
+      <c r="A83" s="23" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="22" t="s">
-        <v>904</v>
+      <c r="A84" s="23" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="22" t="s">
-        <v>905</v>
+      <c r="A85" s="23" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="22" t="s">
-        <v>906</v>
+      <c r="A86" s="23" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="22" t="s">
-        <v>907</v>
+      <c r="A87" s="23" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="22" t="s">
-        <v>908</v>
+      <c r="A88" s="23" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="22" t="s">
-        <v>909</v>
+      <c r="A89" s="23" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="22" t="s">
-        <v>910</v>
+      <c r="A90" s="23" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="22" t="s">
-        <v>911</v>
+      <c r="A91" s="23" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="22" t="s">
-        <v>912</v>
+      <c r="A92" s="23" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="22" t="s">
-        <v>913</v>
+      <c r="A93" s="23" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="22" t="s">
-        <v>914</v>
+      <c r="A94" s="23" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="22" t="s">
-        <v>915</v>
+      <c r="A95" s="23" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="22" t="s">
-        <v>916</v>
+      <c r="A96" s="23" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="22" t="s">
-        <v>917</v>
+      <c r="A97" s="23" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="22" t="s">
-        <v>918</v>
+      <c r="A98" s="23" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="22" t="s">
-        <v>919</v>
+      <c r="A99" s="23" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="22" t="s">
-        <v>920</v>
+      <c r="A100" s="23" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="22" t="s">
-        <v>921</v>
+      <c r="A101" s="23" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="22" t="s">
-        <v>922</v>
+      <c r="A102" s="23" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="22" t="s">
-        <v>923</v>
+      <c r="A103" s="23" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="22" t="s">
-        <v>924</v>
+      <c r="A104" s="23" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="22" t="s">
-        <v>925</v>
+      <c r="A105" s="23" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="22" t="s">
-        <v>926</v>
+      <c r="A106" s="23" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="22" t="s">
-        <v>927</v>
+      <c r="A107" s="23" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="22" t="s">
-        <v>928</v>
+      <c r="A108" s="23" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="22" t="s">
-        <v>929</v>
+      <c r="A109" s="23" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="22" t="s">
-        <v>930</v>
+      <c r="A110" s="23" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="22" t="s">
-        <v>931</v>
+      <c r="A111" s="23" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="22" t="s">
-        <v>932</v>
+      <c r="A112" s="23" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="22" t="s">
-        <v>933</v>
+      <c r="A113" s="23" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="22" t="s">
-        <v>934</v>
+      <c r="A114" s="23" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="22" t="s">
-        <v>935</v>
+      <c r="A115" s="23" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="22" t="s">
-        <v>936</v>
+      <c r="A116" s="23" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="22" t="s">
-        <v>937</v>
+      <c r="A117" s="23" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="22" t="s">
-        <v>938</v>
+      <c r="A118" s="23" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="22" t="s">
-        <v>939</v>
+      <c r="A119" s="23" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="22" t="s">
-        <v>940</v>
+      <c r="A120" s="23" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="22" t="s">
-        <v>941</v>
+      <c r="A121" s="23" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="22" t="s">
-        <v>942</v>
+      <c r="A122" s="23" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="22" t="s">
-        <v>943</v>
+      <c r="A123" s="23" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="22" t="s">
-        <v>944</v>
+      <c r="A124" s="23" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="22" t="s">
-        <v>945</v>
+      <c r="A125" s="23" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="22" t="s">
-        <v>946</v>
+      <c r="A126" s="23" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="22" t="s">
-        <v>947</v>
+      <c r="A127" s="23" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="22" t="s">
-        <v>948</v>
+      <c r="A128" s="23" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="22" t="s">
-        <v>949</v>
+      <c r="A129" s="23" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="22" t="s">
-        <v>950</v>
+      <c r="A130" s="23" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="22" t="s">
-        <v>951</v>
+      <c r="A131" s="23" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="22" t="s">
-        <v>952</v>
+      <c r="A132" s="23" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="22" t="s">
-        <v>953</v>
+      <c r="A133" s="23" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="22" t="s">
-        <v>954</v>
+      <c r="A134" s="23" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="22" t="s">
-        <v>955</v>
+      <c r="A135" s="23" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="22" t="s">
-        <v>956</v>
+      <c r="A136" s="23" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="22" t="s">
-        <v>957</v>
+      <c r="A137" s="23" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="22" t="s">
-        <v>958</v>
+      <c r="A138" s="23" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="22" t="s">
-        <v>959</v>
+      <c r="A139" s="23" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="22" t="s">
-        <v>960</v>
+      <c r="A140" s="23" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="22" t="s">
-        <v>961</v>
+      <c r="A141" s="23" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="22" t="s">
-        <v>962</v>
+      <c r="A142" s="23" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="22" t="s">
-        <v>963</v>
+      <c r="A143" s="23" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="22" t="s">
-        <v>964</v>
+      <c r="A144" s="23" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="22" t="s">
-        <v>965</v>
+      <c r="A145" s="23" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="22" t="s">
-        <v>966</v>
+      <c r="A146" s="23" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="22" t="s">
-        <v>967</v>
+      <c r="A147" s="23" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="22" t="s">
-        <v>968</v>
+      <c r="A148" s="23" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="22" t="s">
-        <v>969</v>
+      <c r="A149" s="23" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="22" t="s">
-        <v>970</v>
+      <c r="A150" s="23" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="22" t="s">
-        <v>971</v>
+      <c r="A151" s="23" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="22" t="s">
-        <v>972</v>
+      <c r="A152" s="23" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="22" t="s">
-        <v>973</v>
+      <c r="A153" s="23" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="22" t="s">
-        <v>974</v>
+      <c r="A154" s="23" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="22" t="s">
-        <v>975</v>
+      <c r="A155" s="23" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="22" t="s">
-        <v>976</v>
+      <c r="A156" s="23" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="22" t="s">
-        <v>977</v>
+      <c r="A157" s="23" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="22" t="s">
-        <v>978</v>
+      <c r="A158" s="23" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="22" t="s">
-        <v>979</v>
+      <c r="A159" s="23" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="22" t="s">
-        <v>980</v>
+      <c r="A160" s="23" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="22" t="s">
-        <v>981</v>
+      <c r="A161" s="23" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="22" t="s">
-        <v>982</v>
+      <c r="A162" s="23" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="22" t="s">
-        <v>983</v>
+      <c r="A163" s="23" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="22" t="s">
-        <v>984</v>
+      <c r="A164" s="23" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="22" t="s">
-        <v>985</v>
+      <c r="A165" s="23" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="22" t="s">
-        <v>986</v>
+      <c r="A166" s="23" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="22" t="s">
-        <v>987</v>
+      <c r="A167" s="23" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="22" t="s">
-        <v>988</v>
+      <c r="A168" s="23" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="22" t="s">
-        <v>989</v>
+      <c r="A169" s="23" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="22" t="s">
-        <v>990</v>
+      <c r="A170" s="23" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="22" t="s">
-        <v>991</v>
+      <c r="A171" s="23" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="22" t="s">
-        <v>992</v>
+      <c r="A172" s="23" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="22" t="s">
-        <v>993</v>
+      <c r="A173" s="23" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="22" t="s">
-        <v>994</v>
+      <c r="A174" s="23" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="22" t="s">
-        <v>995</v>
+      <c r="A175" s="23" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="22" t="s">
-        <v>996</v>
+      <c r="A176" s="23" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="22" t="s">
-        <v>997</v>
+      <c r="A177" s="23" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="22" t="s">
-        <v>998</v>
+      <c r="A178" s="23" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="22" t="s">
-        <v>999</v>
+      <c r="A179" s="23" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="22" t="s">
-        <v>1000</v>
+      <c r="A180" s="23" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="22" t="s">
-        <v>1001</v>
+      <c r="A181" s="23" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="22" t="s">
-        <v>1002</v>
+      <c r="A182" s="23" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="22" t="s">
-        <v>1003</v>
+      <c r="A183" s="23" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="22" t="s">
-        <v>1004</v>
+      <c r="A184" s="23" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="22" t="s">
-        <v>1005</v>
+      <c r="A185" s="23" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="22" t="s">
-        <v>1006</v>
+      <c r="A186" s="23" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="22" t="s">
-        <v>1007</v>
+      <c r="A187" s="23" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="22" t="s">
-        <v>1008</v>
+      <c r="A188" s="23" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="22" t="s">
-        <v>1009</v>
+      <c r="A189" s="23" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="22" t="s">
-        <v>1010</v>
+      <c r="A190" s="23" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="22" t="s">
-        <v>1011</v>
+      <c r="A191" s="23" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="22" t="s">
-        <v>1012</v>
+      <c r="A192" s="23" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="22" t="s">
-        <v>1013</v>
+      <c r="A193" s="23" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="22" t="s">
-        <v>1014</v>
+      <c r="A194" s="23" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="22" t="s">
-        <v>1015</v>
+      <c r="A195" s="23" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="22" t="s">
-        <v>1016</v>
+      <c r="A196" s="23" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="22" t="s">
-        <v>1017</v>
+      <c r="A197" s="23" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="22" t="s">
-        <v>1018</v>
+      <c r="A198" s="23" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="22" t="s">
-        <v>1019</v>
+      <c r="A199" s="23" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="22" t="s">
-        <v>1020</v>
+      <c r="A200" s="23" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="22" t="s">
-        <v>1021</v>
+      <c r="A201" s="23" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="22" t="s">
-        <v>1022</v>
+      <c r="A202" s="23" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="22" t="s">
-        <v>1023</v>
+      <c r="A203" s="23" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="22" t="s">
-        <v>1024</v>
+      <c r="A204" s="23" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="22" t="s">
-        <v>1025</v>
+      <c r="A205" s="23" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="22" t="s">
-        <v>1026</v>
+      <c r="A206" s="23" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="22" t="s">
-        <v>1027</v>
+      <c r="A207" s="23" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="22" t="s">
-        <v>1028</v>
+      <c r="A208" s="23" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="22" t="s">
-        <v>1029</v>
+      <c r="A209" s="23" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="22" t="s">
-        <v>1030</v>
+      <c r="A210" s="23" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="22" t="s">
-        <v>1031</v>
+      <c r="A211" s="23" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="22" t="s">
-        <v>1032</v>
+      <c r="A212" s="23" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="22" t="s">
-        <v>1033</v>
+      <c r="A213" s="23" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="22" t="s">
-        <v>1034</v>
+      <c r="A214" s="23" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="22" t="s">
-        <v>1035</v>
+      <c r="A215" s="23" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="22" t="s">
-        <v>1036</v>
+      <c r="A216" s="23" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="22" t="s">
-        <v>1037</v>
+      <c r="A217" s="23" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="22" t="s">
-        <v>1038</v>
+      <c r="A218" s="23" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="22" t="s">
-        <v>1039</v>
+      <c r="A219" s="23" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="22" t="s">
-        <v>1040</v>
+      <c r="A220" s="23" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="22" t="s">
-        <v>1041</v>
+      <c r="A221" s="23" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="22" t="s">
-        <v>1042</v>
+      <c r="A222" s="23" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="22" t="s">
-        <v>1043</v>
+      <c r="A223" s="23" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="22" t="s">
-        <v>1044</v>
+      <c r="A224" s="23" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="22" t="s">
-        <v>1045</v>
+      <c r="A225" s="23" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="22" t="s">
-        <v>1046</v>
+      <c r="A226" s="23" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="22" t="s">
-        <v>1047</v>
+      <c r="A227" s="23" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="22" t="s">
-        <v>1048</v>
+      <c r="A228" s="23" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="22" t="s">
-        <v>1049</v>
+      <c r="A229" s="23" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="22" t="s">
-        <v>1050</v>
+      <c r="A230" s="23" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="22" t="s">
-        <v>1051</v>
+      <c r="A231" s="23" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="22" t="s">
-        <v>1052</v>
+      <c r="A232" s="23" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="22" t="s">
-        <v>1053</v>
+      <c r="A233" s="23" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="22" t="s">
-        <v>1054</v>
+      <c r="A234" s="23" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="22" t="s">
-        <v>1055</v>
+      <c r="A235" s="23" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="22" t="s">
-        <v>1056</v>
+      <c r="A236" s="23" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="22" t="s">
-        <v>1057</v>
+      <c r="A237" s="23" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="22" t="s">
-        <v>1058</v>
+      <c r="A238" s="23" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="22" t="s">
-        <v>1059</v>
+      <c r="A239" s="23" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="22" t="s">
-        <v>1060</v>
+      <c r="A240" s="23" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="22" t="s">
-        <v>1061</v>
+      <c r="A241" s="23" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="22" t="s">
-        <v>1062</v>
+      <c r="A242" s="23" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="22" t="s">
-        <v>1063</v>
+      <c r="A243" s="23" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="22" t="s">
-        <v>1064</v>
+      <c r="A244" s="23" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="22" t="s">
-        <v>1065</v>
+      <c r="A245" s="23" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="22" t="s">
-        <v>1066</v>
+      <c r="A246" s="23" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="22" t="s">
-        <v>1067</v>
+      <c r="A247" s="23" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="22" t="s">
-        <v>1068</v>
+      <c r="A248" s="23" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="22" t="s">
-        <v>1069</v>
+      <c r="A249" s="23" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="22" t="s">
-        <v>1070</v>
+      <c r="A250" s="23" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="23" t="s">
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -17559,7 +17612,8 @@
     <hyperlink r:id="rId246" ref="A248"/>
     <hyperlink r:id="rId247" ref="A249"/>
     <hyperlink r:id="rId248" ref="A250"/>
+    <hyperlink r:id="rId249" ref="A251"/>
   </hyperlinks>
-  <drawing r:id="rId249"/>
+  <drawing r:id="rId250"/>
 </worksheet>
 </file>
--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -1242,625 +1242,637 @@
     </comment>
     <comment authorId="0" ref="B5">
       <text>
-        <t xml:space="preserve">(Dr. Grip Digital for Wacom ブラック) (Dr. Grip Digital for Wacom アクアブルー)</t>
+        <t xml:space="preserve">(Hi-Uni Digital Mitsubishi Pencil)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6">
       <text>
+        <t xml:space="preserve">(Dr. Grip Digital for Wacom ブラック)
+(Dr. Grip Digital for Wacom Black)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7">
+      <text>
+        <t xml:space="preserve">(Dr. Grip Digital for Wacom アクアブルー)
+(Dr. Grip Digital for Wacom Blue)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8">
+      <text>
         <t xml:space="preserve">(LAMY AL-Star black EMR Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7">
+    <comment authorId="0" ref="B9">
       <text>
         <t xml:space="preserve">(STAEDTLER Noris digital classic Stylus)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8">
+    <comment authorId="0" ref="B10">
       <text>
         <t xml:space="preserve">(STAEDTLER Noris digital jumbo Stylus)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9">
+    <comment authorId="0" ref="B11">
       <text>
         <t xml:space="preserve">(Wacom Pen 4K)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H9">
+    <comment authorId="0" ref="H11">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10">
+    <comment authorId="0" ref="B12">
       <text>
         <t xml:space="preserve">(Wacom Pen 2K)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H10">
+    <comment authorId="0" ref="H12">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11">
+    <comment authorId="0" ref="B13">
       <text>
         <t xml:space="preserve">(Wacom Pen 2K)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H11">
+    <comment authorId="0" ref="H13">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H12">
+    <comment authorId="0" ref="H14">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H13">
+    <comment authorId="0" ref="H15">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H14">
+    <comment authorId="0" ref="H16">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H15">
+    <comment authorId="0" ref="H17">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H16">
+    <comment authorId="0" ref="H18">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17">
+    <comment authorId="0" ref="B19">
       <text>
         <t xml:space="preserve">(Bamboo Fun CTH Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H17">
+    <comment authorId="0" ref="H19">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18">
+    <comment authorId="0" ref="B20">
       <text>
         <t xml:space="preserve">(Bamboo CTL Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H18">
+    <comment authorId="0" ref="H20">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19">
+    <comment authorId="0" ref="B21">
       <text>
         <t xml:space="preserve">(Bamboo CTH Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H19">
+    <comment authorId="0" ref="H21">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20">
+    <comment authorId="0" ref="B22">
       <text>
         <t xml:space="preserve">(Bamboo One Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H20">
+    <comment authorId="0" ref="H22">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B21">
+    <comment authorId="0" ref="B23">
       <text>
         <t xml:space="preserve">(Bamboo Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H21">
+    <comment authorId="0" ref="H23">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B22">
+    <comment authorId="0" ref="B24">
       <text>
         <t xml:space="preserve">(Bamboo Fun Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H22">
+    <comment authorId="0" ref="H24">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23">
+    <comment authorId="0" ref="B25">
       <text>
         <t xml:space="preserve">(Graphire4 Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H23">
+    <comment authorId="0" ref="H25">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B24">
+    <comment authorId="0" ref="B26">
       <text>
         <t xml:space="preserve">(Bamboo One Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H24">
+    <comment authorId="0" ref="H26">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H25">
+    <comment authorId="0" ref="H27">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26">
+    <comment authorId="0" ref="B28">
       <text>
         <t xml:space="preserve">(Graphire3 Inking Pen) (Graphire2 Inking Pen) (Graphire Inking Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H26">
+    <comment authorId="0" ref="H28">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27">
+    <comment authorId="0" ref="B29">
       <text>
         <t xml:space="preserve">(Graphire Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H27">
+    <comment authorId="0" ref="H29">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B28">
+    <comment authorId="0" ref="B30">
       <text>
         <t xml:space="preserve">(Graphire3 Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H28">
+    <comment authorId="0" ref="H30">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H29">
+    <comment authorId="0" ref="H31">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B30">
+    <comment authorId="0" ref="B32">
       <text>
         <t xml:space="preserve">(LLC Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H30">
+    <comment authorId="0" ref="H32">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B31">
+    <comment authorId="0" ref="B33">
       <text>
         <t xml:space="preserve">(Graphire2 Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H31">
+    <comment authorId="0" ref="H33">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B32">
+    <comment authorId="0" ref="B34">
       <text>
         <t xml:space="preserve">(Graphire Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H32">
+    <comment authorId="0" ref="H34">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H33">
+    <comment authorId="0" ref="H35">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B34">
+    <comment authorId="0" ref="B36">
       <text>
         <t xml:space="preserve">(PenPartner Pen) (UltraPen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H34">
+    <comment authorId="0" ref="H36">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B38">
+    <comment authorId="0" ref="B40">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen 3)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B39">
+    <comment authorId="0" ref="B41">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen 2)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B40">
+    <comment authorId="0" ref="B42">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen Slim)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B41">
+    <comment authorId="0" ref="B43">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen 3d)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B42">
+    <comment authorId="0" ref="B44">
       <text>
         <t xml:space="preserve">(Wacom Finetip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H42">
+    <comment authorId="0" ref="H44">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B43">
+    <comment authorId="0" ref="B45">
       <text>
         <t xml:space="preserve">(Wacom Ballpoint Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H43">
+    <comment authorId="0" ref="H45">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B44">
+    <comment authorId="0" ref="B46">
       <text>
         <t xml:space="preserve">(Intuos4 Grip Pen) (Intuos5 Grip Pen) (Wacom Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H44">
+    <comment authorId="0" ref="H46">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B45">
+    <comment authorId="0" ref="B47">
       <text>
         <t xml:space="preserve">(Intuos4 Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H45">
+    <comment authorId="0" ref="H47">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B46">
+    <comment authorId="0" ref="B48">
       <text>
         <t xml:space="preserve">(Wacom Pro Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H46">
+    <comment authorId="0" ref="H48">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B47">
+    <comment authorId="0" ref="B49">
       <text>
         <t xml:space="preserve">(Intuos4 Airbrush) (Intuos5 Airbrush) (Wacom Airbrush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H47">
+    <comment authorId="0" ref="H49">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B48">
+    <comment authorId="0" ref="B50">
       <text>
         <t xml:space="preserve">(Intuos4 Inking Pen) (Intuos5 Inking Pen) (Wacom Inking Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H48">
+    <comment authorId="0" ref="H50">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B49">
+    <comment authorId="0" ref="B51">
       <text>
         <t xml:space="preserve">(Intuos4 Art Pen) (Intuos5 Art Pen) (Wacom Art Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H49">
+    <comment authorId="0" ref="H51">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B50">
+    <comment authorId="0" ref="B52">
       <text>
         <t xml:space="preserve">(Intuos4 Classic Pen) (Intuos5 Classic Pen) (Wacom Classic Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H50">
+    <comment authorId="0" ref="H52">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B51">
+    <comment authorId="0" ref="B53">
       <text>
         <t xml:space="preserve">(Intuos3 Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H51">
+    <comment authorId="0" ref="H53">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B52">
+    <comment authorId="0" ref="B54">
       <text>
         <t xml:space="preserve">(Intuos3 Airbrush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H52">
+    <comment authorId="0" ref="H54">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A010-03, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A011, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B53">
+    <comment authorId="0" ref="B55">
       <text>
         <t xml:space="preserve">(Intuos3 Art Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B54">
+    <comment authorId="0" ref="B56">
       <text>
         <t xml:space="preserve">(Intuos3 Ink Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H54">
+    <comment authorId="0" ref="H56">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B55">
+    <comment authorId="0" ref="B57">
       <text>
         <t xml:space="preserve">(Intuos3 Classic Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H55">
+    <comment authorId="0" ref="H57">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B56">
+    <comment authorId="0" ref="B58">
       <text>
         <t xml:space="preserve">(Intuos2 Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H56">
+    <comment authorId="0" ref="H58">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B57">
+    <comment authorId="0" ref="B59">
       <text>
         <t xml:space="preserve">(Intuos2 Airbrush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H57">
+    <comment authorId="0" ref="H59">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B58">
+    <comment authorId="0" ref="B60">
       <text>
         <t xml:space="preserve">(Intuos2 Classic Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H58">
+    <comment authorId="0" ref="H60">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B59">
+    <comment authorId="0" ref="B61">
       <text>
         <t xml:space="preserve">(Intuos2 Ink Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H59">
+    <comment authorId="0" ref="H61">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B60">
+    <comment authorId="0" ref="B62">
       <text>
         <t xml:space="preserve">(Intuos2 Stroke Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H60">
+    <comment authorId="0" ref="H62">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B61">
+    <comment authorId="0" ref="B63">
       <text>
         <t xml:space="preserve">(Intuos Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H61">
+    <comment authorId="0" ref="H63">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B62">
+    <comment authorId="0" ref="B64">
       <text>
         <t xml:space="preserve">(Intuos Airbrush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H62">
+    <comment authorId="0" ref="H64">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B63">
+    <comment authorId="0" ref="B65">
       <text>
         <t xml:space="preserve">(Intuos Inking Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H63">
+    <comment authorId="0" ref="H65">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B64">
+    <comment authorId="0" ref="B66">
       <text>
         <t xml:space="preserve">(Intuos Stroke Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H64">
+    <comment authorId="0" ref="H66">
       <text>
         <t xml:space="preserve">(PSI-A024-BK, PSI-A025-R, PSI-A026-BL, PSI-A024-BK-01, PSI-A011, PSI-A023, FUZ-A010-03)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H65">
+    <comment authorId="0" ref="H67">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B66">
+    <comment authorId="0" ref="B68">
       <text>
         <t xml:space="preserve">(UltraPen Eraser) (Erasing UltraPen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H66">
+    <comment authorId="0" ref="H68">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H67">
+    <comment authorId="0" ref="H69">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B68">
+    <comment authorId="0" ref="B70">
       <text>
         <t xml:space="preserve">Click pen</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H68">
+    <comment authorId="0" ref="H70">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B69">
+    <comment authorId="0" ref="B71">
       <text>
         <t xml:space="preserve">(UltraPen Brush)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H69">
+    <comment authorId="0" ref="H71">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B70">
+    <comment authorId="0" ref="B72">
       <text>
         <t xml:space="preserve">(UltraPen Pencil)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H71">
+    <comment authorId="0" ref="H73">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B72">
+    <comment authorId="0" ref="B74">
       <text>
         <t xml:space="preserve">(Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H72">
+    <comment authorId="0" ref="H74">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B73">
+    <comment authorId="0" ref="B75">
       <text>
         <t xml:space="preserve">(Grip Pen)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H73">
+    <comment authorId="0" ref="H75">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B74">
+    <comment authorId="0" ref="B76">
       <text>
         <t xml:space="preserve">(UltraPen 813E)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H74">
+    <comment authorId="0" ref="H76">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B75">
+    <comment authorId="0" ref="B77">
       <text>
         <t xml:space="preserve">(UltraPen Write)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H75">
+    <comment authorId="0" ref="H77">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B76">
+    <comment authorId="0" ref="B78">
       <text>
         <t xml:space="preserve">(UltraPen Write)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H76">
+    <comment authorId="0" ref="H78">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B77">
+    <comment authorId="0" ref="B79">
       <text>
         <t xml:space="preserve">(UltraPen Ink)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H77">
+    <comment authorId="0" ref="H79">
       <text>
         <t xml:space="preserve">(ACK-20401K, ACK-20101W, ACK-20014, FUZ-A141, FUZ-A010, FUZ-A121, FUZ-A154, FUZ-A120, PSI-A034, PSI-A007, PSI-A043, PSI-A042, PSI-A066, PSI-A021)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B78">
+    <comment authorId="0" ref="B80">
       <text>
         <t xml:space="preserve">(Standard Stylus Gray)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B79">
+    <comment authorId="0" ref="B81">
       <text>
         <t xml:space="preserve">(Standard Stylus Red)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B80">
+    <comment authorId="0" ref="B82">
       <text>
         <t xml:space="preserve">(Slim Stylus Gray)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B81">
+    <comment authorId="0" ref="B83">
       <text>
         <t xml:space="preserve">(Slim Stylus Magenta)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B82">
+    <comment authorId="0" ref="B84">
       <text>
         <t xml:space="preserve">(Pressure Stylus Blue)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B83">
+    <comment authorId="0" ref="B85">
       <text>
         <t xml:space="preserve">(Pressure Stylus Red)</t>
       </text>
@@ -1980,7 +1992,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="1081">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -3674,7 +3686,16 @@
     <t>4096 (≈5gf, 28gf, 43gf, 95gf, 151gf, 358gf)</t>
   </si>
   <si>
-    <t>CP-202</t>
+    <t>CP-20206BZ</t>
+  </si>
+  <si>
+    <t>4.8g</t>
+  </si>
+  <si>
+    <t>140 x 7.73 mm</t>
+  </si>
+  <si>
+    <t>CP-202A02A</t>
   </si>
   <si>
     <t>15g</t>
@@ -3683,15 +3704,21 @@
     <t>143 x 14.2 mm</t>
   </si>
   <si>
-    <t>0?</t>
-  </si>
-  <si>
     <t>ACK24601Z</t>
   </si>
   <si>
+    <t>CP-202A01A</t>
+  </si>
+  <si>
     <t>L471-2</t>
   </si>
   <si>
+    <t>55g</t>
+  </si>
+  <si>
+    <t>139 x 13 mm</t>
+  </si>
+  <si>
     <t>Z105</t>
   </si>
   <si>
@@ -4406,9 +4433,6 @@
     <t>SC-410</t>
   </si>
   <si>
-    <t>55g</t>
-  </si>
-  <si>
     <t>62 x 130 x 24 mm</t>
   </si>
   <si>
@@ -4461,6 +4485,9 @@
   </si>
   <si>
     <t>Not all sources are directly listed. Some information may be found in links or media contained in the pages below.</t>
+  </si>
+  <si>
+    <t>https://support.wacom.com/hc/ja/articles/5444635267479-Hi-uni-DIGITAL-for-Wacom%E3%81%A8Wacom-One-Pen%E3%81%AE%E9%81%95%E3%81%84%E3%81%AB%E3%81%A4%E3%81%84%E3%81%A6</t>
   </si>
   <si>
     <t>https://estore.wacom.jp/ja-JP/products/accessories/acp501e00dz.html</t>
@@ -13386,34 +13413,32 @@
       <c r="E5" s="6">
         <v>4096.0</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>567</v>
+      <c r="F5" s="6">
+        <v>0.0</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>568</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E6" s="6">
         <v>4096.0</v>
       </c>
       <c r="F6" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>40</v>
@@ -13430,10 +13455,10 @@
         <v>571</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E7" s="6">
         <v>4096.0</v>
@@ -13445,33 +13470,33 @@
         <v>40</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>577</v>
+      <c r="B8" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="E8" s="6">
         <v>4096.0</v>
       </c>
       <c r="F8" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>559</v>
@@ -13479,85 +13504,85 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>576</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6">
+        <v>4096.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="I9" s="6" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>586</v>
+        <v>580</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4096.0</v>
       </c>
       <c r="F10" s="6">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>581</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="F11" s="6">
         <v>2.0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>589</v>
@@ -13572,10 +13597,10 @@
         <v>2.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>592</v>
@@ -13583,25 +13608,25 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>595</v>
+      <c r="F13" s="6">
+        <v>2.0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>592</v>
@@ -13609,59 +13634,59 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F14" s="6">
         <v>2.0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="F15" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>581</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>602</v>
@@ -13670,276 +13695,276 @@
         <v>603</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>595</v>
+        <v>604</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2.0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>595</v>
+        <v>606</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2.0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1024.0</v>
+        <v>611</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>612</v>
       </c>
       <c r="F20" s="6">
         <v>2.0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>613</v>
       </c>
       <c r="E22" s="6">
-        <v>512.0</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>595</v>
+        <v>1024.0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2.0</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="E23" s="6">
-        <v>512.0</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="G23" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="E24" s="6">
         <v>512.0</v>
       </c>
-      <c r="F24" s="6">
-        <v>2.0</v>
+      <c r="F24" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E25" s="6">
         <v>512.0</v>
       </c>
-      <c r="F25" s="6">
-        <v>2.0</v>
+      <c r="F25" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>619</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>620</v>
+        <v>225</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E26" s="6">
         <v>512.0</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>31</v>
+      <c r="F26" s="6">
+        <v>2.0</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>557</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>622</v>
@@ -13947,10 +13972,10 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>623</v>
@@ -13958,14 +13983,14 @@
       <c r="E27" s="6">
         <v>512.0</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>595</v>
+      <c r="F27" s="6">
+        <v>2.0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>622</v>
@@ -13973,357 +13998,357 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>211</v>
+        <v>625</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E28" s="6">
         <v>512.0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>595</v>
+        <v>31</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="5" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>40</v>
+        <v>583</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>40</v>
+        <v>628</v>
       </c>
       <c r="E29" s="6">
         <v>512.0</v>
       </c>
-      <c r="F29" s="6">
-        <v>1.0</v>
+      <c r="F29" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>40</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="5" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E30" s="6">
         <v>512.0</v>
       </c>
-      <c r="F30" s="6">
-        <v>2.0</v>
+      <c r="F30" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>619</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>578</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>623</v>
+        <v>40</v>
       </c>
       <c r="E31" s="6">
         <v>512.0</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>595</v>
+      <c r="F31" s="6">
+        <v>1.0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>614</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="5" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>595</v>
+        <v>629</v>
+      </c>
+      <c r="E32" s="6">
+        <v>512.0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2.0</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="5" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>583</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>40</v>
+        <v>628</v>
       </c>
       <c r="E33" s="6">
         <v>512.0</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>40</v>
+        <v>619</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>177</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="6">
+        <v>512.0</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E36" s="6">
         <v>256.0</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="F36" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="E37" s="6">
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E39" s="6">
         <v>8192.0</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="E38" s="6">
-        <v>8192.0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="H39" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="I39" s="15" t="s">
         <v>643</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>600</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>595</v>
+        <v>639</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8192.0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3.0</v>
       </c>
       <c r="G40" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>643</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="E41" s="6">
-        <v>8192.0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="H41" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="42">
@@ -14331,56 +14356,56 @@
         <v>650</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="E42" s="6">
-        <v>8192.0</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>31</v>
+        <v>600</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>651</v>
+        <v>568</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E43" s="6">
         <v>8192.0</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>31</v>
+      <c r="F43" s="6">
+        <v>3.0</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="5" t="s">
-        <v>345</v>
+        <v>655</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>656</v>
@@ -14388,25 +14413,25 @@
       <c r="D44" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="6">
+        <v>8192.0</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="5" t="s">
-        <v>345</v>
+        <v>660</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>656</v>
@@ -14414,358 +14439,358 @@
       <c r="D45" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="6">
+        <v>8192.0</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="I45" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="F46" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="H46" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="E47" s="6">
-        <v>2048.0</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>661</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E48" s="6">
-        <v>2048.0</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G48" s="6" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="E49" s="6">
         <v>2048.0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>677</v>
+        <v>626</v>
       </c>
       <c r="E50" s="6">
         <v>2048.0</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>595</v>
+        <v>31</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="5" t="s">
-        <v>395</v>
+        <v>677</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="6">
+        <v>2048.0</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>678</v>
+        <v>587</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2048.0</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1024.0</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>678</v>
-      </c>
       <c r="I52" s="6" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="F53" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="H53" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="I53" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="E54" s="6">
         <v>1024.0</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>31</v>
+        <v>600</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1024.0</v>
-      </c>
       <c r="F55" s="6" t="s">
-        <v>595</v>
+        <v>693</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>582</v>
+        <v>694</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="5" t="s">
-        <v>435</v>
+        <v>695</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>656</v>
+        <v>605</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1024.0</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>595</v>
+        <v>31</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="E57" s="6">
         <v>1024.0</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>669</v>
+        <v>600</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="H58" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1024.0</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="59">
@@ -14773,267 +14798,267 @@
         <v>703</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="E59" s="6">
         <v>1024.0</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>31</v>
+        <v>674</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>557</v>
+        <v>701</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>621</v>
+        <v>707</v>
       </c>
       <c r="E60" s="6">
         <v>1024.0</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>31</v>
+        <v>600</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="5" t="s">
-        <v>466</v>
+        <v>708</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1024.0</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>709</v>
+        <v>626</v>
       </c>
       <c r="E62" s="6">
         <v>1024.0</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>669</v>
+        <v>31</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="5" t="s">
-        <v>710</v>
+        <v>466</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1024.0</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G63" s="6" t="s">
-        <v>557</v>
+        <v>698</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>621</v>
+        <v>714</v>
       </c>
       <c r="E64" s="6">
         <v>1024.0</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>31</v>
+        <v>674</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="6" t="s">
-        <v>712</v>
+      <c r="B65" s="5" t="s">
+        <v>715</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>713</v>
+        <v>605</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>714</v>
+        <v>626</v>
       </c>
       <c r="E65" s="6">
-        <v>256.0</v>
-      </c>
-      <c r="F65" s="6">
-        <v>2.0</v>
+        <v>1024.0</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>557</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="5" t="s">
-        <v>280</v>
+        <v>716</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="E66" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1024.0</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>584</v>
-      </c>
       <c r="D67" s="6" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E67" s="6">
         <v>256.0</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>595</v>
+      <c r="F67" s="6">
+        <v>2.0</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>629</v>
+        <v>557</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>719</v>
+        <v>280</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>713</v>
+        <v>589</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="E68" s="6">
-        <v>256.0</v>
-      </c>
-      <c r="F68" s="6">
-        <v>1.0</v>
+        <v>721</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>40</v>
+        <v>634</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="5" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>721</v>
@@ -15041,28 +15066,28 @@
       <c r="E69" s="6">
         <v>256.0</v>
       </c>
-      <c r="F69" s="6">
-        <v>1.0</v>
+      <c r="F69" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="5" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>578</v>
+        <v>718</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E70" s="6">
         <v>256.0</v>
@@ -15071,91 +15096,91 @@
         <v>1.0</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>557</v>
+        <v>40</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>723</v>
+        <v>587</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="6" t="s">
-        <v>724</v>
+      <c r="B71" s="5" t="s">
+        <v>725</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>713</v>
+        <v>583</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="E71" s="6">
         <v>256.0</v>
       </c>
       <c r="F71" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>557</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>663</v>
+        <v>583</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>595</v>
+      <c r="E72" s="6">
+        <v>256.0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1.0</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>629</v>
+        <v>557</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>582</v>
+        <v>728</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="5" t="s">
-        <v>728</v>
+      <c r="B73" s="6" t="s">
+        <v>729</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>600</v>
+        <v>718</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="E73" s="6">
-        <v>512.0</v>
+        <v>256.0</v>
       </c>
       <c r="F73" s="6">
         <v>2.0</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>671</v>
+        <v>557</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="74">
@@ -15163,91 +15188,91 @@
         <v>730</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="E74" s="6">
-        <v>512.0</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="G74" s="6" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>713</v>
+        <v>605</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="E75" s="6">
         <v>512.0</v>
       </c>
       <c r="F75" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>557</v>
+        <v>676</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>713</v>
+        <v>605</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>716</v>
+        <v>633</v>
       </c>
       <c r="E76" s="6">
-        <v>256.0</v>
-      </c>
-      <c r="F76" s="6">
-        <v>1.0</v>
+        <v>512.0</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>578</v>
+        <v>718</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>721</v>
       </c>
       <c r="E77" s="6">
-        <v>256.0</v>
+        <v>512.0</v>
       </c>
       <c r="F77" s="6">
         <v>1.0</v>
@@ -15256,36 +15281,36 @@
         <v>557</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="5" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>578</v>
+        <v>718</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="E78" s="6">
-        <v>2.0</v>
+        <v>256.0</v>
       </c>
       <c r="F78" s="6">
         <v>1.0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>671</v>
+        <v>557</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>736</v>
+        <v>587</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79">
@@ -15293,103 +15318,103 @@
         <v>738</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E79" s="6">
-        <v>2.0</v>
+        <v>256.0</v>
       </c>
       <c r="F79" s="6">
         <v>1.0</v>
       </c>
       <c r="G79" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="9" t="s">
+      <c r="C80" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="E80" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="I80" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F80" s="10" t="s">
+    </row>
+    <row r="81">
+      <c r="B81" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="C81" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E81" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="H81" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="I81" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="E82" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="E82" s="10" t="s">
+      <c r="G82" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="H82" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="G82" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>745</v>
-      </c>
       <c r="I82" s="9" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="83">
@@ -15397,35 +15422,87 @@
         <v>751</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="G83" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="H83" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>745</v>
-      </c>
       <c r="I83" s="9" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="4"/>
+      <c r="B84" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A34"/>
-    <mergeCell ref="A37:A83"/>
+    <mergeCell ref="A39:A85"/>
+    <mergeCell ref="A3:A36"/>
   </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -15454,7 +15531,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2">
@@ -15471,13 +15548,13 @@
         <v>547</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>552</v>
@@ -15485,16 +15562,16 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="E3" s="6">
         <v>3.0</v>
@@ -15503,10 +15580,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4">
@@ -15514,10 +15591,10 @@
         <v>192</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="E4" s="6">
         <v>3.0</v>
@@ -15526,10 +15603,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5">
@@ -15537,10 +15614,10 @@
         <v>213</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E5" s="6">
         <v>3.0</v>
@@ -15549,10 +15626,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6">
@@ -15560,10 +15637,10 @@
         <v>252</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="E6" s="6">
         <v>3.0</v>
@@ -15572,21 +15649,21 @@
         <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="E7" s="6">
         <v>3.0</v>
@@ -15595,10 +15672,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8">
@@ -15612,209 +15689,209 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="E9" s="6">
         <v>5.0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="E10" s="6">
         <v>5.0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="E11" s="6">
         <v>5.0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="6" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="E12" s="6">
         <v>5.0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="6" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E13" s="6">
         <v>3.0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E14" s="6">
         <v>5.0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="E15" s="6">
         <v>5.0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="6" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="E17" s="6">
         <v>5.0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18">
@@ -15837,12 +15914,12 @@
         <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="6" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
@@ -15860,7 +15937,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20">
@@ -15868,10 +15945,10 @@
         <v>518</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="E20" s="6">
         <v>4.0</v>
@@ -15883,7 +15960,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21">
@@ -15891,10 +15968,10 @@
         <v>513</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="E21" s="6">
         <v>4.0</v>
@@ -15911,13 +15988,13 @@
     </row>
     <row r="22">
       <c r="B22" s="6" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>808</v>
+        <v>573</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E22" s="6">
         <v>4.0</v>
@@ -15929,18 +16006,18 @@
         <v>31</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="6" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E23" s="6">
         <v>16.0</v>
@@ -15952,7 +16029,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -15980,17 +16057,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4">
@@ -16001,47 +16078,47 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -16089,7 +16166,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -16104,7 +16181,7 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -16119,1247 +16196,1252 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>828</v>
+      <c r="A4" s="22" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="23" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="23" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="23" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="23" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="23" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="23" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="23" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="23" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="23" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="23" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="23" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="23" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="23" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="23" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="23" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="23" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="23" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="23" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="23" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="23" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="23" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="23" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="23" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="23" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="23" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="23" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="23" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="23" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="23" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="23" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="23" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="23" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="23" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="23" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="23" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="23" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="23" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="23" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="23" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="23" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="23" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="23" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="23" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="23" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="23" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="23" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="23" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="23" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="23" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="23" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="23" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="23" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="23" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="23" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="23" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="23" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="23" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="23" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="23" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="23" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="23" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="23" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="23" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="23" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="23" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="23" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="23" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="23" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="23" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="23" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="23" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="23" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="23" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="23" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="23" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="23" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="23" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="23" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="23" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="23" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="23" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="23" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="23" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="23" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="23" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="23" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="23" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="23" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="23" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="23" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="23" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="23" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="23" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="23" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="23" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="23" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="23" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="23" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="23" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="23" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="23" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="23" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="23" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="23" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="23" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="23" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="23" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="23" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="23" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="23" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="23" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="23" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="23" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="23" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="23" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="23" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="23" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="23" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="23" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="23" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="23" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="23" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="23" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="23" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="23" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="23" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="23" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="23" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="23" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="23" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="23" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="23" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="23" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="23" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="23" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="23" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="23" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="23" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="23" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="23" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="23" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="23" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="23" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="23" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="23" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="23" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="23" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="23" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="23" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="23" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="23" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="23" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="23" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="23" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="23" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="23" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="23" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="23" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="23" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="23" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="23" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="23" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="23" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="23" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="23" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="23" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="23" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="23" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="23" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="23" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="23" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="23" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="23" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="23" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="23" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="23" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="23" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="23" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="23" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="23" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="23" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="23" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="23" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="23" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="23" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="23" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="23" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="23" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="23" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="23" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="23" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="23" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="23" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="23" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="23" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="23" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="23" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="23" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="23" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="23" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="23" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="23" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="23" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="23" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="23" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="23" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="23" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="23" t="s">
-        <v>1075</v>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="23" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -17613,7 +17695,8 @@
     <hyperlink r:id="rId247" ref="A249"/>
     <hyperlink r:id="rId248" ref="A250"/>
     <hyperlink r:id="rId249" ref="A251"/>
+    <hyperlink r:id="rId250" ref="A252"/>
   </hyperlinks>
-  <drawing r:id="rId250"/>
+  <drawing r:id="rId251"/>
 </worksheet>
 </file>
--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -545,14 +545,29 @@
         <t xml:space="preserve">(Intuos Pro 2025 Small)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="L65">
+      <text>
+        <t xml:space="preserve">Some pens lower report rate to around 200-240hz</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B66">
       <text>
         <t xml:space="preserve">(Intuos Pro 2025 Medium)</t>
       </text>
     </comment>
+    <comment authorId="0" ref="L66">
+      <text>
+        <t xml:space="preserve">Some pens lower report rate to around 200-240hz</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B67">
       <text>
         <t xml:space="preserve">(Intuos Pro 2025 Large)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L67">
+      <text>
+        <t xml:space="preserve">Some pens lower report rate to around 200-240hz</t>
       </text>
     </comment>
     <comment authorId="0" ref="B68">
@@ -2062,7 +2077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1082">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -2973,7 +2988,10 @@
     <t>ACP-500</t>
   </si>
   <si>
-    <t>128?</t>
+    <t>21mm (19mm)</t>
+  </si>
+  <si>
+    <t>Slight Hover Anti-chatter</t>
   </si>
   <si>
     <t>ACP-500, ACP-501E, KP-504E, KP-301E, KP-505, KP-503E, KP-501E, KP-701E, KP-300E, KP-400E, KP-130, CP-923, CP-913, CP-202, L471-2, 180 22-1, 180J 22-1</t>
@@ -3040,9 +3058,6 @@
   </si>
   <si>
     <t>36mm (26mm)</t>
-  </si>
-  <si>
-    <t>Slight Hover Anti-chatter</t>
   </si>
   <si>
     <t>KP-504E, KP-301E, KP-505, KP-503E, KP-501E, KP-701E, KP-300E, KP-400E, KP-130</t>
@@ -9418,7 +9433,7 @@
         <v>302</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="L65" s="6">
         <v>300.0</v>
@@ -9432,17 +9447,17 @@
       <c r="O65" s="6">
         <v>260.0</v>
       </c>
-      <c r="P65" s="6" t="s">
-        <v>303</v>
+      <c r="P65" s="6">
+        <v>128.0</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="R65" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T65" s="6" t="s">
         <v>32</v>
@@ -9450,28 +9465,28 @@
     </row>
     <row r="66">
       <c r="B66" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>296</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>302</v>
@@ -9491,17 +9506,17 @@
       <c r="O66" s="6">
         <v>260.0</v>
       </c>
-      <c r="P66" s="6" t="s">
-        <v>303</v>
+      <c r="P66" s="6">
+        <v>128.0</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="R66" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T66" s="6" t="s">
         <v>32</v>
@@ -9509,28 +9524,28 @@
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>296</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>302</v>
@@ -9550,17 +9565,17 @@
       <c r="O67" s="6">
         <v>260.0</v>
       </c>
-      <c r="P67" s="6" t="s">
-        <v>303</v>
+      <c r="P67" s="6">
+        <v>128.0</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="R67" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T67" s="6" t="s">
         <v>32</v>
@@ -9568,7 +9583,7 @@
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>24</v>
@@ -9577,25 +9592,25 @@
         <v>296</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L68" s="6">
         <v>200.0</v>
@@ -9613,7 +9628,7 @@
         <v>128.0</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="R68" s="6" t="s">
         <v>34</v>
@@ -9651,7 +9666,7 @@
         <v>334</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>41</v>
@@ -9672,7 +9687,7 @@
         <v>128.0</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>34</v>
@@ -9710,7 +9725,7 @@
         <v>334</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>41</v>
@@ -9731,7 +9746,7 @@
         <v>128.0</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="R70" s="6" t="s">
         <v>34</v>
@@ -9763,10 +9778,10 @@
         <v>345</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>346</v>
@@ -9940,10 +9955,10 @@
         <v>360</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>346</v>
@@ -9999,10 +10014,10 @@
         <v>360</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>346</v>
@@ -10238,7 +10253,7 @@
         <v>333</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>346</v>
@@ -13757,10 +13772,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
     <mergeCell ref="A4:A62"/>
     <mergeCell ref="A65:A138"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -14807,7 +14822,7 @@
     </row>
     <row r="41">
       <c r="B41" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>569</v>

--- a/kuuube's_wacom_tablet_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_mastersheet.xlsx
@@ -2077,7 +2077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="1084">
   <si>
     <t>Kuuube's Wacom Tablet Mastersheet</t>
   </si>
@@ -4554,7 +4554,7 @@
     <t>Info</t>
   </si>
   <si>
-    <t>If you need to contact me personally, join my discord. I may not reply elsewhere.</t>
+    <t>The quickest way to contact me is to join my discord. I may take awhile to reply elsewhere.</t>
   </si>
   <si>
     <t>osu! Profile</t>
@@ -4567,6 +4567,33 @@
   </si>
   <si>
     <t>Youtube</t>
+  </si>
+  <si>
+    <t>Ko-fi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0563C1"/>
+        <u/>
+      </rPr>
+      <t>Business Inquiries Email (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF0563C1"/>
+        <u/>
+      </rPr>
+      <t>DO NOT send me tablet sponsorship offers</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF0563C1"/>
+        <u/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Sources</t>
@@ -5329,7 +5356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -5418,6 +5445,14 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0563C1"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
@@ -5435,7 +5470,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5503,9 +5538,15 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -16616,14 +16657,26 @@
         <v>829</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="22" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="s">
+        <v>831</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:J15"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -16641,8 +16694,10 @@
     <hyperlink r:id="rId6" ref="A11"/>
     <hyperlink r:id="rId7" ref="A12"/>
     <hyperlink r:id="rId8" ref="A13"/>
+    <hyperlink r:id="rId9" ref="A14"/>
+    <hyperlink r:id="rId10" ref="A15"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -16661,7 +16716,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -16676,7 +16731,7 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -16690,1253 +16745,1253 @@
       <c r="K2" s="21"/>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>832</v>
+      <c r="A3" s="24" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>833</v>
+      <c r="A4" s="24" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>834</v>
+      <c r="A5" s="25" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>835</v>
+      <c r="A6" s="25" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>836</v>
+      <c r="A7" s="25" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>837</v>
+      <c r="A8" s="25" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>838</v>
+      <c r="A9" s="25" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>839</v>
+      <c r="A10" s="25" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>840</v>
+      <c r="A11" s="25" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>841</v>
+      <c r="A12" s="25" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>842</v>
+      <c r="A13" s="25" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>843</v>
+      <c r="A14" s="25" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>844</v>
+      <c r="A15" s="25" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="s">
-        <v>845</v>
+      <c r="A16" s="25" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>846</v>
+      <c r="A17" s="25" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="s">
-        <v>847</v>
+      <c r="A18" s="25" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>848</v>
+      <c r="A19" s="25" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="s">
-        <v>849</v>
+      <c r="A20" s="25" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="s">
-        <v>850</v>
+      <c r="A21" s="25" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="s">
-        <v>851</v>
+      <c r="A22" s="25" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="23" t="s">
-        <v>852</v>
+      <c r="A23" s="25" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="23" t="s">
-        <v>853</v>
+      <c r="A24" s="25" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="s">
-        <v>854</v>
+      <c r="A25" s="25" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="23" t="s">
-        <v>855</v>
+      <c r="A26" s="25" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
-        <v>856</v>
+      <c r="A27" s="25" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="s">
-        <v>857</v>
+      <c r="A28" s="25" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
-        <v>858</v>
+      <c r="A29" s="25" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
-        <v>859</v>
+      <c r="A30" s="25" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="23" t="s">
-        <v>860</v>
+      <c r="A31" s="25" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="23" t="s">
-        <v>861</v>
+      <c r="A32" s="25" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="23" t="s">
-        <v>862</v>
+      <c r="A33" s="25" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="23" t="s">
-        <v>863</v>
+      <c r="A34" s="25" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="23" t="s">
-        <v>864</v>
+      <c r="A35" s="25" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="23" t="s">
-        <v>865</v>
+      <c r="A36" s="25" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="23" t="s">
-        <v>866</v>
+      <c r="A37" s="25" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="23" t="s">
-        <v>867</v>
+      <c r="A38" s="25" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="23" t="s">
-        <v>868</v>
+      <c r="A39" s="25" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="23" t="s">
-        <v>869</v>
+      <c r="A40" s="25" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="23" t="s">
-        <v>870</v>
+      <c r="A41" s="25" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="23" t="s">
-        <v>871</v>
+      <c r="A42" s="25" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="23" t="s">
-        <v>872</v>
+      <c r="A43" s="25" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="23" t="s">
-        <v>873</v>
+      <c r="A44" s="25" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="23" t="s">
-        <v>874</v>
+      <c r="A45" s="25" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="23" t="s">
-        <v>875</v>
+      <c r="A46" s="25" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="23" t="s">
-        <v>876</v>
+      <c r="A47" s="25" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="23" t="s">
-        <v>877</v>
+      <c r="A48" s="25" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="23" t="s">
-        <v>878</v>
+      <c r="A49" s="25" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="23" t="s">
-        <v>879</v>
+      <c r="A50" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="23" t="s">
-        <v>880</v>
+      <c r="A51" s="25" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="23" t="s">
-        <v>881</v>
+      <c r="A52" s="25" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="23" t="s">
-        <v>882</v>
+      <c r="A53" s="25" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="23" t="s">
-        <v>883</v>
+      <c r="A54" s="25" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="23" t="s">
-        <v>884</v>
+      <c r="A55" s="25" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="23" t="s">
-        <v>885</v>
+      <c r="A56" s="25" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="23" t="s">
-        <v>886</v>
+      <c r="A57" s="25" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="23" t="s">
-        <v>887</v>
+      <c r="A58" s="25" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="23" t="s">
-        <v>888</v>
+      <c r="A59" s="25" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="23" t="s">
-        <v>889</v>
+      <c r="A60" s="25" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="23" t="s">
-        <v>890</v>
+      <c r="A61" s="25" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="23" t="s">
-        <v>891</v>
+      <c r="A62" s="25" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="23" t="s">
-        <v>892</v>
+      <c r="A63" s="25" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="23" t="s">
-        <v>893</v>
+      <c r="A64" s="25" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="23" t="s">
-        <v>894</v>
+      <c r="A65" s="25" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="23" t="s">
-        <v>895</v>
+      <c r="A66" s="25" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="23" t="s">
-        <v>896</v>
+      <c r="A67" s="25" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="23" t="s">
-        <v>897</v>
+      <c r="A68" s="25" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="23" t="s">
-        <v>898</v>
+      <c r="A69" s="25" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="23" t="s">
-        <v>899</v>
+      <c r="A70" s="25" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="23" t="s">
-        <v>900</v>
+      <c r="A71" s="25" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="23" t="s">
-        <v>901</v>
+      <c r="A72" s="25" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="23" t="s">
-        <v>902</v>
+      <c r="A73" s="25" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="23" t="s">
-        <v>903</v>
+      <c r="A74" s="25" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="23" t="s">
-        <v>904</v>
+      <c r="A75" s="25" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="23" t="s">
-        <v>905</v>
+      <c r="A76" s="25" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="23" t="s">
-        <v>906</v>
+      <c r="A77" s="25" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="23" t="s">
-        <v>907</v>
+      <c r="A78" s="25" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="23" t="s">
-        <v>908</v>
+      <c r="A79" s="25" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="23" t="s">
-        <v>909</v>
+      <c r="A80" s="25" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="23" t="s">
-        <v>910</v>
+      <c r="A81" s="25" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="23" t="s">
-        <v>911</v>
+      <c r="A82" s="25" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="23" t="s">
-        <v>912</v>
+      <c r="A83" s="25" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="23" t="s">
-        <v>913</v>
+      <c r="A84" s="25" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="23" t="s">
-        <v>914</v>
+      <c r="A85" s="25" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="23" t="s">
-        <v>915</v>
+      <c r="A86" s="25" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="23" t="s">
-        <v>916</v>
+      <c r="A87" s="25" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="23" t="s">
-        <v>917</v>
+      <c r="A88" s="25" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="23" t="s">
-        <v>918</v>
+      <c r="A89" s="25" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="23" t="s">
-        <v>919</v>
+      <c r="A90" s="25" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="23" t="s">
-        <v>920</v>
+      <c r="A91" s="25" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="23" t="s">
-        <v>921</v>
+      <c r="A92" s="25" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="23" t="s">
-        <v>922</v>
+      <c r="A93" s="25" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="23" t="s">
-        <v>923</v>
+      <c r="A94" s="25" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="23" t="s">
-        <v>924</v>
+      <c r="A95" s="25" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="23" t="s">
-        <v>925</v>
+      <c r="A96" s="25" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="23" t="s">
-        <v>926</v>
+      <c r="A97" s="25" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="23" t="s">
-        <v>927</v>
+      <c r="A98" s="25" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="23" t="s">
-        <v>928</v>
+      <c r="A99" s="25" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="23" t="s">
-        <v>929</v>
+      <c r="A100" s="25" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="23" t="s">
-        <v>930</v>
+      <c r="A101" s="25" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="23" t="s">
-        <v>931</v>
+      <c r="A102" s="25" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="23" t="s">
-        <v>932</v>
+      <c r="A103" s="25" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="23" t="s">
-        <v>933</v>
+      <c r="A104" s="25" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="23" t="s">
-        <v>934</v>
+      <c r="A105" s="25" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="23" t="s">
-        <v>935</v>
+      <c r="A106" s="25" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="23" t="s">
-        <v>936</v>
+      <c r="A107" s="25" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="23" t="s">
-        <v>937</v>
+      <c r="A108" s="25" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="23" t="s">
-        <v>938</v>
+      <c r="A109" s="25" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="23" t="s">
-        <v>939</v>
+      <c r="A110" s="25" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="23" t="s">
-        <v>940</v>
+      <c r="A111" s="25" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="23" t="s">
-        <v>941</v>
+      <c r="A112" s="25" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="23" t="s">
-        <v>942</v>
+      <c r="A113" s="25" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="23" t="s">
-        <v>943</v>
+      <c r="A114" s="25" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="23" t="s">
-        <v>944</v>
+      <c r="A115" s="25" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="23" t="s">
-        <v>945</v>
+      <c r="A116" s="25" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="23" t="s">
-        <v>946</v>
+      <c r="A117" s="25" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="23" t="s">
-        <v>947</v>
+      <c r="A118" s="25" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="23" t="s">
-        <v>948</v>
+      <c r="A119" s="25" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="23" t="s">
-        <v>949</v>
+      <c r="A120" s="25" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="23" t="s">
-        <v>950</v>
+      <c r="A121" s="25" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="23" t="s">
-        <v>951</v>
+      <c r="A122" s="25" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="23" t="s">
-        <v>952</v>
+      <c r="A123" s="25" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="23" t="s">
-        <v>953</v>
+      <c r="A124" s="25" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="23" t="s">
-        <v>954</v>
+      <c r="A125" s="25" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="23" t="s">
-        <v>955</v>
+      <c r="A126" s="25" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="23" t="s">
-        <v>956</v>
+      <c r="A127" s="25" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="23" t="s">
-        <v>957</v>
+      <c r="A128" s="25" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="23" t="s">
-        <v>958</v>
+      <c r="A129" s="25" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="23" t="s">
-        <v>959</v>
+      <c r="A130" s="25" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="23" t="s">
-        <v>960</v>
+      <c r="A131" s="25" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="23" t="s">
-        <v>961</v>
+      <c r="A132" s="25" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="23" t="s">
-        <v>962</v>
+      <c r="A133" s="25" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="23" t="s">
-        <v>963</v>
+      <c r="A134" s="25" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="23" t="s">
-        <v>964</v>
+      <c r="A135" s="25" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="23" t="s">
-        <v>965</v>
+      <c r="A136" s="25" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="23" t="s">
-        <v>966</v>
+      <c r="A137" s="25" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="23" t="s">
-        <v>967</v>
+      <c r="A138" s="25" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="23" t="s">
-        <v>968</v>
+      <c r="A139" s="25" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="23" t="s">
-        <v>969</v>
+      <c r="A140" s="25" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="23" t="s">
-        <v>970</v>
+      <c r="A141" s="25" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="23" t="s">
-        <v>971</v>
+      <c r="A142" s="25" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="23" t="s">
-        <v>972</v>
+      <c r="A143" s="25" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="23" t="s">
-        <v>973</v>
+      <c r="A144" s="25" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="23" t="s">
-        <v>974</v>
+      <c r="A145" s="25" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="23" t="s">
-        <v>975</v>
+      <c r="A146" s="25" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="23" t="s">
-        <v>976</v>
+      <c r="A147" s="25" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="23" t="s">
-        <v>977</v>
+      <c r="A148" s="25" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="23" t="s">
-        <v>978</v>
+      <c r="A149" s="25" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="23" t="s">
-        <v>979</v>
+      <c r="A150" s="25" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="23" t="s">
-        <v>980</v>
+      <c r="A151" s="25" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="23" t="s">
-        <v>981</v>
+      <c r="A152" s="25" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="23" t="s">
-        <v>982</v>
+      <c r="A153" s="25" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="23" t="s">
-        <v>983</v>
+      <c r="A154" s="25" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="23" t="s">
-        <v>984</v>
+      <c r="A155" s="25" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="23" t="s">
-        <v>985</v>
+      <c r="A156" s="25" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="23" t="s">
-        <v>986</v>
+      <c r="A157" s="25" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="23" t="s">
-        <v>987</v>
+      <c r="A158" s="25" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="23" t="s">
-        <v>988</v>
+      <c r="A159" s="25" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="23" t="s">
-        <v>989</v>
+      <c r="A160" s="25" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="23" t="s">
-        <v>990</v>
+      <c r="A161" s="25" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="23" t="s">
-        <v>991</v>
+      <c r="A162" s="25" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="23" t="s">
-        <v>992</v>
+      <c r="A163" s="25" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="23" t="s">
-        <v>993</v>
+      <c r="A164" s="25" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="23" t="s">
-        <v>994</v>
+      <c r="A165" s="25" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="23" t="s">
-        <v>995</v>
+      <c r="A166" s="25" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="23" t="s">
-        <v>996</v>
+      <c r="A167" s="25" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="23" t="s">
-        <v>997</v>
+      <c r="A168" s="25" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="23" t="s">
-        <v>998</v>
+      <c r="A169" s="25" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="23" t="s">
-        <v>999</v>
+      <c r="A170" s="25" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="23" t="s">
-        <v>1000</v>
+      <c r="A171" s="25" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="23" t="s">
-        <v>1001</v>
+      <c r="A172" s="25" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="23" t="s">
-        <v>1002</v>
+      <c r="A173" s="25" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="23" t="s">
-        <v>1003</v>
+      <c r="A174" s="25" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="23" t="s">
-        <v>1004</v>
+      <c r="A175" s="25" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="23" t="s">
-        <v>1005</v>
+      <c r="A176" s="25" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="23" t="s">
-        <v>1006</v>
+      <c r="A177" s="25" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="23" t="s">
-        <v>1007</v>
+      <c r="A178" s="25" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="23" t="s">
-        <v>1008</v>
+      <c r="A179" s="25" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="23" t="s">
-        <v>1009</v>
+      <c r="A180" s="25" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="23" t="s">
-        <v>1010</v>
+      <c r="A181" s="25" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="23" t="s">
-        <v>1011</v>
+      <c r="A182" s="25" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="23" t="s">
-        <v>1012</v>
+      <c r="A183" s="25" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="23" t="s">
-        <v>1013</v>
+      <c r="A184" s="25" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="23" t="s">
-        <v>1014</v>
+      <c r="A185" s="25" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="23" t="s">
-        <v>1015</v>
+      <c r="A186" s="25" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="23" t="s">
-        <v>1016</v>
+      <c r="A187" s="25" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="23" t="s">
-        <v>1017</v>
+      <c r="A188" s="25" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="23" t="s">
-        <v>1018</v>
+      <c r="A189" s="25" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="23" t="s">
-        <v>1019</v>
+      <c r="A190" s="25" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="23" t="s">
-        <v>1020</v>
+      <c r="A191" s="25" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="23" t="s">
-        <v>1021</v>
+      <c r="A192" s="25" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="23" t="s">
-        <v>1022</v>
+      <c r="A193" s="25" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="23" t="s">
-        <v>1023</v>
+      <c r="A194" s="25" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="23" t="s">
-        <v>1024</v>
+      <c r="A195" s="25" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="23" t="s">
-        <v>1025</v>
+      <c r="A196" s="25" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="23" t="s">
-        <v>1026</v>
+      <c r="A197" s="25" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="23" t="s">
-        <v>1027</v>
+      <c r="A198" s="25" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="23" t="s">
-        <v>1028</v>
+      <c r="A199" s="25" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="23" t="s">
-        <v>1029</v>
+      <c r="A200" s="25" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="23" t="s">
-        <v>1030</v>
+      <c r="A201" s="25" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="23" t="s">
-        <v>1031</v>
+      <c r="A202" s="25" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="23" t="s">
-        <v>1032</v>
+      <c r="A203" s="25" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="23" t="s">
-        <v>1033</v>
+      <c r="A204" s="25" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="23" t="s">
-        <v>1034</v>
+      <c r="A205" s="25" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="23" t="s">
-        <v>1035</v>
+      <c r="A206" s="25" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="23" t="s">
-        <v>1036</v>
+      <c r="A207" s="25" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="23" t="s">
-        <v>1037</v>
+      <c r="A208" s="25" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="23" t="s">
-        <v>1038</v>
+      <c r="A209" s="25" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="23" t="s">
-        <v>1039</v>
+      <c r="A210" s="25" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="23" t="s">
-        <v>1040</v>
+      <c r="A211" s="25" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="23" t="s">
-        <v>1041</v>
+      <c r="A212" s="25" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="23" t="s">
-        <v>1042</v>
+      <c r="A213" s="25" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="23" t="s">
-        <v>1043</v>
+      <c r="A214" s="25" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="23" t="s">
-        <v>1044</v>
+      <c r="A215" s="25" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="23" t="s">
-        <v>1045</v>
+      <c r="A216" s="25" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="23" t="s">
-        <v>1046</v>
+      <c r="A217" s="25" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="23" t="s">
-        <v>1047</v>
+      <c r="A218" s="25" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="23" t="s">
-        <v>1048</v>
+      <c r="A219" s="25" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="23" t="s">
-        <v>1049</v>
+      <c r="A220" s="25" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="23" t="s">
-        <v>1050</v>
+      <c r="A221" s="25" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="23" t="s">
-        <v>1051</v>
+      <c r="A222" s="25" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="23" t="s">
-        <v>1052</v>
+      <c r="A223" s="25" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="23" t="s">
-        <v>1053</v>
+      <c r="A224" s="25" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="23" t="s">
-        <v>1054</v>
+      <c r="A225" s="25" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="23" t="s">
-        <v>1055</v>
+      <c r="A226" s="25" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="23" t="s">
-        <v>1056</v>
+      <c r="A227" s="25" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="23" t="s">
-        <v>1057</v>
+      <c r="A228" s="25" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="23" t="s">
-        <v>1058</v>
+      <c r="A229" s="25" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="23" t="s">
-        <v>1059</v>
+      <c r="A230" s="25" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="23" t="s">
-        <v>1060</v>
+      <c r="A231" s="25" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="23" t="s">
-        <v>1061</v>
+      <c r="A232" s="25" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="23" t="s">
-        <v>1062</v>
+      <c r="A233" s="25" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="23" t="s">
-        <v>1063</v>
+      <c r="A234" s="25" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="23" t="s">
-        <v>1064</v>
+      <c r="A235" s="25" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="23" t="s">
-        <v>1065</v>
+      <c r="A236" s="25" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="23" t="s">
-        <v>1066</v>
+      <c r="A237" s="25" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="23" t="s">
-        <v>1067</v>
+      <c r="A238" s="25" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="23" t="s">
-        <v>1068</v>
+      <c r="A239" s="25" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="23" t="s">
-        <v>1069</v>
+      <c r="A240" s="25" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="23" t="s">
-        <v>1070</v>
+      <c r="A241" s="25" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="23" t="s">
-        <v>1071</v>
+      <c r="A242" s="25" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="23" t="s">
-        <v>1072</v>
+      <c r="A243" s="25" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="23" t="s">
-        <v>1073</v>
+      <c r="A244" s="25" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="23" t="s">
-        <v>1074</v>
+      <c r="A245" s="25" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="23" t="s">
-        <v>1075</v>
+      <c r="A246" s="25" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="23" t="s">
-        <v>1076</v>
+      <c r="A247" s="25" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="23" t="s">
-        <v>1077</v>
+      <c r="A248" s="25" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="23" t="s">
-        <v>1078</v>
+      <c r="A249" s="25" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="23" t="s">
-        <v>1079</v>
+      <c r="A250" s="25" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="23" t="s">
-        <v>1080</v>
+      <c r="A251" s="25" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="23" t="s">
-        <v>1081</v>
+      <c r="A252" s="25" t="s">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
